--- a/examples/Olink_Finished_Example/delivery/data/Data_With_Analysis.xlsx
+++ b/examples/Olink_Finished_Example/delivery/data/Data_With_Analysis.xlsx
@@ -3048,7 +3048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3064,15 +3064,16 @@
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
     <col width="38" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="38" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3103,45 +3104,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Comparison 1: Group 1 v. Group 2 FDR-adj. P-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Comparison 1: Group 1 Missing Values</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Comparison 1: Group 2 Missing Values</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Sample 1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Sample 2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Sample 3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Sample 4</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Sample 5</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Sample 6</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sample 7</t>
         </is>
@@ -3165,35 +3171,38 @@
       <c r="E2" s="3" t="n">
         <v>0.9686819242113401</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="I2" s="3" t="n">
         <v>2.842861389319596</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="J2" s="3" t="n">
         <v>2.768611914017107</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="3" t="n">
         <v>2.731466204428227</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="L2" s="3" t="n">
         <v>2.719446974338198</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>2.822787548324679</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="N2" s="3" t="n">
         <v>2.858266457626631</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="O2" s="3" t="n">
         <v>2.731466204428227</v>
       </c>
     </row>
@@ -3215,35 +3224,38 @@
       <c r="E3" s="3" t="n">
         <v>0.3668791636651224</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="3" t="n">
         <v>2.652175131746933</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="3" t="n">
         <v>2.672857027463539</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="K3" s="3" t="n">
         <v>3.469976036435682</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="L3" s="3" t="n">
         <v>2.657086786678368</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>3.417330380993183</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="N3" s="3" t="n">
         <v>3.478156913251917</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="O3" s="3" t="n">
         <v>3.469976036435682</v>
       </c>
     </row>
@@ -3265,35 +3277,38 @@
       <c r="E4" s="3" t="n">
         <v>0.6374928206452366</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="3" t="n">
         <v>2.77390420240054</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="3" t="n">
         <v>2.555743060218906</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="K4" s="3" t="n">
         <v>2.760461772643473</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="L4" s="3" t="n">
         <v>1.002176942382941</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>2.954667376719046</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="N4" s="3" t="n">
         <v>2.94140719410136</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="O4" s="3" t="n">
         <v>2.760461772643473</v>
       </c>
     </row>
@@ -3315,35 +3330,38 @@
       <c r="E5" s="3" t="n">
         <v>0.7992460902537888</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="3" t="n">
         <v>2.8651238105942</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="3" t="n">
         <v>2.35437167110017</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="K5" s="3" t="n">
         <v>2.654268766223095</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="L5" s="3" t="n">
         <v>2.486740734341689</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>2.648105710838534</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="N5" s="3" t="n">
         <v>2.87665593060836</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="O5" s="3" t="n">
         <v>2.654268766223095</v>
       </c>
     </row>
@@ -3365,35 +3383,38 @@
       <c r="E6" s="3" t="n">
         <v>0.1429111665095427</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="3" t="n">
         <v>2.806436364713511</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="3" t="n">
         <v>2.763393785123077</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="K6" s="3" t="n">
         <v>2.82085180806937</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="L6" s="3" t="n">
         <v>2.598752140890354</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="M6" s="3" t="n">
         <v>2.713521632550958</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="N6" s="3" t="n">
         <v>2.563215622851612</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="O6" s="3" t="n">
         <v>2.82085180806937</v>
       </c>
     </row>
@@ -3415,35 +3436,38 @@
       <c r="E7" s="3" t="n">
         <v>0.04229689733851454</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="3" t="n">
         <v>2.597528021744392</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="J7" s="3" t="n">
         <v>2.737487501190704</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="K7" s="3" t="n">
         <v>2.773709967181434</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="L7" s="3" t="n">
         <v>2.86912433528395</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>2.959146566475057</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="N7" s="3" t="n">
         <v>2.912415345146016</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="O7" s="3" t="n">
         <v>2.773709967181434</v>
       </c>
     </row>
@@ -3465,35 +3489,38 @@
       <c r="E8" s="3" t="n">
         <v>0.4212252000850173</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="n">
+        <v>0.9532991370345129</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="I8" s="3" t="n">
         <v>1.64234277158566</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="J8" s="3" t="n">
         <v>3.008160156894478</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="K8" s="3" t="n">
         <v>2.490779616248029</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="L8" s="3" t="n">
         <v>2.882052170481142</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="M8" s="3" t="n">
         <v>2.890900726370027</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="N8" s="3" t="n">
         <v>2.512546829794456</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="O8" s="3" t="n">
         <v>2.490779616248029</v>
       </c>
     </row>
@@ -3515,35 +3542,38 @@
       <c r="E9" s="3" t="n">
         <v>0.1508922755739202</v>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="3" t="n">
         <v>2.972722672316328</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="J9" s="3" t="n">
         <v>2.752960519193744</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="K9" s="3" t="n">
         <v>2.696090394413828</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="L9" s="3" t="n">
         <v>2.742228189188941</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="M9" s="3" t="n">
         <v>2.450563100156142</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="N9" s="3" t="n">
         <v>2.150673997017146</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="O9" s="3" t="n">
         <v>2.696090394413828</v>
       </c>
     </row>
@@ -3565,35 +3595,38 @@
       <c r="E10" s="3" t="n">
         <v>0.3106026411562025</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="I10" s="3" t="n">
         <v>2.797948640409932</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="J10" s="3" t="n">
         <v>2.910098149333121</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="K10" s="3" t="n">
         <v>2.81463099014193</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="L10" s="3" t="n">
         <v>2.700801020949385</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="M10" s="3" t="n">
         <v>2.858848878058056</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="N10" s="3" t="n">
         <v>2.310643045021802</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="O10" s="3" t="n">
         <v>2.81463099014193</v>
       </c>
     </row>
@@ -3615,35 +3648,38 @@
       <c r="E11" s="3" t="n">
         <v>0.3284286073078365</v>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="I11" s="3" t="n">
         <v>2.808218384626105</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="J11" s="3" t="n">
         <v>2.709904479615243</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="K11" s="3" t="n">
         <v>2.781134629560182</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="L11" s="3" t="n">
         <v>2.581690520227578</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="M11" s="3" t="n">
         <v>2.764895248671262</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="N11" s="3" t="n">
         <v>2.68043526128161</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="O11" s="3" t="n">
         <v>2.781134629560182</v>
       </c>
     </row>
@@ -3665,35 +3701,38 @@
       <c r="E12" s="3" t="n">
         <v>0.457421147412378</v>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" s="3" t="n">
+        <v>0.9834554669366127</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="I12" s="3" t="n">
         <v>2.720448095837516</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="J12" s="3" t="n">
         <v>2.767482641187241</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="K12" s="3" t="n">
         <v>2.735590082877412</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="L12" s="3" t="n">
         <v>2.849755154724612</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="M12" s="3" t="n">
         <v>2.744956139171861</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="N12" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="O12" s="3" t="n">
         <v>2.735590082877412</v>
       </c>
     </row>
@@ -3715,35 +3754,38 @@
       <c r="E13" s="3" t="n">
         <v>0.892149146093679</v>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="I13" s="3" t="n">
         <v>2.620110367239199</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="J13" s="3" t="n">
         <v>2.800374039648126</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="K13" s="3" t="n">
         <v>2.874543419814005</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="L13" s="3" t="n">
         <v>2.747259649420308</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="M13" s="3" t="n">
         <v>2.725681073492708</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="N13" s="3" t="n">
         <v>2.665869435344886</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="O13" s="3" t="n">
         <v>2.874543419814005</v>
       </c>
     </row>
@@ -3765,35 +3807,38 @@
       <c r="E14" s="3" t="n">
         <v>0.8062720772504594</v>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="I14" s="3" t="n">
         <v>0.679656515374523</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="J14" s="3" t="n">
         <v>2.570572382859587</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="K14" s="3" t="n">
         <v>2.920704282922089</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="L14" s="3" t="n">
         <v>2.746454325919911</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="M14" s="3" t="n">
         <v>2.770875244509986</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="N14" s="3" t="n">
         <v>0.6792772361839096</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="O14" s="3" t="n">
         <v>2.920704282922089</v>
       </c>
     </row>
@@ -3815,35 +3860,38 @@
       <c r="E15" s="3" t="n">
         <v>0.09461339548375053</v>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="I15" s="3" t="n">
         <v>2.854948186331055</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="J15" s="3" t="n">
         <v>2.920088801801233</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="K15" s="3" t="n">
         <v>2.893114829199743</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="L15" s="3" t="n">
         <v>2.760639070884499</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="M15" s="3" t="n">
         <v>2.74519373518491</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="N15" s="3" t="n">
         <v>2.644565656332026</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="O15" s="3" t="n">
         <v>2.893114829199743</v>
       </c>
     </row>
@@ -3865,35 +3913,38 @@
       <c r="E16" s="3" t="n">
         <v>0.269641347302886</v>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="I16" s="3" t="n">
         <v>2.856899090931711</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="J16" s="3" t="n">
         <v>2.771562762621397</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="K16" s="3" t="n">
         <v>2.823962339253387</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="L16" s="3" t="n">
         <v>2.893761200180869</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="M16" s="3" t="n">
         <v>2.843732879484183</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="N16" s="3" t="n">
         <v>2.843757123888723</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="O16" s="3" t="n">
         <v>2.823962339253387</v>
       </c>
     </row>
@@ -3915,35 +3966,38 @@
       <c r="E17" s="3" t="n">
         <v>0.5833655670129285</v>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="I17" s="3" t="n">
         <v>2.863856490334567</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="J17" s="3" t="n">
         <v>2.873921530454552</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="K17" s="3" t="n">
         <v>2.591312350826683</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="L17" s="3" t="n">
         <v>2.727901789017338</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="M17" s="3" t="n">
         <v>2.770898376273966</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="N17" s="3" t="n">
         <v>2.794410634998431</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="O17" s="3" t="n">
         <v>2.591312350826683</v>
       </c>
     </row>
@@ -3965,35 +4019,38 @@
       <c r="E18" s="3" t="n">
         <v>0.9955366054177002</v>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="3" t="n">
+        <v>0.9955366054177002</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="I18" s="3" t="n">
         <v>2.758513354983224</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="J18" s="3" t="n">
         <v>2.632791457762965</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="K18" s="3" t="n">
         <v>2.882357097842994</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="L18" s="3" t="n">
         <v>2.816693729200495</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="M18" s="3" t="n">
         <v>2.806680075853888</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="N18" s="3" t="n">
         <v>2.523184052441284</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="O18" s="3" t="n">
         <v>2.882357097842994</v>
       </c>
     </row>
@@ -4015,35 +4072,38 @@
       <c r="E19" s="3" t="n">
         <v>0.9157949927749114</v>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="I19" s="3" t="n">
         <v>2.749299640741849</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="J19" s="3" t="n">
         <v>2.862579377644372</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="K19" s="3" t="n">
         <v>2.431210104412778</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="L19" s="3" t="n">
         <v>2.729695079618066</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="M19" s="3" t="n">
         <v>2.784108989314849</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="N19" s="3" t="n">
         <v>2.715447257054987</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="O19" s="3" t="n">
         <v>2.431210104412778</v>
       </c>
     </row>
@@ -4065,35 +4125,38 @@
       <c r="E20" s="3" t="n">
         <v>0.5981661727556093</v>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="I20" s="3" t="n">
         <v>2.700808110446306</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="J20" s="3" t="n">
         <v>2.892416309772511</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="K20" s="3" t="n">
         <v>2.861923210440203</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="L20" s="3" t="n">
         <v>2.98927817802745</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="M20" s="3" t="n">
         <v>2.13293240886582</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="N20" s="3" t="n">
         <v>2.769996015942731</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="O20" s="3" t="n">
         <v>2.861923210440203</v>
       </c>
     </row>
@@ -4115,35 +4178,38 @@
       <c r="E21" s="3" t="n">
         <v>0.06024457408520196</v>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="I21" s="3" t="n">
         <v>1.457900282521165</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="J21" s="3" t="n">
         <v>1.504796928325388</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="K21" s="3" t="n">
         <v>2.869931786931622</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="L21" s="3" t="n">
         <v>2.911386295338121</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="M21" s="3" t="n">
         <v>2.849739694979545</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="N21" s="3" t="n">
         <v>2.896679107633098</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="O21" s="3" t="n">
         <v>2.869931786931622</v>
       </c>
     </row>
@@ -4165,35 +4231,38 @@
       <c r="E22" s="3" t="n">
         <v>0.5701370359352891</v>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="I22" s="3" t="n">
         <v>2.622951114337571</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="J22" s="3" t="n">
         <v>2.809984938510516</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="K22" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="L22" s="3" t="n">
         <v>2.74196172244724</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="M22" s="3" t="n">
         <v>2.736512666404876</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="N22" s="3" t="n">
         <v>2.799267908580477</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="O22" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
     </row>
@@ -4215,35 +4284,38 @@
       <c r="E23" s="3" t="n">
         <v>0.8238941648297458</v>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="I23" s="3" t="n">
         <v>2.590611574698948</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="J23" s="3" t="n">
         <v>2.612188412174786</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="K23" s="3" t="n">
         <v>3.420490066009333</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="L23" s="3" t="n">
         <v>2.595736979058822</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="M23" s="3" t="n">
         <v>2.57569904542359</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="N23" s="3" t="n">
         <v>2.590510727854091</v>
       </c>
-      <c r="N23" s="3" t="n">
+      <c r="O23" s="3" t="n">
         <v>3.420490066009333</v>
       </c>
     </row>
@@ -4265,35 +4337,38 @@
       <c r="E24" s="3" t="n">
         <v>0.9310108862424211</v>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="I24" s="3" t="n">
         <v>2.926545455011116</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="J24" s="3" t="n">
         <v>1.753482012383008</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="K24" s="3" t="n">
         <v>1.731448259862832</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="L24" s="3" t="n">
         <v>3.028634101448945</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="M24" s="3" t="n">
         <v>1.686615664107966</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="N24" s="3" t="n">
         <v>2.282585339054438</v>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="O24" s="3" t="n">
         <v>1.731448259862832</v>
       </c>
     </row>
@@ -4315,35 +4390,38 @@
       <c r="E25" s="3" t="n">
         <v>0.8059845560294207</v>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="I25" s="3" t="n">
         <v>2.765726357273089</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="J25" s="3" t="n">
         <v>2.746776514683039</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="K25" s="3" t="n">
         <v>2.612406752031311</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="L25" s="3" t="n">
         <v>2.788762110149751</v>
       </c>
-      <c r="L25" s="3" t="n">
+      <c r="M25" s="3" t="n">
         <v>2.637826773679186</v>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="N25" s="3" t="n">
         <v>2.729000360370433</v>
       </c>
-      <c r="N25" s="3" t="n">
+      <c r="O25" s="3" t="n">
         <v>2.612406752031311</v>
       </c>
     </row>
@@ -4365,35 +4443,38 @@
       <c r="E26" s="3" t="n">
         <v>0.3198758964905291</v>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="I26" s="3" t="n">
         <v>2.469884071993877</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="J26" s="3" t="n">
         <v>2.627197209247783</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="K26" s="3" t="n">
         <v>2.934135340745876</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="L26" s="3" t="n">
         <v>2.718045825008641</v>
       </c>
-      <c r="L26" s="3" t="n">
+      <c r="M26" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="N26" s="3" t="n">
         <v>2.886300787396052</v>
       </c>
-      <c r="N26" s="3" t="n">
+      <c r="O26" s="3" t="n">
         <v>2.934135340745876</v>
       </c>
     </row>
@@ -4415,35 +4496,38 @@
       <c r="E27" s="3" t="n">
         <v>0.3703342580440061</v>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="I27" s="3" t="n">
         <v>2.668798846150992</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="J27" s="3" t="n">
         <v>3.103114569347214</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="K27" s="3" t="n">
         <v>2.649184541140208</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="L27" s="3" t="n">
         <v>2.595360132299179</v>
       </c>
-      <c r="L27" s="3" t="n">
+      <c r="M27" s="3" t="n">
         <v>0.7757596542368319</v>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="N27" s="3" t="n">
         <v>2.885246788947672</v>
       </c>
-      <c r="N27" s="3" t="n">
+      <c r="O27" s="3" t="n">
         <v>2.649184541140208</v>
       </c>
     </row>
@@ -4465,35 +4549,38 @@
       <c r="E28" s="3" t="n">
         <v>0.8265699574292205</v>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="I28" s="3" t="n">
         <v>2.805068763873233</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="J28" s="3" t="n">
         <v>1.025232515941203</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="K28" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
-      <c r="K28" s="3" t="n">
+      <c r="L28" s="3" t="n">
         <v>0.9752342451364504</v>
       </c>
-      <c r="L28" s="3" t="n">
+      <c r="M28" s="3" t="n">
         <v>2.841567202537414</v>
       </c>
-      <c r="M28" s="3" t="n">
+      <c r="N28" s="3" t="n">
         <v>2.846398909270763</v>
       </c>
-      <c r="N28" s="3" t="n">
+      <c r="O28" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
     </row>
@@ -4515,35 +4602,38 @@
       <c r="E29" s="3" t="n">
         <v>0.6202036593928302</v>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="I29" s="3" t="n">
         <v>2.606627648486179</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="J29" s="3" t="n">
         <v>2.736524924199701</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="K29" s="3" t="n">
         <v>2.368172218875893</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="L29" s="3" t="n">
         <v>2.657868729346967</v>
       </c>
-      <c r="L29" s="3" t="n">
+      <c r="M29" s="3" t="n">
         <v>2.708230071726979</v>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="N29" s="3" t="n">
         <v>2.871337348538176</v>
       </c>
-      <c r="N29" s="3" t="n">
+      <c r="O29" s="3" t="n">
         <v>2.368172218875893</v>
       </c>
     </row>
@@ -4565,35 +4655,38 @@
       <c r="E30" s="3" t="n">
         <v>0.7010026225517865</v>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="I30" s="3" t="n">
         <v>2.443649566241175</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="J30" s="3" t="n">
         <v>2.755192452243664</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="K30" s="3" t="n">
         <v>2.582017245381849</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="L30" s="3" t="n">
         <v>2.58864719136271</v>
       </c>
-      <c r="L30" s="3" t="n">
+      <c r="M30" s="3" t="n">
         <v>2.589626260628941</v>
       </c>
-      <c r="M30" s="3" t="n">
+      <c r="N30" s="3" t="n">
         <v>2.763517461850401</v>
       </c>
-      <c r="N30" s="3" t="n">
+      <c r="O30" s="3" t="n">
         <v>2.582017245381849</v>
       </c>
     </row>
@@ -4615,35 +4708,38 @@
       <c r="E31" s="3" t="n">
         <v>0.9382001186273914</v>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="I31" s="3" t="n">
         <v>2.906284332134755</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="J31" s="3" t="n">
         <v>2.585599727131723</v>
       </c>
-      <c r="J31" s="3" t="n">
+      <c r="K31" s="3" t="n">
         <v>2.486360334829388</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="L31" s="3" t="n">
         <v>2.830024582022301</v>
       </c>
-      <c r="L31" s="3" t="n">
+      <c r="M31" s="3" t="n">
         <v>2.833912784947369</v>
       </c>
-      <c r="M31" s="3" t="n">
+      <c r="N31" s="3" t="n">
         <v>2.53718435654166</v>
       </c>
-      <c r="N31" s="3" t="n">
+      <c r="O31" s="3" t="n">
         <v>2.486360334829388</v>
       </c>
     </row>
@@ -4665,35 +4761,38 @@
       <c r="E32" s="3" t="n">
         <v>0.3919237110111256</v>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="I32" s="3" t="n">
         <v>2.771954831601482</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="J32" s="3" t="n">
         <v>2.761123472317186</v>
       </c>
-      <c r="J32" s="3" t="n">
+      <c r="K32" s="3" t="n">
         <v>2.712128728899954</v>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="L32" s="3" t="n">
         <v>2.830170077075348</v>
       </c>
-      <c r="L32" s="3" t="n">
+      <c r="M32" s="3" t="n">
         <v>2.64425862755135</v>
       </c>
-      <c r="M32" s="3" t="n">
+      <c r="N32" s="3" t="n">
         <v>2.335954525474979</v>
       </c>
-      <c r="N32" s="3" t="n">
+      <c r="O32" s="3" t="n">
         <v>2.712128728899954</v>
       </c>
     </row>
@@ -4715,35 +4814,38 @@
       <c r="E33" s="3" t="n">
         <v>0.5151093858763158</v>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="I33" s="3" t="n">
         <v>2.669085068038823</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="J33" s="3" t="n">
         <v>2.815833469294578</v>
       </c>
-      <c r="J33" s="3" t="n">
+      <c r="K33" s="3" t="n">
         <v>2.590100636812136</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="L33" s="3" t="n">
         <v>2.953128312934323</v>
       </c>
-      <c r="L33" s="3" t="n">
+      <c r="M33" s="3" t="n">
         <v>2.409820755169994</v>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="N33" s="3" t="n">
         <v>2.328252631526343</v>
       </c>
-      <c r="N33" s="3" t="n">
+      <c r="O33" s="3" t="n">
         <v>2.590100636812136</v>
       </c>
     </row>
@@ -4765,35 +4867,38 @@
       <c r="E34" s="3" t="n">
         <v>0.2819420560745722</v>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="I34" s="3" t="n">
         <v>2.551745189712108</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="J34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="3" t="n">
+      <c r="K34" s="3" t="n">
         <v>2.921865333013892</v>
       </c>
-      <c r="K34" s="3" t="n">
+      <c r="L34" s="3" t="n">
         <v>2.851214392945532</v>
       </c>
-      <c r="L34" s="3" t="n">
+      <c r="M34" s="3" t="n">
         <v>2.471898527665747</v>
       </c>
-      <c r="M34" s="3" t="n">
+      <c r="N34" s="3" t="n">
         <v>2.802173347740011</v>
       </c>
-      <c r="N34" s="3" t="n">
+      <c r="O34" s="3" t="n">
         <v>2.921865333013892</v>
       </c>
     </row>
@@ -4815,35 +4920,38 @@
       <c r="E35" s="3" t="n">
         <v>0.8997856779001125</v>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="I35" s="3" t="n">
         <v>3.032970618543196</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="J35" s="3" t="n">
         <v>0.6048404969401225</v>
       </c>
-      <c r="J35" s="3" t="n">
+      <c r="K35" s="3" t="n">
         <v>2.933503165062636</v>
       </c>
-      <c r="K35" s="3" t="n">
+      <c r="L35" s="3" t="n">
         <v>2.968371465997902</v>
       </c>
-      <c r="L35" s="3" t="n">
+      <c r="M35" s="3" t="n">
         <v>0.4521777517196926</v>
       </c>
-      <c r="M35" s="3" t="n">
+      <c r="N35" s="3" t="n">
         <v>2.933398615989418</v>
       </c>
-      <c r="N35" s="3" t="n">
+      <c r="O35" s="3" t="n">
         <v>2.933503165062636</v>
       </c>
     </row>
@@ -4865,35 +4973,38 @@
       <c r="E36" s="3" t="n">
         <v>0.2473980568498829</v>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="I36" s="3" t="n">
         <v>2.569567980621718</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="J36" s="3" t="n">
         <v>0.7090825501209616</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="K36" s="3" t="n">
         <v>2.698341035297455</v>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="L36" s="3" t="n">
         <v>2.866583157602399</v>
       </c>
-      <c r="L36" s="3" t="n">
+      <c r="M36" s="3" t="n">
         <v>2.600988137388117</v>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="N36" s="3" t="n">
         <v>2.642474906406239</v>
       </c>
-      <c r="N36" s="3" t="n">
+      <c r="O36" s="3" t="n">
         <v>2.698341035297455</v>
       </c>
     </row>
@@ -4915,35 +5026,38 @@
       <c r="E37" s="3" t="n">
         <v>0.17525847865452</v>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="I37" s="3" t="n">
         <v>2.55376611482987</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="J37" s="3" t="n">
         <v>2.645672173284085</v>
       </c>
-      <c r="J37" s="3" t="n">
+      <c r="K37" s="3" t="n">
         <v>2.621130829267512</v>
       </c>
-      <c r="K37" s="3" t="n">
+      <c r="L37" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="L37" s="3" t="n">
+      <c r="M37" s="3" t="n">
         <v>2.691266829530108</v>
       </c>
-      <c r="M37" s="3" t="n">
+      <c r="N37" s="3" t="n">
         <v>2.993925766088706</v>
       </c>
-      <c r="N37" s="3" t="n">
+      <c r="O37" s="3" t="n">
         <v>2.621130829267512</v>
       </c>
     </row>
@@ -4965,35 +5079,38 @@
       <c r="E38" s="3" t="n">
         <v>0.5545909095156099</v>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="H38" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="I38" s="3" t="n">
         <v>2.746846974669668</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="J38" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="J38" s="3" t="n">
+      <c r="K38" s="3" t="n">
         <v>2.690470523429745</v>
       </c>
-      <c r="K38" s="3" t="n">
+      <c r="L38" s="3" t="n">
         <v>2.775081350228229</v>
       </c>
-      <c r="L38" s="3" t="n">
+      <c r="M38" s="3" t="n">
         <v>2.593578960968991</v>
       </c>
-      <c r="M38" s="3" t="n">
+      <c r="N38" s="3" t="n">
         <v>2.727904255130154</v>
       </c>
-      <c r="N38" s="3" t="n">
+      <c r="O38" s="3" t="n">
         <v>2.690470523429745</v>
       </c>
     </row>
@@ -5015,35 +5132,38 @@
       <c r="E39" s="3" t="n">
         <v>0.8528674463235559</v>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="I39" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="J39" s="3" t="n">
         <v>3.102899833074448</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="K39" s="3" t="n">
         <v>2.782853949654009</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="L39" s="3" t="n">
         <v>2.85921795646253</v>
       </c>
-      <c r="L39" s="3" t="n">
+      <c r="M39" s="3" t="n">
         <v>2.696207903298152</v>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="N39" s="3" t="n">
         <v>3.064469837567312</v>
       </c>
-      <c r="N39" s="3" t="n">
+      <c r="O39" s="3" t="n">
         <v>2.782853949654009</v>
       </c>
     </row>
@@ -5065,35 +5185,38 @@
       <c r="E40" s="3" t="n">
         <v>0.9536966729588888</v>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H40" s="3" t="n">
+      <c r="I40" s="3" t="n">
         <v>2.619447681465233</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="J40" s="3" t="n">
         <v>2.915304353375638</v>
       </c>
-      <c r="J40" s="3" t="n">
+      <c r="K40" s="3" t="n">
         <v>2.879806991800368</v>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="L40" s="3" t="n">
         <v>2.739910549093783</v>
       </c>
-      <c r="L40" s="3" t="n">
+      <c r="M40" s="3" t="n">
         <v>2.83394896572177</v>
       </c>
-      <c r="M40" s="3" t="n">
+      <c r="N40" s="3" t="n">
         <v>2.744252715316272</v>
       </c>
-      <c r="N40" s="3" t="n">
+      <c r="O40" s="3" t="n">
         <v>2.879806991800368</v>
       </c>
     </row>
@@ -5115,35 +5238,38 @@
       <c r="E41" s="3" t="n">
         <v>0.362304187234493</v>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="I41" s="3" t="n">
         <v>2.881623548614027</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="J41" s="3" t="n">
         <v>2.799533658167344</v>
       </c>
-      <c r="J41" s="3" t="n">
+      <c r="K41" s="3" t="n">
         <v>2.87554194478334</v>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="L41" s="3" t="n">
         <v>2.72221376577062</v>
       </c>
-      <c r="L41" s="3" t="n">
+      <c r="M41" s="3" t="n">
         <v>2.876053013034554</v>
       </c>
-      <c r="M41" s="3" t="n">
+      <c r="N41" s="3" t="n">
         <v>2.441350697323663</v>
       </c>
-      <c r="N41" s="3" t="n">
+      <c r="O41" s="3" t="n">
         <v>2.87554194478334</v>
       </c>
     </row>
@@ -5165,35 +5291,38 @@
       <c r="E42" s="3" t="n">
         <v>0.2568645867477102</v>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="I42" s="3" t="n">
         <v>2.697358494642792</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="J42" s="3" t="n">
         <v>2.717407107942376</v>
       </c>
-      <c r="J42" s="3" t="n">
+      <c r="K42" s="3" t="n">
         <v>2.706153321407656</v>
       </c>
-      <c r="K42" s="3" t="n">
+      <c r="L42" s="3" t="n">
         <v>2.702118956281866</v>
       </c>
-      <c r="L42" s="3" t="n">
+      <c r="M42" s="3" t="n">
         <v>2.683514650589955</v>
       </c>
-      <c r="M42" s="3" t="n">
+      <c r="N42" s="3" t="n">
         <v>2.697264840453717</v>
       </c>
-      <c r="N42" s="3" t="n">
+      <c r="O42" s="3" t="n">
         <v>2.706153321407656</v>
       </c>
     </row>
@@ -5215,35 +5344,38 @@
       <c r="E43" s="3" t="n">
         <v>0.07934867538099176</v>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="3" t="n">
+        <v>0.9362621985265778</v>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="I43" s="3" t="n">
         <v>2.63672038784067</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="J43" s="3" t="n">
         <v>2.665846806159683</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="K43" s="3" t="n">
         <v>2.832883713572704</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="L43" s="3" t="n">
         <v>2.795443776155373</v>
       </c>
-      <c r="L43" s="3" t="n">
+      <c r="M43" s="3" t="n">
         <v>2.843053053975221</v>
       </c>
-      <c r="M43" s="3" t="n">
+      <c r="N43" s="3" t="n">
         <v>2.839584003776167</v>
       </c>
-      <c r="N43" s="3" t="n">
+      <c r="O43" s="3" t="n">
         <v>2.832883713572704</v>
       </c>
     </row>
@@ -5265,35 +5397,38 @@
       <c r="E44" s="3" t="n">
         <v>0.8265699574292205</v>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="3" t="n">
+        <v>0.9917457795497054</v>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>0 / 4</t>
         </is>
       </c>
-      <c r="H44" s="3" t="n">
+      <c r="I44" s="3" t="n">
         <v>2.805068763873233</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="J44" s="3" t="n">
         <v>1.025232515941203</v>
       </c>
-      <c r="J44" s="3" t="n">
+      <c r="K44" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
-      <c r="K44" s="3" t="n">
+      <c r="L44" s="3" t="n">
         <v>0.9752342451364504</v>
       </c>
-      <c r="L44" s="3" t="n">
+      <c r="M44" s="3" t="n">
         <v>2.841567202537414</v>
       </c>
-      <c r="M44" s="3" t="n">
+      <c r="N44" s="3" t="n">
         <v>2.846398909270763</v>
       </c>
-      <c r="N44" s="3" t="n">
+      <c r="O44" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
     </row>
@@ -5308,7 +5443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5329,16 +5464,19 @@
     <col width="42" customWidth="1" min="8" max="8"/>
     <col width="42" customWidth="1" min="9" max="9"/>
     <col width="42" customWidth="1" min="10" max="10"/>
-    <col width="38" customWidth="1" min="11" max="11"/>
-    <col width="38" customWidth="1" min="12" max="12"/>
-    <col width="38" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="51" customWidth="1" min="11" max="11"/>
+    <col width="51" customWidth="1" min="12" max="12"/>
+    <col width="51" customWidth="1" min="13" max="13"/>
+    <col width="38" customWidth="1" min="14" max="14"/>
+    <col width="38" customWidth="1" min="15" max="15"/>
+    <col width="38" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
     <col width="20" customWidth="1" min="18" max="18"/>
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5394,50 +5532,65 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Comparison 2: Group 1 v. Group 2 FDR-adj. P-value</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison 2: Group 1 v. Group 3 FDR-adj. P-value</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison 2: Group 2 v. Group 3 FDR-adj. P-value</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Comparison 2: Group 1 Missing Values</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Comparison 2: Group 2 Missing Values</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Comparison 2: Group 3 Missing Values</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Sample 1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Sample 2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Sample 3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sample 4</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Sample 5</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Sample 6</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Sample 7</t>
         </is>
@@ -5476,40 +5629,49 @@
       <c r="J2" s="3" t="n">
         <v>0.02548493362049396</v>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>2.842861389319596</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="R2" s="3" t="n">
         <v>2.768611914017107</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="S2" s="3" t="n">
         <v>2.731466204428227</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="T2" s="3" t="n">
         <v>2.719446974338198</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="U2" s="3" t="n">
         <v>2.822787548324679</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="V2" s="3" t="n">
         <v>2.858266457626631</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="W2" s="3" t="n">
         <v>2.731466204428227</v>
       </c>
     </row>
@@ -5546,40 +5708,49 @@
       <c r="J3" s="3" t="n">
         <v>0.4453585035179785</v>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n">
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>2.652175131746933</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="R3" s="3" t="n">
         <v>2.672857027463539</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="S3" s="3" t="n">
         <v>3.469976036435682</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="T3" s="3" t="n">
         <v>2.657086786678368</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="U3" s="3" t="n">
         <v>3.417330380993183</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="V3" s="3" t="n">
         <v>3.478156913251917</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="W3" s="3" t="n">
         <v>3.469976036435682</v>
       </c>
     </row>
@@ -5616,40 +5787,49 @@
       <c r="J4" s="3" t="n">
         <v>0.3488546669042947</v>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="K4" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.5615155385876267</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="n">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="n">
         <v>2.77390420240054</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="R4" s="3" t="n">
         <v>2.555743060218906</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="S4" s="3" t="n">
         <v>2.760461772643473</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="T4" s="3" t="n">
         <v>1.002176942382941</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="U4" s="3" t="n">
         <v>2.954667376719046</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="V4" s="3" t="n">
         <v>2.94140719410136</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="W4" s="3" t="n">
         <v>2.760461772643473</v>
       </c>
     </row>
@@ -5686,40 +5866,49 @@
       <c r="J5" s="3" t="n">
         <v>0.3083777391219957</v>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K5" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="n">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
         <v>2.8651238105942</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="R5" s="3" t="n">
         <v>2.35437167110017</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="S5" s="3" t="n">
         <v>2.654268766223095</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="T5" s="3" t="n">
         <v>2.486740734341689</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="U5" s="3" t="n">
         <v>2.648105710838534</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="V5" s="3" t="n">
         <v>2.87665593060836</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="W5" s="3" t="n">
         <v>2.654268766223095</v>
       </c>
     </row>
@@ -5756,40 +5945,49 @@
       <c r="J6" s="3" t="n">
         <v>0.647485727299099</v>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="K6" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0.5615155385876267</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.7954824649674646</v>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N6" s="3" t="n">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n">
         <v>2.806436364713511</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="R6" s="3" t="n">
         <v>2.763393785123077</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="S6" s="3" t="n">
         <v>2.82085180806937</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="T6" s="3" t="n">
         <v>2.598752140890354</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="U6" s="3" t="n">
         <v>2.713521632550958</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="V6" s="3" t="n">
         <v>2.563215622851612</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="W6" s="3" t="n">
         <v>2.82085180806937</v>
       </c>
     </row>
@@ -5826,40 +6024,49 @@
       <c r="J7" s="3" t="n">
         <v>0.1642013989017341</v>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="K7" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0.511710244632548</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N7" s="3" t="n">
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n">
         <v>2.597528021744392</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="R7" s="3" t="n">
         <v>2.737487501190704</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="S7" s="3" t="n">
         <v>2.773709967181434</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="T7" s="3" t="n">
         <v>2.86912433528395</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="U7" s="3" t="n">
         <v>2.959146566475057</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="V7" s="3" t="n">
         <v>2.912415345146016</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="W7" s="3" t="n">
         <v>2.773709967181434</v>
       </c>
     </row>
@@ -5896,40 +6103,49 @@
       <c r="J8" s="3" t="n">
         <v>0.9602569894108124</v>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="K8" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.9602569894108124</v>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="n">
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n">
         <v>1.64234277158566</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="R8" s="3" t="n">
         <v>3.008160156894478</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="S8" s="3" t="n">
         <v>2.490779616248029</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="T8" s="3" t="n">
         <v>2.882052170481142</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="U8" s="3" t="n">
         <v>2.890900726370027</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="V8" s="3" t="n">
         <v>2.512546829794456</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="W8" s="3" t="n">
         <v>2.490779616248029</v>
       </c>
     </row>
@@ -5966,40 +6182,49 @@
       <c r="J9" s="3" t="n">
         <v>0.1101068221137138</v>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K9" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.511710244632548</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N9" s="3" t="n">
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n">
         <v>2.972722672316328</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="R9" s="3" t="n">
         <v>2.752960519193744</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="S9" s="3" t="n">
         <v>2.696090394413828</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="T9" s="3" t="n">
         <v>2.742228189188941</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="U9" s="3" t="n">
         <v>2.450563100156142</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="V9" s="3" t="n">
         <v>2.150673997017146</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="W9" s="3" t="n">
         <v>2.696090394413828</v>
       </c>
     </row>
@@ -6036,40 +6261,49 @@
       <c r="J10" s="3" t="n">
         <v>0.5996472279505433</v>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="K10" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.7954824649674646</v>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N10" s="3" t="n">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n">
         <v>2.797948640409932</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="R10" s="3" t="n">
         <v>2.910098149333121</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="S10" s="3" t="n">
         <v>2.81463099014193</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="T10" s="3" t="n">
         <v>2.700801020949385</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="U10" s="3" t="n">
         <v>2.858848878058056</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="V10" s="3" t="n">
         <v>2.310643045021802</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="W10" s="3" t="n">
         <v>2.81463099014193</v>
       </c>
     </row>
@@ -6106,40 +6340,49 @@
       <c r="J11" s="3" t="n">
         <v>0.739913154451043</v>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K11" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0.85989907138905</v>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="n">
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n">
         <v>2.808218384626105</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="R11" s="3" t="n">
         <v>2.709904479615243</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="S11" s="3" t="n">
         <v>2.781134629560182</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="T11" s="3" t="n">
         <v>2.581690520227578</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="U11" s="3" t="n">
         <v>2.764895248671262</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="V11" s="3" t="n">
         <v>2.68043526128161</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="W11" s="3" t="n">
         <v>2.781134629560182</v>
       </c>
     </row>
@@ -6176,40 +6419,49 @@
       <c r="J12" s="3" t="n">
         <v>0.4884095477514844</v>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="K12" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0.9483620141683906</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0.750057519761208</v>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="n">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="n">
         <v>2.720448095837516</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="R12" s="3" t="n">
         <v>2.767482641187241</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="S12" s="3" t="n">
         <v>2.735590082877412</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="T12" s="3" t="n">
         <v>2.849755154724612</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="U12" s="3" t="n">
         <v>2.744956139171861</v>
       </c>
-      <c r="S12" s="3" t="n">
+      <c r="V12" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="W12" s="3" t="n">
         <v>2.735590082877412</v>
       </c>
     </row>
@@ -6246,40 +6498,49 @@
       <c r="J13" s="3" t="n">
         <v>0.24323452755299</v>
       </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="K13" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="n">
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n">
         <v>2.620110367239199</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="R13" s="3" t="n">
         <v>2.800374039648126</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="S13" s="3" t="n">
         <v>2.874543419814005</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="T13" s="3" t="n">
         <v>2.747259649420308</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="U13" s="3" t="n">
         <v>2.725681073492708</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="V13" s="3" t="n">
         <v>2.665869435344886</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="W13" s="3" t="n">
         <v>2.874543419814005</v>
       </c>
     </row>
@@ -6316,40 +6577,49 @@
       <c r="J14" s="3" t="n">
         <v>0.4015825044863985</v>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="K14" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0.9070366407746817</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="n">
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n">
         <v>0.679656515374523</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="R14" s="3" t="n">
         <v>2.570572382859587</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="S14" s="3" t="n">
         <v>2.920704282922089</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="T14" s="3" t="n">
         <v>2.746454325919911</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="U14" s="3" t="n">
         <v>2.770875244509986</v>
       </c>
-      <c r="S14" s="3" t="n">
+      <c r="V14" s="3" t="n">
         <v>0.6792772361839096</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="W14" s="3" t="n">
         <v>2.920704282922089</v>
       </c>
     </row>
@@ -6386,40 +6656,49 @@
       <c r="J15" s="3" t="n">
         <v>0.2534444647514066</v>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="K15" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0.511710244632548</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="n">
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n">
         <v>2.854948186331055</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="R15" s="3" t="n">
         <v>2.920088801801233</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="S15" s="3" t="n">
         <v>2.893114829199743</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="T15" s="3" t="n">
         <v>2.760639070884499</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="U15" s="3" t="n">
         <v>2.74519373518491</v>
       </c>
-      <c r="S15" s="3" t="n">
+      <c r="V15" s="3" t="n">
         <v>2.644565656332026</v>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="W15" s="3" t="n">
         <v>2.893114829199743</v>
       </c>
     </row>
@@ -6456,40 +6735,49 @@
       <c r="J16" s="3" t="n">
         <v>0.7071437121100779</v>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="K16" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.844643878353704</v>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="n">
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="n">
         <v>2.856899090931711</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="R16" s="3" t="n">
         <v>2.771562762621397</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="S16" s="3" t="n">
         <v>2.823962339253387</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="T16" s="3" t="n">
         <v>2.893761200180869</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="U16" s="3" t="n">
         <v>2.843732879484183</v>
       </c>
-      <c r="S16" s="3" t="n">
+      <c r="V16" s="3" t="n">
         <v>2.843757123888723</v>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="W16" s="3" t="n">
         <v>2.823962339253387</v>
       </c>
     </row>
@@ -6526,40 +6814,49 @@
       <c r="J17" s="3" t="n">
         <v>0.2177868078887878</v>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K17" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0.9843218564648923</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N17" s="3" t="n">
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="n">
         <v>2.863856490334567</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="R17" s="3" t="n">
         <v>2.873921530454552</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="S17" s="3" t="n">
         <v>2.591312350826683</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="T17" s="3" t="n">
         <v>2.727901789017338</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="U17" s="3" t="n">
         <v>2.770898376273966</v>
       </c>
-      <c r="S17" s="3" t="n">
+      <c r="V17" s="3" t="n">
         <v>2.794410634998431</v>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="W17" s="3" t="n">
         <v>2.591312350826683</v>
       </c>
     </row>
@@ -6596,40 +6893,49 @@
       <c r="J18" s="3" t="n">
         <v>0.332232615520205</v>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="K18" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="n">
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="n">
         <v>2.758513354983224</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="R18" s="3" t="n">
         <v>2.632791457762965</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="S18" s="3" t="n">
         <v>2.882357097842994</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="T18" s="3" t="n">
         <v>2.816693729200495</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="U18" s="3" t="n">
         <v>2.806680075853888</v>
       </c>
-      <c r="S18" s="3" t="n">
+      <c r="V18" s="3" t="n">
         <v>2.523184052441284</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="W18" s="3" t="n">
         <v>2.882357097842994</v>
       </c>
     </row>
@@ -6666,40 +6972,49 @@
       <c r="J19" s="3" t="n">
         <v>0.3840671171730883</v>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="K19" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0.8946096130360065</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N19" s="3" t="n">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="n">
         <v>2.749299640741849</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="R19" s="3" t="n">
         <v>2.862579377644372</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="S19" s="3" t="n">
         <v>2.431210104412778</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="T19" s="3" t="n">
         <v>2.729695079618066</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="U19" s="3" t="n">
         <v>2.784108989314849</v>
       </c>
-      <c r="S19" s="3" t="n">
+      <c r="V19" s="3" t="n">
         <v>2.715447257054987</v>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="W19" s="3" t="n">
         <v>2.431210104412778</v>
       </c>
     </row>
@@ -6736,40 +7051,49 @@
       <c r="J20" s="3" t="n">
         <v>0.2818092678412341</v>
       </c>
-      <c r="K20" s="2" t="inlineStr">
+      <c r="K20" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N20" s="3" t="n">
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="n">
         <v>2.700808110446306</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="R20" s="3" t="n">
         <v>2.892416309772511</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="S20" s="3" t="n">
         <v>2.861923210440203</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="T20" s="3" t="n">
         <v>2.98927817802745</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="U20" s="3" t="n">
         <v>2.13293240886582</v>
       </c>
-      <c r="S20" s="3" t="n">
+      <c r="V20" s="3" t="n">
         <v>2.769996015942731</v>
       </c>
-      <c r="T20" s="3" t="n">
+      <c r="W20" s="3" t="n">
         <v>2.861923210440203</v>
       </c>
     </row>
@@ -6806,40 +7130,49 @@
       <c r="J21" s="3" t="n">
         <v>0.6333803686346413</v>
       </c>
-      <c r="K21" s="2" t="inlineStr">
+      <c r="K21" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.7954824649674646</v>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N21" s="3" t="n">
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="n">
         <v>1.457900282521165</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="R21" s="3" t="n">
         <v>1.504796928325388</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="S21" s="3" t="n">
         <v>2.869931786931622</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="T21" s="3" t="n">
         <v>2.911386295338121</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="U21" s="3" t="n">
         <v>2.849739694979545</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="V21" s="3" t="n">
         <v>2.896679107633098</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="W21" s="3" t="n">
         <v>2.869931786931622</v>
       </c>
     </row>
@@ -6876,40 +7209,49 @@
       <c r="J22" s="3" t="n">
         <v>0.512674932197198</v>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="K22" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0.7961193809480532</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.7601731753268798</v>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N22" s="3" t="n">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n">
         <v>2.622951114337571</v>
       </c>
-      <c r="O22" s="3" t="n">
+      <c r="R22" s="3" t="n">
         <v>2.809984938510516</v>
       </c>
-      <c r="P22" s="3" t="n">
+      <c r="S22" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="Q22" s="3" t="n">
+      <c r="T22" s="3" t="n">
         <v>2.74196172244724</v>
       </c>
-      <c r="R22" s="3" t="n">
+      <c r="U22" s="3" t="n">
         <v>2.736512666404876</v>
       </c>
-      <c r="S22" s="3" t="n">
+      <c r="V22" s="3" t="n">
         <v>2.799267908580477</v>
       </c>
-      <c r="T22" s="3" t="n">
+      <c r="W22" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
     </row>
@@ -6946,40 +7288,49 @@
       <c r="J23" s="3" t="n">
         <v>0.4111006681162055</v>
       </c>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="K23" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N23" s="3" t="n">
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="n">
         <v>2.590611574698948</v>
       </c>
-      <c r="O23" s="3" t="n">
+      <c r="R23" s="3" t="n">
         <v>2.612188412174786</v>
       </c>
-      <c r="P23" s="3" t="n">
+      <c r="S23" s="3" t="n">
         <v>3.420490066009333</v>
       </c>
-      <c r="Q23" s="3" t="n">
+      <c r="T23" s="3" t="n">
         <v>2.595736979058822</v>
       </c>
-      <c r="R23" s="3" t="n">
+      <c r="U23" s="3" t="n">
         <v>2.57569904542359</v>
       </c>
-      <c r="S23" s="3" t="n">
+      <c r="V23" s="3" t="n">
         <v>2.590510727854091</v>
       </c>
-      <c r="T23" s="3" t="n">
+      <c r="W23" s="3" t="n">
         <v>3.420490066009333</v>
       </c>
     </row>
@@ -7016,40 +7367,49 @@
       <c r="J24" s="3" t="n">
         <v>0.6352415620299383</v>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="K24" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0.9070366407746817</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0.7954824649674646</v>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N24" s="3" t="n">
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="n">
         <v>2.926545455011116</v>
       </c>
-      <c r="O24" s="3" t="n">
+      <c r="R24" s="3" t="n">
         <v>1.753482012383008</v>
       </c>
-      <c r="P24" s="3" t="n">
+      <c r="S24" s="3" t="n">
         <v>1.731448259862832</v>
       </c>
-      <c r="Q24" s="3" t="n">
+      <c r="T24" s="3" t="n">
         <v>3.028634101448945</v>
       </c>
-      <c r="R24" s="3" t="n">
+      <c r="U24" s="3" t="n">
         <v>1.686615664107966</v>
       </c>
-      <c r="S24" s="3" t="n">
+      <c r="V24" s="3" t="n">
         <v>2.282585339054438</v>
       </c>
-      <c r="T24" s="3" t="n">
+      <c r="W24" s="3" t="n">
         <v>1.731448259862832</v>
       </c>
     </row>
@@ -7086,40 +7446,49 @@
       <c r="J25" s="3" t="n">
         <v>0.8785889862255141</v>
       </c>
-      <c r="K25" s="2" t="inlineStr">
+      <c r="K25" s="3" t="n">
+        <v>0.9939377186581511</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0.8946096130360065</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0.9444831601924276</v>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N25" s="3" t="n">
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q25" s="3" t="n">
         <v>2.765726357273089</v>
       </c>
-      <c r="O25" s="3" t="n">
+      <c r="R25" s="3" t="n">
         <v>2.746776514683039</v>
       </c>
-      <c r="P25" s="3" t="n">
+      <c r="S25" s="3" t="n">
         <v>2.612406752031311</v>
       </c>
-      <c r="Q25" s="3" t="n">
+      <c r="T25" s="3" t="n">
         <v>2.788762110149751</v>
       </c>
-      <c r="R25" s="3" t="n">
+      <c r="U25" s="3" t="n">
         <v>2.637826773679186</v>
       </c>
-      <c r="S25" s="3" t="n">
+      <c r="V25" s="3" t="n">
         <v>2.729000360370433</v>
       </c>
-      <c r="T25" s="3" t="n">
+      <c r="W25" s="3" t="n">
         <v>2.612406752031311</v>
       </c>
     </row>
@@ -7156,40 +7525,49 @@
       <c r="J26" s="3" t="n">
         <v>0.9409748926079577</v>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="K26" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>0.9602569894108124</v>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N26" s="3" t="n">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="n">
         <v>2.469884071993877</v>
       </c>
-      <c r="O26" s="3" t="n">
+      <c r="R26" s="3" t="n">
         <v>2.627197209247783</v>
       </c>
-      <c r="P26" s="3" t="n">
+      <c r="S26" s="3" t="n">
         <v>2.934135340745876</v>
       </c>
-      <c r="Q26" s="3" t="n">
+      <c r="T26" s="3" t="n">
         <v>2.718045825008641</v>
       </c>
-      <c r="R26" s="3" t="n">
+      <c r="U26" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="S26" s="3" t="n">
+      <c r="V26" s="3" t="n">
         <v>2.886300787396052</v>
       </c>
-      <c r="T26" s="3" t="n">
+      <c r="W26" s="3" t="n">
         <v>2.934135340745876</v>
       </c>
     </row>
@@ -7226,40 +7604,49 @@
       <c r="J27" s="3" t="n">
         <v>0.531268965834693</v>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K27" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>0.7614855176963933</v>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N27" s="3" t="n">
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q27" s="3" t="n">
         <v>2.668798846150992</v>
       </c>
-      <c r="O27" s="3" t="n">
+      <c r="R27" s="3" t="n">
         <v>3.103114569347214</v>
       </c>
-      <c r="P27" s="3" t="n">
+      <c r="S27" s="3" t="n">
         <v>2.649184541140208</v>
       </c>
-      <c r="Q27" s="3" t="n">
+      <c r="T27" s="3" t="n">
         <v>2.595360132299179</v>
       </c>
-      <c r="R27" s="3" t="n">
+      <c r="U27" s="3" t="n">
         <v>0.7757596542368319</v>
       </c>
-      <c r="S27" s="3" t="n">
+      <c r="V27" s="3" t="n">
         <v>2.885246788947672</v>
       </c>
-      <c r="T27" s="3" t="n">
+      <c r="W27" s="3" t="n">
         <v>2.649184541140208</v>
       </c>
     </row>
@@ -7296,40 +7683,49 @@
       <c r="J28" s="3" t="n">
         <v>0.3524643580267832</v>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="K28" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N28" s="3" t="n">
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="n">
         <v>2.805068763873233</v>
       </c>
-      <c r="O28" s="3" t="n">
+      <c r="R28" s="3" t="n">
         <v>1.025232515941203</v>
       </c>
-      <c r="P28" s="3" t="n">
+      <c r="S28" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
-      <c r="Q28" s="3" t="n">
+      <c r="T28" s="3" t="n">
         <v>0.9752342451364504</v>
       </c>
-      <c r="R28" s="3" t="n">
+      <c r="U28" s="3" t="n">
         <v>2.841567202537414</v>
       </c>
-      <c r="S28" s="3" t="n">
+      <c r="V28" s="3" t="n">
         <v>2.846398909270763</v>
       </c>
-      <c r="T28" s="3" t="n">
+      <c r="W28" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
     </row>
@@ -7366,40 +7762,49 @@
       <c r="J29" s="3" t="n">
         <v>0.2378355095388216</v>
       </c>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="K29" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N29" s="3" t="n">
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="n">
         <v>2.606627648486179</v>
       </c>
-      <c r="O29" s="3" t="n">
+      <c r="R29" s="3" t="n">
         <v>2.736524924199701</v>
       </c>
-      <c r="P29" s="3" t="n">
+      <c r="S29" s="3" t="n">
         <v>2.368172218875893</v>
       </c>
-      <c r="Q29" s="3" t="n">
+      <c r="T29" s="3" t="n">
         <v>2.657868729346967</v>
       </c>
-      <c r="R29" s="3" t="n">
+      <c r="U29" s="3" t="n">
         <v>2.708230071726979</v>
       </c>
-      <c r="S29" s="3" t="n">
+      <c r="V29" s="3" t="n">
         <v>2.871337348538176</v>
       </c>
-      <c r="T29" s="3" t="n">
+      <c r="W29" s="3" t="n">
         <v>2.368172218875893</v>
       </c>
     </row>
@@ -7436,40 +7841,49 @@
       <c r="J30" s="3" t="n">
         <v>0.4043836867155499</v>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="K30" s="3" t="n">
+        <v>0.9939377186581511</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N30" s="3" t="n">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="n">
         <v>2.443649566241175</v>
       </c>
-      <c r="O30" s="3" t="n">
+      <c r="R30" s="3" t="n">
         <v>2.755192452243664</v>
       </c>
-      <c r="P30" s="3" t="n">
+      <c r="S30" s="3" t="n">
         <v>2.582017245381849</v>
       </c>
-      <c r="Q30" s="3" t="n">
+      <c r="T30" s="3" t="n">
         <v>2.58864719136271</v>
       </c>
-      <c r="R30" s="3" t="n">
+      <c r="U30" s="3" t="n">
         <v>2.589626260628941</v>
       </c>
-      <c r="S30" s="3" t="n">
+      <c r="V30" s="3" t="n">
         <v>2.763517461850401</v>
       </c>
-      <c r="T30" s="3" t="n">
+      <c r="W30" s="3" t="n">
         <v>2.582017245381849</v>
       </c>
     </row>
@@ -7506,40 +7920,49 @@
       <c r="J31" s="3" t="n">
         <v>0.9151007530068626</v>
       </c>
-      <c r="K31" s="2" t="inlineStr">
+      <c r="K31" s="3" t="n">
+        <v>0.9956751338565231</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0.9519373401451674</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>0.9597398141291485</v>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N31" s="3" t="n">
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q31" s="3" t="n">
         <v>2.906284332134755</v>
       </c>
-      <c r="O31" s="3" t="n">
+      <c r="R31" s="3" t="n">
         <v>2.585599727131723</v>
       </c>
-      <c r="P31" s="3" t="n">
+      <c r="S31" s="3" t="n">
         <v>2.486360334829388</v>
       </c>
-      <c r="Q31" s="3" t="n">
+      <c r="T31" s="3" t="n">
         <v>2.830024582022301</v>
       </c>
-      <c r="R31" s="3" t="n">
+      <c r="U31" s="3" t="n">
         <v>2.833912784947369</v>
       </c>
-      <c r="S31" s="3" t="n">
+      <c r="V31" s="3" t="n">
         <v>2.53718435654166</v>
       </c>
-      <c r="T31" s="3" t="n">
+      <c r="W31" s="3" t="n">
         <v>2.486360334829388</v>
       </c>
     </row>
@@ -7576,40 +7999,49 @@
       <c r="J32" s="3" t="n">
         <v>0.2307487467794175</v>
       </c>
-      <c r="K32" s="2" t="inlineStr">
+      <c r="K32" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>0.7065178909244062</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N32" s="3" t="n">
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q32" s="3" t="n">
         <v>2.771954831601482</v>
       </c>
-      <c r="O32" s="3" t="n">
+      <c r="R32" s="3" t="n">
         <v>2.761123472317186</v>
       </c>
-      <c r="P32" s="3" t="n">
+      <c r="S32" s="3" t="n">
         <v>2.712128728899954</v>
       </c>
-      <c r="Q32" s="3" t="n">
+      <c r="T32" s="3" t="n">
         <v>2.830170077075348</v>
       </c>
-      <c r="R32" s="3" t="n">
+      <c r="U32" s="3" t="n">
         <v>2.64425862755135</v>
       </c>
-      <c r="S32" s="3" t="n">
+      <c r="V32" s="3" t="n">
         <v>2.335954525474979</v>
       </c>
-      <c r="T32" s="3" t="n">
+      <c r="W32" s="3" t="n">
         <v>2.712128728899954</v>
       </c>
     </row>
@@ -7646,40 +8078,49 @@
       <c r="J33" s="3" t="n">
         <v>0.1629116770785901</v>
       </c>
-      <c r="K33" s="2" t="inlineStr">
+      <c r="K33" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0.511710244632548</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N33" s="3" t="n">
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q33" s="3" t="n">
         <v>2.669085068038823</v>
       </c>
-      <c r="O33" s="3" t="n">
+      <c r="R33" s="3" t="n">
         <v>2.815833469294578</v>
       </c>
-      <c r="P33" s="3" t="n">
+      <c r="S33" s="3" t="n">
         <v>2.590100636812136</v>
       </c>
-      <c r="Q33" s="3" t="n">
+      <c r="T33" s="3" t="n">
         <v>2.953128312934323</v>
       </c>
-      <c r="R33" s="3" t="n">
+      <c r="U33" s="3" t="n">
         <v>2.409820755169994</v>
       </c>
-      <c r="S33" s="3" t="n">
+      <c r="V33" s="3" t="n">
         <v>2.328252631526343</v>
       </c>
-      <c r="T33" s="3" t="n">
+      <c r="W33" s="3" t="n">
         <v>2.590100636812136</v>
       </c>
     </row>
@@ -7716,40 +8157,49 @@
       <c r="J34" s="3" t="n">
         <v>0.2776000575341482</v>
       </c>
-      <c r="K34" s="2" t="inlineStr">
+      <c r="K34" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N34" s="3" t="n">
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q34" s="3" t="n">
         <v>2.551745189712108</v>
       </c>
-      <c r="O34" s="3" t="n">
+      <c r="R34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P34" s="3" t="n">
+      <c r="S34" s="3" t="n">
         <v>2.921865333013892</v>
       </c>
-      <c r="Q34" s="3" t="n">
+      <c r="T34" s="3" t="n">
         <v>2.851214392945532</v>
       </c>
-      <c r="R34" s="3" t="n">
+      <c r="U34" s="3" t="n">
         <v>2.471898527665747</v>
       </c>
-      <c r="S34" s="3" t="n">
+      <c r="V34" s="3" t="n">
         <v>2.802173347740011</v>
       </c>
-      <c r="T34" s="3" t="n">
+      <c r="W34" s="3" t="n">
         <v>2.921865333013892</v>
       </c>
     </row>
@@ -7786,40 +8236,49 @@
       <c r="J35" s="3" t="n">
         <v>0.4172846764194047</v>
       </c>
-      <c r="K35" s="2" t="inlineStr">
+      <c r="K35" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>0.8946096130360065</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N35" s="3" t="n">
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q35" s="3" t="n">
         <v>3.032970618543196</v>
       </c>
-      <c r="O35" s="3" t="n">
+      <c r="R35" s="3" t="n">
         <v>0.6048404969401225</v>
       </c>
-      <c r="P35" s="3" t="n">
+      <c r="S35" s="3" t="n">
         <v>2.933503165062636</v>
       </c>
-      <c r="Q35" s="3" t="n">
+      <c r="T35" s="3" t="n">
         <v>2.968371465997902</v>
       </c>
-      <c r="R35" s="3" t="n">
+      <c r="U35" s="3" t="n">
         <v>0.4521777517196926</v>
       </c>
-      <c r="S35" s="3" t="n">
+      <c r="V35" s="3" t="n">
         <v>2.933398615989418</v>
       </c>
-      <c r="T35" s="3" t="n">
+      <c r="W35" s="3" t="n">
         <v>2.933503165062636</v>
       </c>
     </row>
@@ -7856,40 +8315,49 @@
       <c r="J36" s="3" t="n">
         <v>0.2047288502776752</v>
       </c>
-      <c r="K36" s="2" t="inlineStr">
+      <c r="K36" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N36" s="3" t="n">
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="n">
         <v>2.569567980621718</v>
       </c>
-      <c r="O36" s="3" t="n">
+      <c r="R36" s="3" t="n">
         <v>0.7090825501209616</v>
       </c>
-      <c r="P36" s="3" t="n">
+      <c r="S36" s="3" t="n">
         <v>2.698341035297455</v>
       </c>
-      <c r="Q36" s="3" t="n">
+      <c r="T36" s="3" t="n">
         <v>2.866583157602399</v>
       </c>
-      <c r="R36" s="3" t="n">
+      <c r="U36" s="3" t="n">
         <v>2.600988137388117</v>
       </c>
-      <c r="S36" s="3" t="n">
+      <c r="V36" s="3" t="n">
         <v>2.642474906406239</v>
       </c>
-      <c r="T36" s="3" t="n">
+      <c r="W36" s="3" t="n">
         <v>2.698341035297455</v>
       </c>
     </row>
@@ -7926,40 +8394,49 @@
       <c r="J37" s="3" t="n">
         <v>0.4309123241758005</v>
       </c>
-      <c r="K37" s="2" t="inlineStr">
+      <c r="K37" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N37" s="3" t="n">
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q37" s="3" t="n">
         <v>2.55376611482987</v>
       </c>
-      <c r="O37" s="3" t="n">
+      <c r="R37" s="3" t="n">
         <v>2.645672173284085</v>
       </c>
-      <c r="P37" s="3" t="n">
+      <c r="S37" s="3" t="n">
         <v>2.621130829267512</v>
       </c>
-      <c r="Q37" s="3" t="n">
+      <c r="T37" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="R37" s="3" t="n">
+      <c r="U37" s="3" t="n">
         <v>2.691266829530108</v>
       </c>
-      <c r="S37" s="3" t="n">
+      <c r="V37" s="3" t="n">
         <v>2.993925766088706</v>
       </c>
-      <c r="T37" s="3" t="n">
+      <c r="W37" s="3" t="n">
         <v>2.621130829267512</v>
       </c>
     </row>
@@ -7996,40 +8473,49 @@
       <c r="J38" s="3" t="n">
         <v>0.4599294096011949</v>
       </c>
-      <c r="K38" s="2" t="inlineStr">
+      <c r="K38" s="3" t="n">
+        <v>0.9883659849893169</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N38" s="3" t="n">
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q38" s="3" t="n">
         <v>2.746846974669668</v>
       </c>
-      <c r="O38" s="3" t="n">
+      <c r="R38" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="P38" s="3" t="n">
+      <c r="S38" s="3" t="n">
         <v>2.690470523429745</v>
       </c>
-      <c r="Q38" s="3" t="n">
+      <c r="T38" s="3" t="n">
         <v>2.775081350228229</v>
       </c>
-      <c r="R38" s="3" t="n">
+      <c r="U38" s="3" t="n">
         <v>2.593578960968991</v>
       </c>
-      <c r="S38" s="3" t="n">
+      <c r="V38" s="3" t="n">
         <v>2.727904255130154</v>
       </c>
-      <c r="T38" s="3" t="n">
+      <c r="W38" s="3" t="n">
         <v>2.690470523429745</v>
       </c>
     </row>
@@ -8066,40 +8552,49 @@
       <c r="J39" s="3" t="n">
         <v>0.7823522544254583</v>
       </c>
-      <c r="K39" s="2" t="inlineStr">
+      <c r="K39" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>0.9865781057534839</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>0.8852933405340713</v>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N39" s="3" t="n">
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q39" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="O39" s="3" t="n">
+      <c r="R39" s="3" t="n">
         <v>3.102899833074448</v>
       </c>
-      <c r="P39" s="3" t="n">
+      <c r="S39" s="3" t="n">
         <v>2.782853949654009</v>
       </c>
-      <c r="Q39" s="3" t="n">
+      <c r="T39" s="3" t="n">
         <v>2.85921795646253</v>
       </c>
-      <c r="R39" s="3" t="n">
+      <c r="U39" s="3" t="n">
         <v>2.696207903298152</v>
       </c>
-      <c r="S39" s="3" t="n">
+      <c r="V39" s="3" t="n">
         <v>3.064469837567312</v>
       </c>
-      <c r="T39" s="3" t="n">
+      <c r="W39" s="3" t="n">
         <v>2.782853949654009</v>
       </c>
     </row>
@@ -8136,40 +8631,49 @@
       <c r="J40" s="3" t="n">
         <v>0.8260427014661884</v>
       </c>
-      <c r="K40" s="2" t="inlineStr">
+      <c r="K40" s="3" t="n">
+        <v>0.9951063440056084</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>0.9519373401451674</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>0.9107650298216949</v>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N40" s="3" t="n">
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q40" s="3" t="n">
         <v>2.619447681465233</v>
       </c>
-      <c r="O40" s="3" t="n">
+      <c r="R40" s="3" t="n">
         <v>2.915304353375638</v>
       </c>
-      <c r="P40" s="3" t="n">
+      <c r="S40" s="3" t="n">
         <v>2.879806991800368</v>
       </c>
-      <c r="Q40" s="3" t="n">
+      <c r="T40" s="3" t="n">
         <v>2.739910549093783</v>
       </c>
-      <c r="R40" s="3" t="n">
+      <c r="U40" s="3" t="n">
         <v>2.83394896572177</v>
       </c>
-      <c r="S40" s="3" t="n">
+      <c r="V40" s="3" t="n">
         <v>2.744252715316272</v>
       </c>
-      <c r="T40" s="3" t="n">
+      <c r="W40" s="3" t="n">
         <v>2.879806991800368</v>
       </c>
     </row>
@@ -8206,40 +8710,49 @@
       <c r="J41" s="3" t="n">
         <v>0.6049218598135593</v>
       </c>
-      <c r="K41" s="2" t="inlineStr">
+      <c r="K41" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>0.7954824649674646</v>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N41" s="3" t="n">
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q41" s="3" t="n">
         <v>2.881623548614027</v>
       </c>
-      <c r="O41" s="3" t="n">
+      <c r="R41" s="3" t="n">
         <v>2.799533658167344</v>
       </c>
-      <c r="P41" s="3" t="n">
+      <c r="S41" s="3" t="n">
         <v>2.87554194478334</v>
       </c>
-      <c r="Q41" s="3" t="n">
+      <c r="T41" s="3" t="n">
         <v>2.72221376577062</v>
       </c>
-      <c r="R41" s="3" t="n">
+      <c r="U41" s="3" t="n">
         <v>2.876053013034554</v>
       </c>
-      <c r="S41" s="3" t="n">
+      <c r="V41" s="3" t="n">
         <v>2.441350697323663</v>
       </c>
-      <c r="T41" s="3" t="n">
+      <c r="W41" s="3" t="n">
         <v>2.87554194478334</v>
       </c>
     </row>
@@ -8276,40 +8789,49 @@
       <c r="J42" s="3" t="n">
         <v>0.195050259346165</v>
       </c>
-      <c r="K42" s="2" t="inlineStr">
+      <c r="K42" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N42" s="3" t="n">
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="n">
         <v>2.697358494642792</v>
       </c>
-      <c r="O42" s="3" t="n">
+      <c r="R42" s="3" t="n">
         <v>2.717407107942376</v>
       </c>
-      <c r="P42" s="3" t="n">
+      <c r="S42" s="3" t="n">
         <v>2.706153321407656</v>
       </c>
-      <c r="Q42" s="3" t="n">
+      <c r="T42" s="3" t="n">
         <v>2.702118956281866</v>
       </c>
-      <c r="R42" s="3" t="n">
+      <c r="U42" s="3" t="n">
         <v>2.683514650589955</v>
       </c>
-      <c r="S42" s="3" t="n">
+      <c r="V42" s="3" t="n">
         <v>2.697264840453717</v>
       </c>
-      <c r="T42" s="3" t="n">
+      <c r="W42" s="3" t="n">
         <v>2.706153321407656</v>
       </c>
     </row>
@@ -8346,40 +8868,49 @@
       <c r="J43" s="3" t="n">
         <v>0.2854681857952835</v>
       </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="K43" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>0.7396921222023344</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N43" s="3" t="n">
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q43" s="3" t="n">
         <v>2.63672038784067</v>
       </c>
-      <c r="O43" s="3" t="n">
+      <c r="R43" s="3" t="n">
         <v>2.665846806159683</v>
       </c>
-      <c r="P43" s="3" t="n">
+      <c r="S43" s="3" t="n">
         <v>2.832883713572704</v>
       </c>
-      <c r="Q43" s="3" t="n">
+      <c r="T43" s="3" t="n">
         <v>2.795443776155373</v>
       </c>
-      <c r="R43" s="3" t="n">
+      <c r="U43" s="3" t="n">
         <v>2.843053053975221</v>
       </c>
-      <c r="S43" s="3" t="n">
+      <c r="V43" s="3" t="n">
         <v>2.839584003776167</v>
       </c>
-      <c r="T43" s="3" t="n">
+      <c r="W43" s="3" t="n">
         <v>2.832883713572704</v>
       </c>
     </row>
@@ -8416,40 +8947,49 @@
       <c r="J44" s="3" t="n">
         <v>0.3524643580267832</v>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="K44" s="3" t="n">
+        <v>0.9298836669021865</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>0.7916460717241062</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>0.7324801708463474</v>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
         <is>
           <t>0 / 3</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="N44" s="3" t="n">
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="Q44" s="3" t="n">
         <v>2.805068763873233</v>
       </c>
-      <c r="O44" s="3" t="n">
+      <c r="R44" s="3" t="n">
         <v>1.025232515941203</v>
       </c>
-      <c r="P44" s="3" t="n">
+      <c r="S44" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
-      <c r="Q44" s="3" t="n">
+      <c r="T44" s="3" t="n">
         <v>0.9752342451364504</v>
       </c>
-      <c r="R44" s="3" t="n">
+      <c r="U44" s="3" t="n">
         <v>2.841567202537414</v>
       </c>
-      <c r="S44" s="3" t="n">
+      <c r="V44" s="3" t="n">
         <v>2.846398909270763</v>
       </c>
-      <c r="T44" s="3" t="n">
+      <c r="W44" s="3" t="n">
         <v>2.67276508516152</v>
       </c>
     </row>
@@ -8464,7 +9004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8480,11 +9020,12 @@
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
     <col width="38" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="38" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8515,25 +9056,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Comparison 3: Group 1 v. Group 2 FDR-adj. P-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Comparison 3: Group 1 Missing Values</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Comparison 3: Group 2 Missing Values</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Sample 1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Sample 4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Sample 6</t>
         </is>
@@ -8557,23 +9103,26 @@
       <c r="E2" s="3" t="n">
         <v>0.7312207120157288</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>2.842861389319596</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="J2" s="3" t="n">
         <v>2.719446974338198</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="3" t="n">
         <v>2.858266457626631</v>
       </c>
     </row>
@@ -8595,23 +9144,26 @@
       <c r="E3" s="3" t="n">
         <v>0.663378472537683</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>2.652175131746933</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="3" t="n">
         <v>2.657086786678368</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="K3" s="3" t="n">
         <v>3.478156913251917</v>
       </c>
     </row>
@@ -8633,23 +9185,26 @@
       <c r="E4" s="3" t="n">
         <v>0.7163367451436671</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>2.77390420240054</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="3" t="n">
         <v>1.002176942382941</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="K4" s="3" t="n">
         <v>2.94140719410136</v>
       </c>
     </row>
@@ -8671,23 +9226,26 @@
       <c r="E5" s="3" t="n">
         <v>0.6832137795536095</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>2.8651238105942</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="3" t="n">
         <v>2.486740734341689</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="K5" s="3" t="n">
         <v>2.87665593060836</v>
       </c>
     </row>
@@ -8709,23 +9267,26 @@
       <c r="E6" s="3" t="n">
         <v>0.08636835032663949</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="3" t="n">
+        <v>0.8390702822224633</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>2.806436364713511</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="3" t="n">
         <v>2.598752140890354</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="K6" s="3" t="n">
         <v>2.563215622851612</v>
       </c>
     </row>
@@ -8747,23 +9308,26 @@
       <c r="E7" s="3" t="n">
         <v>0.0809529859656148</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="3" t="n">
+        <v>0.8390702822224633</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>2.597528021744392</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="J7" s="3" t="n">
         <v>2.86912433528395</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="K7" s="3" t="n">
         <v>2.912415345146016</v>
       </c>
     </row>
@@ -8785,23 +9349,26 @@
       <c r="E8" s="3" t="n">
         <v>0.1874908194767803</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>1.64234277158566</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="J8" s="3" t="n">
         <v>2.882052170481142</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="K8" s="3" t="n">
         <v>2.512546829794456</v>
       </c>
     </row>
@@ -8823,23 +9390,26 @@
       <c r="E9" s="3" t="n">
         <v>0.4914368646438513</v>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>2.972722672316328</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="J9" s="3" t="n">
         <v>2.742228189188941</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="K9" s="3" t="n">
         <v>2.150673997017146</v>
       </c>
     </row>
@@ -8861,23 +9431,26 @@
       <c r="E10" s="3" t="n">
         <v>0.5460510987854303</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>2.797948640409932</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="J10" s="3" t="n">
         <v>2.700801020949385</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="K10" s="3" t="n">
         <v>2.310643045021802</v>
       </c>
     </row>
@@ -8899,23 +9472,26 @@
       <c r="E11" s="3" t="n">
         <v>0.2863028747343122</v>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>2.808218384626105</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="J11" s="3" t="n">
         <v>2.581690520227578</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="K11" s="3" t="n">
         <v>2.68043526128161</v>
       </c>
     </row>
@@ -8937,23 +9513,26 @@
       <c r="E12" s="3" t="n">
         <v>0.5559889459440224</v>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>2.720448095837516</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="J12" s="3" t="n">
         <v>2.849755154724612</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="K12" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
     </row>
@@ -8975,23 +9554,26 @@
       <c r="E13" s="3" t="n">
         <v>0.4354480303145189</v>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>2.620110367239199</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="J13" s="3" t="n">
         <v>2.747259649420308</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="K13" s="3" t="n">
         <v>2.665869435344886</v>
       </c>
     </row>
@@ -9013,23 +9595,26 @@
       <c r="E14" s="3" t="n">
         <v>0.6667678320488963</v>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n">
         <v>0.679656515374523</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="J14" s="3" t="n">
         <v>2.746454325919911</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="K14" s="3" t="n">
         <v>0.6792772361839096</v>
       </c>
     </row>
@@ -9051,23 +9636,26 @@
       <c r="E15" s="3" t="n">
         <v>0.3713119265711256</v>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
         <v>2.854948186331055</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="J15" s="3" t="n">
         <v>2.760639070884499</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="K15" s="3" t="n">
         <v>2.644565656332026</v>
       </c>
     </row>
@@ -9089,23 +9677,26 @@
       <c r="E16" s="3" t="n">
         <v>0.8298192233454195</v>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" s="3" t="n">
+        <v>0.8920556650963259</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n">
         <v>2.856899090931711</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="J16" s="3" t="n">
         <v>2.893761200180869</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="K16" s="3" t="n">
         <v>2.843757123888723</v>
       </c>
     </row>
@@ -9127,23 +9718,26 @@
       <c r="E17" s="3" t="n">
         <v>0.3253935604962792</v>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n">
         <v>2.863856490334567</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="J17" s="3" t="n">
         <v>2.727901789017338</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="K17" s="3" t="n">
         <v>2.794410634998431</v>
       </c>
     </row>
@@ -9165,23 +9759,26 @@
       <c r="E18" s="3" t="n">
         <v>0.7865388152902782</v>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="3" t="n">
+        <v>0.890030764670578</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n">
         <v>2.758513354983224</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="J18" s="3" t="n">
         <v>2.816693729200495</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="K18" s="3" t="n">
         <v>2.523184052441284</v>
       </c>
     </row>
@@ -9203,23 +9800,26 @@
       <c r="E19" s="3" t="n">
         <v>0.2753334968522577</v>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>2.749299640741849</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="J19" s="3" t="n">
         <v>2.729695079618066</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="K19" s="3" t="n">
         <v>2.715447257054987</v>
       </c>
     </row>
@@ -9241,23 +9841,26 @@
       <c r="E20" s="3" t="n">
         <v>0.5191152033302966</v>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="n">
         <v>2.700808110446306</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="J20" s="3" t="n">
         <v>2.98927817802745</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="K20" s="3" t="n">
         <v>2.769996015942731</v>
       </c>
     </row>
@@ -9279,23 +9882,26 @@
       <c r="E21" s="3" t="n">
         <v>0.005606877898422834</v>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="3" t="n">
+        <v>0.2410957496321819</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>1.457900282521165</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="J21" s="3" t="n">
         <v>2.911386295338121</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="K21" s="3" t="n">
         <v>2.896679107633098</v>
       </c>
     </row>
@@ -9317,23 +9923,26 @@
       <c r="E22" s="3" t="n">
         <v>0.2064121482538503</v>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="n">
         <v>2.622951114337571</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="J22" s="3" t="n">
         <v>2.74196172244724</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="K22" s="3" t="n">
         <v>2.799267908580477</v>
       </c>
     </row>
@@ -9355,23 +9964,26 @@
       <c r="E23" s="3" t="n">
         <v>0.6774078477745622</v>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="n">
         <v>2.590611574698948</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="J23" s="3" t="n">
         <v>2.595736979058822</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="K23" s="3" t="n">
         <v>2.590510727854091</v>
       </c>
     </row>
@@ -9393,23 +10005,26 @@
       <c r="E24" s="3" t="n">
         <v>0.7472182824080122</v>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="n">
         <v>2.926545455011116</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="J24" s="3" t="n">
         <v>3.028634101448945</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="K24" s="3" t="n">
         <v>2.282585339054438</v>
       </c>
     </row>
@@ -9431,23 +10046,26 @@
       <c r="E25" s="3" t="n">
         <v>0.9162867779058858</v>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="3" t="n">
+        <v>0.9500124456300285</v>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="n">
         <v>2.765726357273089</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="J25" s="3" t="n">
         <v>2.788762110149751</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="K25" s="3" t="n">
         <v>2.729000360370433</v>
       </c>
     </row>
@@ -9469,23 +10087,26 @@
       <c r="E26" s="3" t="n">
         <v>0.2630896055751329</v>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="n">
         <v>2.469884071993877</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="J26" s="3" t="n">
         <v>2.718045825008641</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="K26" s="3" t="n">
         <v>2.886300787396052</v>
       </c>
     </row>
@@ -9507,23 +10128,26 @@
       <c r="E27" s="3" t="n">
         <v>0.8233535843839979</v>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="3" t="n">
+        <v>0.8920556650963259</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="n">
         <v>2.668798846150992</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="J27" s="3" t="n">
         <v>2.595360132299179</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="K27" s="3" t="n">
         <v>2.885246788947672</v>
       </c>
     </row>
@@ -9545,23 +10169,26 @@
       <c r="E28" s="3" t="n">
         <v>0.6789788349498916</v>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="n">
         <v>2.805068763873233</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="J28" s="3" t="n">
         <v>0.9752342451364504</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="K28" s="3" t="n">
         <v>2.846398909270763</v>
       </c>
     </row>
@@ -9583,23 +10210,26 @@
       <c r="E29" s="3" t="n">
         <v>0.5498364875593775</v>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="n">
         <v>2.606627648486179</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="J29" s="3" t="n">
         <v>2.657868729346967</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="K29" s="3" t="n">
         <v>2.871337348538176</v>
       </c>
     </row>
@@ -9621,23 +10251,26 @@
       <c r="E30" s="3" t="n">
         <v>0.3676260731950008</v>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="n">
         <v>2.443649566241175</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="J30" s="3" t="n">
         <v>2.58864719136271</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="K30" s="3" t="n">
         <v>2.763517461850401</v>
       </c>
     </row>
@@ -9659,23 +10292,26 @@
       <c r="E31" s="3" t="n">
         <v>0.5412803091879663</v>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="n">
         <v>2.906284332134755</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="J31" s="3" t="n">
         <v>2.830024582022301</v>
       </c>
-      <c r="J31" s="3" t="n">
+      <c r="K31" s="3" t="n">
         <v>2.53718435654166</v>
       </c>
     </row>
@@ -9697,23 +10333,26 @@
       <c r="E32" s="3" t="n">
         <v>0.7354053799041244</v>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="n">
         <v>2.771954831601482</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="J32" s="3" t="n">
         <v>2.830170077075348</v>
       </c>
-      <c r="J32" s="3" t="n">
+      <c r="K32" s="3" t="n">
         <v>2.335954525474979</v>
       </c>
     </row>
@@ -9735,23 +10374,26 @@
       <c r="E33" s="3" t="n">
         <v>0.966627135840356</v>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="3" t="n">
+        <v>0.966627135840356</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="n">
         <v>2.669085068038823</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="J33" s="3" t="n">
         <v>2.953128312934323</v>
       </c>
-      <c r="J33" s="3" t="n">
+      <c r="K33" s="3" t="n">
         <v>2.328252631526343</v>
       </c>
     </row>
@@ -9773,23 +10415,26 @@
       <c r="E34" s="3" t="n">
         <v>0.09756631188633294</v>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="3" t="n">
+        <v>0.8390702822224633</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="n">
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="n">
         <v>2.551745189712108</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="J34" s="3" t="n">
         <v>2.851214392945532</v>
       </c>
-      <c r="J34" s="3" t="n">
+      <c r="K34" s="3" t="n">
         <v>2.802173347740011</v>
       </c>
     </row>
@@ -9811,23 +10456,26 @@
       <c r="E35" s="3" t="n">
         <v>0.2250300919297711</v>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="n">
         <v>3.032970618543196</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="J35" s="3" t="n">
         <v>2.968371465997902</v>
       </c>
-      <c r="J35" s="3" t="n">
+      <c r="K35" s="3" t="n">
         <v>2.933398615989418</v>
       </c>
     </row>
@@ -9849,23 +10497,26 @@
       <c r="E36" s="3" t="n">
         <v>0.5153184426781046</v>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="n">
         <v>2.569567980621718</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="J36" s="3" t="n">
         <v>2.866583157602399</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="K36" s="3" t="n">
         <v>2.642474906406239</v>
       </c>
     </row>
@@ -9887,23 +10538,26 @@
       <c r="E37" s="3" t="n">
         <v>0.3826510315796441</v>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="n">
         <v>2.55376611482987</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="J37" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="J37" s="3" t="n">
+      <c r="K37" s="3" t="n">
         <v>2.993925766088706</v>
       </c>
     </row>
@@ -9925,23 +10579,26 @@
       <c r="E38" s="3" t="n">
         <v>0.9279191329409581</v>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="3" t="n">
+        <v>0.9500124456300285</v>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="n">
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="n">
         <v>2.746846974669668</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="J38" s="3" t="n">
         <v>2.775081350228229</v>
       </c>
-      <c r="J38" s="3" t="n">
+      <c r="K38" s="3" t="n">
         <v>2.727904255130154</v>
       </c>
     </row>
@@ -9963,23 +10620,26 @@
       <c r="E39" s="3" t="n">
         <v>0.4360710390315603</v>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="n">
         <v>2.744256719396473</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="J39" s="3" t="n">
         <v>2.85921795646253</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="K39" s="3" t="n">
         <v>3.064469837567312</v>
       </c>
     </row>
@@ -10001,23 +10661,26 @@
       <c r="E40" s="3" t="n">
         <v>0.01951508364589926</v>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="3" t="n">
+        <v>0.419574298386834</v>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="n">
         <v>2.619447681465233</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="J40" s="3" t="n">
         <v>2.739910549093783</v>
       </c>
-      <c r="J40" s="3" t="n">
+      <c r="K40" s="3" t="n">
         <v>2.744252715316272</v>
       </c>
     </row>
@@ -10039,23 +10702,26 @@
       <c r="E41" s="3" t="n">
         <v>0.43388157667932</v>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="n">
         <v>2.881623548614027</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="J41" s="3" t="n">
         <v>2.72221376577062</v>
       </c>
-      <c r="J41" s="3" t="n">
+      <c r="K41" s="3" t="n">
         <v>2.441350697323663</v>
       </c>
     </row>
@@ -10077,23 +10743,26 @@
       <c r="E42" s="3" t="n">
         <v>0.6774064755350164</v>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="n">
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="n">
         <v>2.697358494642792</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="J42" s="3" t="n">
         <v>2.702118956281866</v>
       </c>
-      <c r="J42" s="3" t="n">
+      <c r="K42" s="3" t="n">
         <v>2.697264840453717</v>
       </c>
     </row>
@@ -10115,23 +10784,26 @@
       <c r="E43" s="3" t="n">
         <v>0.1326516664960176</v>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="n">
         <v>2.63672038784067</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="J43" s="3" t="n">
         <v>2.795443776155373</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="K43" s="3" t="n">
         <v>2.839584003776167</v>
       </c>
     </row>
@@ -10153,23 +10825,26 @@
       <c r="E44" s="3" t="n">
         <v>0.6789788349498916</v>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="3" t="n">
+        <v>0.8683888146903926</v>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>0 / 1</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>0 / 2</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>0 / 2</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="n">
         <v>2.805068763873233</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="J44" s="3" t="n">
         <v>0.9752342451364504</v>
       </c>
-      <c r="J44" s="3" t="n">
+      <c r="K44" s="3" t="n">
         <v>2.846398909270763</v>
       </c>
     </row>

--- a/examples/Olink_Finished_Example/delivery/data/Data_With_Analysis.xlsx
+++ b/examples/Olink_Finished_Example/delivery/data/Data_With_Analysis.xlsx
@@ -469,14 +469,14 @@
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="76" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
   </cols>
@@ -583,28 +583,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.6222314835000002</v>
+        <v>8.165797730398412</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.1710886955000008</v>
+        <v>8.165509324728511</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0.3450217245000005</v>
+        <v>8.148903760667514</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>-0.0975103374999992</v>
+        <v>8.114534455375267</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.5188875195000007</v>
+        <v>8.165383179319834</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0.3956284525000004</v>
+        <v>8.131516788693293</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.3450217245000005</v>
+        <v>8.148903760667514</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.3286241803571434</v>
+        <v>8.148649857121477</v>
       </c>
       <c r="N2" s="4" t="inlineStr">
         <is>
@@ -642,28 +642,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.266041285</v>
+        <v>8.1353806112134</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>-0.2665228849999988</v>
+        <v>8.111301711676186</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>4.784410951000002</v>
+        <v>8.203681660276789</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>-0.3761324949999985</v>
+        <v>8.025133473288145</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>4.127238748000002</v>
+        <v>8.302439393271937</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>4.287897584000001</v>
+        <v>7.996507308703936</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>4.784410951000002</v>
+        <v>8.203681660276789</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>2.439323081285715</v>
+        <v>8.139732259815313</v>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
@@ -701,28 +701,28 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.2873787884999999</v>
+        <v>8.154406549298921</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>-0.7637286135000014</v>
+        <v>8.047134292923786</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.4798502925000001</v>
+        <v>8.150598410455146</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>-4.6806931535</v>
+        <v>1.684848082733243</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>1.1961369515</v>
+        <v>8.192119427970894</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.8257956504999999</v>
+        <v>8.117201865206159</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.4798502925000001</v>
+        <v>8.150598410455146</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>-0.3107728273571431</v>
+        <v>7.213843862720471</v>
       </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
@@ -760,28 +760,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.7337994575</v>
+        <v>8.169573214953779</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>-1.5297160155</v>
+        <v>7.942331481026755</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>-0.0010085105000001</v>
+        <v>8.144545401513913</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>-1.078610897500001</v>
+        <v>7.771566894334248</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>-0.2879571915000003</v>
+        <v>8.132870205109182</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0.4886512754999996</v>
+        <v>8.128433228249422</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-0.0010085105000001</v>
+        <v>8.144545401513913</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.2394071989285717</v>
+        <v>8.061980832385887</v>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
@@ -819,28 +819,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.4433600905000006</v>
+        <v>8.159723988959076</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>-2.821715354</v>
+        <v>7.74623747895001</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0.7695138455000006</v>
+        <v>8.154232450890717</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>-0.6260888575000001</v>
+        <v>7.93992585760476</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.0028140544999999</v>
+        <v>8.144671877147518</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>-0.945570706499999</v>
+        <v>8.175258102744262</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0.7695138455000006</v>
+        <v>8.154232450890717</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-0.3440247259999997</v>
+        <v>8.067754601026722</v>
       </c>
       <c r="N6" s="4" t="inlineStr">
         <is>
@@ -878,28 +878,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-0.4996976855000002</v>
+        <v>8.127271829466453</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.0256481175000002</v>
+        <v>8.147718396496174</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0.5423617365000002</v>
+        <v>8.151383437035461</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.6225023275000003</v>
+        <v>8.322772548480454</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>1.2202439305</v>
+        <v>8.193062043812983</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0.6729698185000004</v>
+        <v>8.12230382173928</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.5423617365000002</v>
+        <v>8.151383437035461</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.4466271402142858</v>
+        <v>8.173699359152325</v>
       </c>
       <c r="N7" s="4" t="inlineStr">
         <is>
@@ -937,28 +937,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-3.430460933500001</v>
+        <v>8.021491736619156</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>1.4019470215</v>
+        <v>8.307886355010019</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>-0.6754646305000005</v>
+        <v>8.136012385804042</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.6882667545000007</v>
+        <v>8.340375796866136</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.8609399794999995</v>
+        <v>8.178948547023138</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-1.1495409035</v>
+        <v>8.181795634493003</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>-0.6754646305000005</v>
+        <v>8.136012385804042</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.4256824775000003</v>
+        <v>8.186074691659934</v>
       </c>
       <c r="N8" s="4" t="inlineStr">
         <is>
@@ -996,28 +996,28 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1.297978877500001</v>
+        <v>8.188515312077669</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0.09755945150000039</v>
+        <v>8.156542327500974</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0.1841530795000015</v>
+        <v>8.146879207303698</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.0073161125000016</v>
+        <v>8.146785773124311</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>-1.0900998115</v>
+        <v>8.099803667705441</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>-2.415454385499999</v>
+        <v>8.221720580211736</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.1841530795000015</v>
+        <v>8.146879207303698</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>-0.2477705137857133</v>
+        <v>8.158160867889647</v>
       </c>
       <c r="N9" s="4" t="inlineStr">
         <is>
@@ -1055,28 +1055,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.402324437499999</v>
+        <v>8.158326972494946</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.8732626434999995</v>
+        <v>8.248444708882889</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.7391121384999995</v>
+        <v>8.153851468984424</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>-0.1820852765000005</v>
+        <v>8.087977843536422</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.6979687204999996</v>
+        <v>8.172501219402907</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>-1.8947646625</v>
+        <v>8.205432376860525</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.7391121384999995</v>
+        <v>8.153851468984424</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.1964185913571423</v>
+        <v>8.168626579878078</v>
       </c>
       <c r="N10" s="4" t="inlineStr">
         <is>
@@ -1114,28 +1114,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.4520063404999997</v>
+        <v>8.160018169153121</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>-0.1006474495000003</v>
+        <v>8.132089368984783</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0.5776467324999999</v>
+        <v>8.151826361921174</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>-0.6973056795000003</v>
+        <v>7.914698221654849</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0.2405924804999993</v>
+        <v>8.154251463246442</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>-0.4453134535000007</v>
+        <v>8.159097595586532</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0.5776467324999999</v>
+        <v>8.151826361921174</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0.08637510049999962</v>
+        <v>8.117686791781152</v>
       </c>
       <c r="N11" s="4" t="inlineStr">
         <is>
@@ -1173,28 +1173,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.0385904310000002</v>
+        <v>8.145884525485707</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>0.1657567019999995</v>
+        <v>8.164860951366549</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>0.3640327450000003</v>
+        <v>8.149142829291021</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.5250668530000002</v>
+        <v>8.296290536925079</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>-2.59414506175</v>
+        <v>8.035682715098801</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>-0.1553621290000002</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.3640327450000003</v>
+        <v>8.149142829291021</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>-0.1845753878214285</v>
+        <v>8.1558073914067</v>
       </c>
       <c r="N12" s="4" t="inlineStr">
         <is>
@@ -1232,28 +1232,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.4042134285000003</v>
+        <v>8.130591011604366</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>0.3227796555000007</v>
+        <v>8.183834013453792</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>1.0374302865</v>
+        <v>8.1575855285984</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.0306921005000004</v>
+        <v>8.153880456257474</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.0583305365000006</v>
+        <v>8.14691421658253</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>-0.5097098344999988</v>
+        <v>8.161188061247334</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>1.0374302865</v>
+        <v>8.1575855285984</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0.2246770860714289</v>
+        <v>8.155939830906041</v>
       </c>
       <c r="N13" s="4" t="inlineStr">
         <is>
@@ -1291,28 +1291,28 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-4.9504261055</v>
+        <v>7.963416978188648</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>-0.7029800454999986</v>
+        <v>8.055129036927259</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>1.2758760455</v>
+        <v>8.160563228996606</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.0269451135</v>
+        <v>8.152745579764776</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.2688245775000002</v>
+        <v>8.155384661213562</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>-5.254468915499999</v>
+        <v>8.307433737448239</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>1.2758760455</v>
+        <v>8.160563228996606</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>-1.151479040642857</v>
+        <v>8.136462350219386</v>
       </c>
       <c r="N14" s="4" t="inlineStr">
         <is>
@@ -1350,28 +1350,28 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.6825907224999996</v>
+        <v>8.167841526844452</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0.9254963394999997</v>
+        <v>8.254427747923412</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>1.132445334499999</v>
+        <v>8.158772809108054</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.09325051249999911</v>
+        <v>8.172697267766324</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.1484034054999999</v>
+        <v>8.150544908204024</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>-0.6027319435000003</v>
+        <v>8.164202450690302</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1.132445334499999</v>
+        <v>8.158772809108054</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>0.5016999579285708</v>
+        <v>8.17532278852066</v>
       </c>
       <c r="N15" s="4" t="inlineStr">
         <is>
@@ -1409,28 +1409,28 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.6923806665000001</v>
+        <v>8.168172746919575</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0.1850411894999997</v>
+        <v>8.167204578130644</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.7847645284999993</v>
+        <v>8.154423528400521</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.7483417984999994</v>
+        <v>8.356270573035383</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.6223571304999993</v>
+        <v>8.169500126072542</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0.3230655195000001</v>
+        <v>8.133917568538642</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0.7847645284999993</v>
+        <v>8.154423528400521</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0.591530765928571</v>
+        <v>8.186273235642547</v>
       </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
@@ -1468,28 +1468,28 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.727401972</v>
+        <v>8.169356989477086</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>0.6871197229999995</v>
+        <v>8.226919154678127</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>-0.2698142529999998</v>
+        <v>8.141150598786346</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>-0.0587990280000001</v>
+        <v>8.126528654118353</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0.2689340119999999</v>
+        <v>8.155389052034172</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0.08166861499999981</v>
+        <v>8.141875671192322</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>-0.2698142529999998</v>
+        <v>8.141150598786346</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0.1666709697142856</v>
+        <v>8.157481531296108</v>
       </c>
       <c r="N17" s="4" t="inlineStr">
         <is>
@@ -1527,28 +1527,28 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.2148013109999996</v>
+        <v>8.151925668741541</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>-0.4411816599999998</v>
+        <v>8.089084671520904</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>1.077257633</v>
+        <v>8.158083318529341</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.3617458339999997</v>
+        <v>8.250781273674066</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.4403324130000001</v>
+        <v>8.162249690014532</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>-1.107312203</v>
+        <v>8.180444574834123</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>1.077257633</v>
+        <v>8.158083318529341</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>0.2318429944285714</v>
+        <v>8.164378930834836</v>
       </c>
       <c r="N18" s="4" t="inlineStr">
         <is>
@@ -1586,28 +1586,28 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.1717219354999999</v>
+        <v>8.150451087259635</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>0.6297144885000003</v>
+        <v>8.220215496348379</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-0.9028244024999994</v>
+        <v>8.13312448647396</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>-0.0505590444999999</v>
+        <v>8.129068885431293</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0.3317198755000001</v>
+        <v>8.157905997198222</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>-0.2878375054999998</v>
+        <v>8.15397273999954</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>-0.9028244024999994</v>
+        <v>8.13312448647396</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>-0.1444127222142854</v>
+        <v>8.153980454169284</v>
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
@@ -1645,28 +1645,28 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-0.0505244725000002</v>
+        <v>8.142819687102836</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>0.7816994194999998</v>
+        <v>8.237896476138355</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0.9735572345000004</v>
+        <v>8.156786839899294</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>1.2570526605</v>
+        <v>8.48427700361167</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>-2.170313119499999</v>
+        <v>8.05404189995542</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>-0.0347459314999998</v>
+        <v>8.145697862351119</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0.9735572345000004</v>
+        <v>8.156786839899294</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0.2471832893571431</v>
+        <v>8.196900944136855</v>
       </c>
       <c r="N20" s="4" t="inlineStr">
         <is>
@@ -1704,28 +1704,28 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-3.805101875000002</v>
+        <v>8.007393086225639</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>-3.805583475000001</v>
+        <v>7.576703891924136</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>1.014025211</v>
+        <v>8.157292915508265</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>0.8396944999999985</v>
+        <v>8.380110139587051</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>0.6523089409999994</v>
+        <v>8.170689687679731</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>0.5912957189999997</v>
+        <v>8.125023060205701</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1.014025211</v>
+        <v>8.157292915508265</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>-0.4999051097142865</v>
+        <v>8.08207224237697</v>
       </c>
       <c r="N21" s="4" t="inlineStr">
         <is>
@@ -1763,28 +1763,28 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.3920958040000002</v>
+        <v>8.131011693663222</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>0.3693418500000001</v>
+        <v>8.189412484865231</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0.4041633609999997</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>0.006080389</v>
+        <v>8.146409754615567</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>0.1081800459999998</v>
+        <v>8.148924698639853</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>0.1050651069999997</v>
+        <v>8.141106280156144</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0.4041633609999997</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0.1435569014285713</v>
+        <v>8.150879945245352</v>
       </c>
       <c r="N22" s="4" t="inlineStr">
         <is>
@@ -1822,28 +1822,28 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-0.5286445650000005</v>
+        <v>8.126264080364296</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>-0.5291261649999992</v>
+        <v>8.077767050526505</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>4.410776139000001</v>
+        <v>8.199150676788529</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>-0.6387357749999989</v>
+        <v>7.935477943903841</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>-0.5947961849999999</v>
+        <v>8.120310796756947</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>-0.832687374999999</v>
+        <v>8.171627258124291</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>4.410776139000001</v>
+        <v>8.199150676788529</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0.8139374590000007</v>
+        <v>8.118535497607562</v>
       </c>
       <c r="N23" s="4" t="inlineStr">
         <is>
@@ -1881,28 +1881,28 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1.05069256</v>
+        <v>8.180243371378971</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>-3.271717069999999</v>
+        <v>7.671158733088052</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>-2.97567081</v>
+        <v>8.106525339314544</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1.476654052000001</v>
+        <v>8.536208579065748</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>-3.33738709</v>
+        <v>8.002912498958395</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>-1.99031544</v>
+        <v>8.208435203628314</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>-2.97567081</v>
+        <v>8.106525339314544</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>-1.717630658285714</v>
+        <v>8.116001294964081</v>
       </c>
       <c r="N24" s="4" t="inlineStr">
         <is>
@@ -1940,28 +1940,28 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0.2487187390000001</v>
+        <v>8.153085582672817</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>0.0687265400000001</v>
+        <v>8.153010843580333</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>-0.1810507770000003</v>
+        <v>8.142272494521164</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0.2266526219999996</v>
+        <v>8.212021615978971</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>-0.3324599270000004</v>
+        <v>8.131055402239895</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>-0.225845337</v>
+        <v>8.151950278793302</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-0.1810507770000003</v>
+        <v>8.142272494521164</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>-0.05375841671428588</v>
+        <v>8.155095530329664</v>
       </c>
       <c r="N25" s="4" t="inlineStr">
         <is>
@@ -1999,28 +1999,28 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-1.0121917725</v>
+        <v>8.109325058890217</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>-0.4651851654999994</v>
+        <v>8.086004447609701</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>1.346699714500001</v>
+        <v>8.161446489388636</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>-0.1039037704999988</v>
+        <v>8.112543902915469</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>0.1440501215000003</v>
+        <v>8.150369644337641</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>0.5379157065000006</v>
+        <v>8.126797516389669</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1.346699714500001</v>
+        <v>8.161446489388636</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0.2562977926428578</v>
+        <v>8.129704792702853</v>
       </c>
       <c r="N26" s="4" t="inlineStr">
         <is>
@@ -2058,28 +2058,28 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-0.1931891439999998</v>
+        <v>8.137899570399137</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>1.949287415</v>
+        <v>8.366949356532913</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>-0.0231547360000004</v>
+        <v>8.144266014059534</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>-0.640314579</v>
+        <v>7.934921715384317</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>-4.844302659</v>
+        <v>7.934095370198534</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>0.5325160029999996</v>
+        <v>8.126976891618506</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>-0.0231547360000004</v>
+        <v>8.144266014059534</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.4631874908571431</v>
+        <v>8.112767847464639</v>
       </c>
       <c r="N27" s="4" t="inlineStr">
         <is>
@@ -2117,28 +2117,28 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>-4.608143327500001</v>
+        <v>7.421947553957015</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>0.6115889554999985</v>
+        <v>8.169072219035579</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>-1.111558709928573</v>
+        <v>6.882162874877379</v>
       </c>
       <c r="N28" s="4" t="inlineStr">
         <is>
@@ -2176,28 +2176,28 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-0.4614017009999998</v>
+        <v>8.128603975111927</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>0.0211999420000008</v>
+        <v>8.147170803479083</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>-1.133414506999999</v>
+        <v>8.130189639244783</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>-0.3727128509999993</v>
+        <v>8.026264994988583</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>-0.0211999419999999</v>
+        <v>8.143700858535958</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>0.4616253380000002</v>
+        <v>8.129329775066187</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>-1.133414506999999</v>
+        <v>8.130189639244783</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>-0.3770454611428566</v>
+        <v>8.119349955095901</v>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
@@ -2235,28 +2235,28 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-1.112022638</v>
+        <v>8.105803002043899</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>0.107996226</v>
+        <v>8.157818506234689</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>-0.3085172170000003</v>
+        <v>8.140661152585336</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>-0.6683695309999997</v>
+        <v>7.925001741303869</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>-0.5369665619999999</v>
+        <v>8.122686231782511</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-0.0653078550000003</v>
+        <v>8.146699613570659</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>-0.3085172170000003</v>
+        <v>8.140661152585336</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>-0.413100684857143</v>
+        <v>8.105618771443757</v>
       </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
@@ -2294,28 +2294,28 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.9446644785000018</v>
+        <v>8.176682061252146</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>-0.640779972499999</v>
+        <v>8.063269157763518</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>-0.6926560404999993</v>
+        <v>8.135794224279712</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.4271492955000014</v>
+        <v>8.26917858159673</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>0.5736589435000017</v>
+        <v>8.167563939944388</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>-1.051255703499999</v>
+        <v>8.178649153570774</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>-0.6926560404999993</v>
+        <v>8.135794224279712</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>-0.1616964342142845</v>
+        <v>8.160990191812425</v>
       </c>
       <c r="N31" s="4" t="inlineStr">
         <is>
@@ -2353,28 +2353,28 @@
         <v>2</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>0.2781434054999998</v>
+        <v>8.154091097491825</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>0.1358089444999999</v>
+        <v>8.161213863053721</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>0.2565975185000005</v>
+        <v>8.147791281883038</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0.4278664585000005</v>
+        <v>8.269379017317174</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>-0.3046503065000001</v>
+        <v>8.132189734415231</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>-1.8069572455</v>
+        <v>8.202667375102314</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0.2565975185000005</v>
+        <v>8.147791281883038</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>-0.1080848152142856</v>
+        <v>8.173589093020906</v>
       </c>
       <c r="N32" s="4" t="inlineStr">
         <is>
@@ -2412,28 +2412,28 @@
         <v>2</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>-0.1919274329999991</v>
+        <v>8.137943157005292</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>0.3978285790000005</v>
+        <v>8.19281478626691</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>-0.2748737339999998</v>
+        <v>8.141086624909882</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.060551643</v>
+        <v>8.436168474923598</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>-1.242311000999999</v>
+        <v>8.093442639788787</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>-1.83383894</v>
+        <v>8.203514426165144</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>-0.2748737339999998</v>
+        <v>8.141086624909882</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>-0.3370635171428567</v>
+        <v>8.1922938191385</v>
       </c>
       <c r="N33" s="4" t="inlineStr">
         <is>
@@ -2471,28 +2471,28 @@
         <v>2</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>-0.6887531280000001</v>
+        <v>8.120677352312102</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>-5.643430708</v>
+        <v>7.194138568841097</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>1.281972408</v>
+        <v>8.160639279592486</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0.5323619839999996</v>
+        <v>8.298290205324093</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>-1.008660317</v>
+        <v>8.103195607029678</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>0.1190977099999984</v>
+        <v>8.14064462264068</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1.281972408</v>
+        <v>8.160639279592486</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>-0.5893485204285719</v>
+        <v>8.025460702190374</v>
       </c>
       <c r="N34" s="4" t="inlineStr">
         <is>
@@ -2530,28 +2530,28 @@
         <v>2</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>1.632748604500001</v>
+        <v>8.199638614560289</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>-5.122620103499999</v>
+        <v>7.313230173490187</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>1.3433513645</v>
+        <v>8.161404743421329</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>1.1428093915</v>
+        <v>8.456502859903939</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>-5.1882901235</v>
+        <v>7.917915221564688</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>0.7832722665000009</v>
+        <v>8.118623283788159</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>1.3433513645</v>
+        <v>8.161404743421329</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>-0.5807681764999996</v>
+        <v>8.046959948592846</v>
       </c>
       <c r="N35" s="4" t="inlineStr">
         <is>
@@ -2589,28 +2589,28 @@
         <v>2</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>-0.6158680914999994</v>
+        <v>8.123223240080467</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>-5.0086665135</v>
+        <v>7.338026650361973</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>0.1942706105000003</v>
+        <v>8.147006621538946</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>0.6096444124999998</v>
+        <v>8.319305608718615</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>-0.4893736835000002</v>
+        <v>8.124638248068864</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>-0.6117873194999994</v>
+        <v>8.164495554806374</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0.1942706105000003</v>
+        <v>8.147006621538946</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>-0.8182157106428569</v>
+        <v>8.051957506444882</v>
       </c>
       <c r="N36" s="4" t="inlineStr">
         <is>
@@ -2648,28 +2648,28 @@
         <v>2</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>-0.680533886500001</v>
+        <v>8.120964676788132</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>-0.3855586055</v>
+        <v>8.096197263927097</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>-0.1439595225000012</v>
+        <v>8.142741038479537</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>0.0167307855</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>-0.0975909235000003</v>
+        <v>8.140607595431023</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>1.110581874499999</v>
+        <v>8.107646119163824</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>-0.1439595225000012</v>
+        <v>8.142741038479537</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>-0.04632711435714354</v>
+        <v>8.128649297808266</v>
       </c>
       <c r="N37" s="4" t="inlineStr">
         <is>
@@ -2707,28 +2707,28 @@
         <v>2</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.1603006119999999</v>
+        <v>8.150059889233457</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>0.057013392</v>
+        <v>8.151573732613556</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>0.1589583160000001</v>
+        <v>8.146561870359641</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0.1614328620000003</v>
+        <v>8.192929987252425</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>-0.5204519029999997</v>
+        <v>8.12336387784001</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>-0.2308806179999996</v>
+        <v>8.15211465796513</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0.1589583160000001</v>
+        <v>8.146561870359641</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>-0.007809860428571268</v>
+        <v>8.151880840803408</v>
       </c>
       <c r="N38" s="4" t="inlineStr">
         <is>
@@ -2766,28 +2766,28 @@
         <v>2</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.1482596399999991</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>1.948008536999999</v>
+        <v>8.366814134349674</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>0.5858435629999992</v>
+        <v>8.151929235491933</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0.572505473999998</v>
+        <v>8.309244621148473</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>-0.07543230100000101</v>
+        <v>8.141505536913584</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>1.509798526999999</v>
+        <v>8.094143309751503</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0.5858435629999992</v>
+        <v>8.151929235491933</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>0.7535467147142846</v>
+        <v>8.19503048936226</v>
       </c>
       <c r="N39" s="4" t="inlineStr">
         <is>
@@ -2825,28 +2825,28 @@
         <v>2</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>-0.4070367815000004</v>
+        <v>8.130492976919498</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>0.9004368784999999</v>
+        <v>8.251560441679818</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>1.0642356875</v>
+        <v>8.157920580077477</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>-0.0034241675000004</v>
+        <v>8.143514331061521</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>0.5738377574999998</v>
+        <v>8.167571054146782</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>-0.1553807255000006</v>
+        <v>8.149647960484785</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>1.0642356875</v>
+        <v>8.157920580077477</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0.4338434766428569</v>
+        <v>8.165518274921052</v>
       </c>
       <c r="N40" s="4" t="inlineStr">
         <is>
@@ -2884,28 +2884,28 @@
         <v>2</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>0.8176057335000002</v>
+        <v>8.172402753362533</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>0.3187229635</v>
+        <v>8.18334697076758</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>1.0425078865</v>
+        <v>8.157649001535329</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>-0.0848672394999994</v>
+        <v>8.118462731806723</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>0.7849948405000005</v>
+        <v>8.175947655872504</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>-1.4243061545</v>
+        <v>8.190555674580372</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>1.0425078865</v>
+        <v>8.157649001535329</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>0.3567379880714287</v>
+        <v>8.165144827065768</v>
       </c>
       <c r="N41" s="4" t="inlineStr">
         <is>
@@ -2943,28 +2943,28 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>-0.0660519649999997</v>
+        <v>8.142284999115775</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>-0.0665335649999985</v>
+        <v>8.136327666763313</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>0.2295126950000004</v>
+        <v>8.147450351781247</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>-0.1761431749999982</v>
+        <v>8.089859719767805</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>-0.1322035849999992</v>
+        <v>8.1392038553545</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>-0.3700947749999983</v>
+        <v>8.156651969761887</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0.2295126950000004</v>
+        <v>8.147450351781247</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>-0.05028595357142759</v>
+        <v>8.13703270204654</v>
       </c>
       <c r="N42" s="4" t="inlineStr">
         <is>
@@ -3002,28 +3002,28 @@
         <v>2</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>-0.3330216405000002</v>
+        <v>8.133060789671523</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>-0.2974338535000003</v>
+        <v>8.107394592633197</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>0.8286881444999992</v>
+        <v>8.154973710925152</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0.2587313654999992</v>
+        <v>8.221320062930898</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>0.6189751624999991</v>
+        <v>8.169365746690762</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>0.3023300164999991</v>
+        <v>8.13460287941729</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0.8286881444999992</v>
+        <v>8.154973710925152</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0.3152796199285707</v>
+        <v>8.153670213313424</v>
       </c>
       <c r="N43" s="4" t="inlineStr">
         <is>
@@ -3061,28 +3061,28 @@
         <v>2</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>-4.608143327500001</v>
+        <v>7.421947553957015</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>0.6115889554999985</v>
+        <v>8.169072219035579</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>-1.111558709928573</v>
+        <v>6.882162874877379</v>
       </c>
       <c r="N44" s="4" t="inlineStr">
         <is>
@@ -3290,13 +3290,13 @@
     <col width="38" customWidth="1" min="8" max="8"/>
     <col width="38" customWidth="1" min="9" max="9"/>
     <col width="38" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
-    <col width="21" customWidth="1" min="15" max="15"/>
-    <col width="21" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.3794473011666672</v>
+        <v>8.160070271931479</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.2905068397500006</v>
+        <v>8.140084546013977</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.08894046141666662</v>
+        <v>0.01998572591750225</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.6647537797852541</v>
+        <v>0.2070671944350143</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -3428,25 +3428,25 @@
         </is>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0.6222314835000002</v>
+        <v>8.165797730398412</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.1710886955000008</v>
+        <v>8.165509324728511</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.3450217245000005</v>
+        <v>8.148903760667514</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>-0.0975103374999992</v>
+        <v>8.114534455375267</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.5188875195000007</v>
+        <v>8.165383179319834</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>0.3956284525000004</v>
+        <v>8.131516788693293</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.3450217245000005</v>
+        <v>8.148903760667514</v>
       </c>
     </row>
     <row r="3">
@@ -3456,19 +3456,19 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1.417282260333334</v>
+        <v>8.150121327722124</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>3.205853697000002</v>
+        <v>8.131940458885202</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-1.788571436666667</v>
+        <v>0.0181808688369216</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.4125420027658555</v>
+        <v>0.8469256631977293</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.8824774345712834</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -3491,25 +3491,25 @@
         </is>
       </c>
       <c r="K3" s="3" t="n">
-        <v>-0.266041285</v>
+        <v>8.1353806112134</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-0.2665228849999988</v>
+        <v>8.111301711676186</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>4.784410951000002</v>
+        <v>8.203681660276789</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>-0.3761324949999985</v>
+        <v>8.025133473288145</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>4.127238748000002</v>
+        <v>8.302439393271937</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>4.287897584000001</v>
+        <v>7.996507308703936</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>4.784410951000002</v>
+        <v>8.203681660276789</v>
       </c>
     </row>
     <row r="4">
@@ -3519,19 +3519,19 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.001166822499999535</v>
+        <v>8.117379750892617</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-0.5447275647500001</v>
+        <v>6.53619194659136</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.5458943872499996</v>
+        <v>1.581187804301257</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.7572703399385269</v>
+        <v>0.4462871985179065</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.2873787884999999</v>
+        <v>8.154406549298921</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>-0.7637286135000014</v>
+        <v>8.047134292923786</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.4798502925000001</v>
+        <v>8.150598410455146</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>-4.6806931535</v>
+        <v>1.684848082733243</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>1.1961369515</v>
+        <v>8.192119427970894</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.8257956504999999</v>
+        <v>8.117201865206159</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.4798502925000001</v>
+        <v>8.150598410455146</v>
       </c>
     </row>
     <row r="5">
@@ -3582,19 +3582,19 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.2656416895000001</v>
+        <v>8.085483365831482</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.2197313310000005</v>
+        <v>8.044353932301691</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-0.04591035849999958</v>
+        <v>0.04112943352979137</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.9487581534050924</v>
+        <v>0.7523250639544592</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.860629468412259</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -3617,25 +3617,25 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0.7337994575</v>
+        <v>8.169573214953779</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-1.5297160155</v>
+        <v>7.942331481026755</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.0010085105000001</v>
+        <v>8.144545401513913</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>-1.078610897500001</v>
+        <v>7.771566894334248</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>-0.2879571915000003</v>
+        <v>8.132870205109182</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0.4886512754999996</v>
+        <v>8.128433228249422</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>-0.0010085105000001</v>
+        <v>8.144545401513913</v>
       </c>
     </row>
     <row r="6">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.5362804726666663</v>
+        <v>8.020064639599935</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.1998329159999996</v>
+        <v>8.103522072096816</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-0.3364475566666667</v>
+        <v>-0.0834574324968802</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.7634766649798448</v>
+        <v>0.5541212019410306</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -3680,25 +3680,25 @@
         </is>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0.4433600905000006</v>
+        <v>8.159723988959076</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>-2.821715354</v>
+        <v>7.74623747895001</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0.7695138455000006</v>
+        <v>8.154232450890717</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>-0.6260888575000001</v>
+        <v>7.93992585760476</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0.0028140544999999</v>
+        <v>8.144671877147518</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>-0.945570706499999</v>
+        <v>8.175258102744262</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.7695138455000006</v>
+        <v>8.154232450890717</v>
       </c>
     </row>
     <row r="7">
@@ -3708,19 +3708,19 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.02277072283333339</v>
+        <v>8.142124554332696</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.7645194532500001</v>
+        <v>8.197380462767043</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.7417487304166668</v>
+        <v>-0.05525590843434713</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.06271662341974947</v>
+        <v>0.3426650328429077</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -3743,25 +3743,25 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v>-0.4996976855000002</v>
+        <v>8.127271829466453</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.0256481175000002</v>
+        <v>8.147718396496174</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.5423617365000002</v>
+        <v>8.151383437035461</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.6225023275000003</v>
+        <v>8.322772548480454</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1.2202439305</v>
+        <v>8.193062043812983</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.6729698185000004</v>
+        <v>8.12230382173928</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.5423617365000002</v>
+        <v>8.151383437035461</v>
       </c>
     </row>
     <row r="8">
@@ -3771,19 +3771,19 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-0.9013261808333338</v>
+        <v>8.155130159144406</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.06894970000000006</v>
+        <v>8.209283091046579</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.8323764808333338</v>
+        <v>-0.05415293190217341</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.5533222562143266</v>
+        <v>0.5635617233514196</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -3806,25 +3806,25 @@
         </is>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-3.430460933500001</v>
+        <v>8.021491736619156</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1.4019470215</v>
+        <v>8.307886355010019</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.6754646305000005</v>
+        <v>8.136012385804042</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>0.6882667545000007</v>
+        <v>8.340375796866136</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0.8609399794999995</v>
+        <v>8.178948547023138</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>-1.1495409035</v>
+        <v>8.181795634493003</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>-0.6754646305000005</v>
+        <v>8.136012385804042</v>
       </c>
     </row>
     <row r="9">
@@ -3834,19 +3834,19 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.5265638028333343</v>
+        <v>8.16397894896078</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-0.828521251249999</v>
+        <v>8.153797307086297</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>1.355085054083333</v>
+        <v>0.01018164187448356</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.1426109897010552</v>
+        <v>0.7605562744108335</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.860629468412259</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -3869,25 +3869,25 @@
         </is>
       </c>
       <c r="K9" s="3" t="n">
-        <v>1.297978877500001</v>
+        <v>8.188515312077669</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.09755945150000039</v>
+        <v>8.156542327500974</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.1841530795000015</v>
+        <v>8.146879207303698</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0.0073161125000016</v>
+        <v>8.146785773124311</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>-1.0900998115</v>
+        <v>8.099803667705441</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>-2.415454385499999</v>
+        <v>8.221720580211736</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.1841530795000015</v>
+        <v>8.146879207303698</v>
       </c>
     </row>
     <row r="10">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.6715664064999993</v>
+        <v>8.186874383454086</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-0.1599422700000004</v>
+        <v>8.15494072719607</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.8315086764999997</v>
+        <v>0.03193365625801547</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.3111925252147416</v>
+        <v>0.4501791324593416</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -3932,25 +3932,25 @@
         </is>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.402324437499999</v>
+        <v>8.158326972494946</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.8732626434999995</v>
+        <v>8.248444708882889</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.7391121384999995</v>
+        <v>8.153851468984424</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>-0.1820852765000005</v>
+        <v>8.087977843536422</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.6979687204999996</v>
+        <v>8.172501219402907</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>-1.8947646625</v>
+        <v>8.205432376860525</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.7391121384999995</v>
+        <v>8.153851468984424</v>
       </c>
     </row>
     <row r="11">
@@ -3960,19 +3960,19 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.3096685411666664</v>
+        <v>8.14797796668636</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.08109498000000046</v>
+        <v>8.094968410602249</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.3907635211666669</v>
+        <v>0.05300955608411151</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.363452626102606</v>
+        <v>0.4915526009359882</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -3995,25 +3995,25 @@
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0.4520063404999997</v>
+        <v>8.160018169153121</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>-0.1006474495000003</v>
+        <v>8.132089368984783</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0.5776467324999999</v>
+        <v>8.151826361921174</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>-0.6973056795000003</v>
+        <v>7.914698221654849</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0.2405924804999993</v>
+        <v>8.154251463246442</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>-0.4453134535000007</v>
+        <v>8.159097595586532</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.5776467324999999</v>
+        <v>8.151826361921174</v>
       </c>
     </row>
     <row r="12">
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1894599593333333</v>
+        <v>8.15329610204776</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-0.4651018981874999</v>
+        <v>8.157690858425905</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.6545618575208333</v>
+        <v>-0.004394756378145459</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.4812826982202755</v>
+        <v>0.9474128932021579</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.9474128932021579</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -4058,25 +4058,25 @@
         </is>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0.0385904310000002</v>
+        <v>8.145884525485707</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.1657567019999995</v>
+        <v>8.164860951366549</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0.3640327450000003</v>
+        <v>8.149142829291021</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>0.5250668530000002</v>
+        <v>8.296290536925079</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>-2.59414506175</v>
+        <v>8.035682715098801</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>-0.1553621290000002</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.3640327450000003</v>
+        <v>8.149142829291021</v>
       </c>
     </row>
     <row r="13">
@@ -4086,19 +4086,19 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.3186655045000001</v>
+        <v>8.157336851218853</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.1541857722500006</v>
+        <v>8.154892065671433</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.1644797322499996</v>
+        <v>0.00244478554741967</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.7629101516906363</v>
+        <v>0.8619547035347418</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.8824774345712834</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -4121,25 +4121,25 @@
         </is>
       </c>
       <c r="K13" s="3" t="n">
-        <v>-0.4042134285000003</v>
+        <v>8.130591011604366</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0.3227796555000007</v>
+        <v>8.183834013453792</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>1.0374302865</v>
+        <v>8.1575855285984</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>0.0306921005000004</v>
+        <v>8.153880456257474</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0.0583305365000006</v>
+        <v>8.14691421658253</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>-0.5097098344999988</v>
+        <v>8.161188061247334</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>1.0374302865</v>
+        <v>8.1575855285984</v>
       </c>
     </row>
     <row r="14">
@@ -4149,19 +4149,19 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-1.459176701833333</v>
+        <v>8.059703081370836</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.9207057947499996</v>
+        <v>8.194031801855797</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.5384709070833332</v>
+        <v>-0.1343287204849606</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.8257089383549574</v>
+        <v>0.09510005747823548</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -4184,25 +4184,25 @@
         </is>
       </c>
       <c r="K14" s="3" t="n">
-        <v>-4.9504261055</v>
+        <v>7.963416978188648</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>-0.7029800454999986</v>
+        <v>8.055129036927259</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>1.2758760455</v>
+        <v>8.160563228996606</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>0.0269451135</v>
+        <v>8.152745579764776</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.2688245775000002</v>
+        <v>8.155384661213562</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>-5.254468915499999</v>
+        <v>8.307433737448239</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>1.2758760455</v>
+        <v>8.160563228996606</v>
       </c>
     </row>
     <row r="15">
@@ -4212,19 +4212,19 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.9135107988333327</v>
+        <v>8.193680694625305</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.1928418272499994</v>
+        <v>8.161554358942176</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.7206689715833333</v>
+        <v>0.03212633568312917</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.1592249984048979</v>
+        <v>0.2730155441115195</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0.6825907224999996</v>
+        <v>8.167841526844452</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0.9254963394999997</v>
+        <v>8.254427747923412</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1.132445334499999</v>
+        <v>8.158772809108054</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>0.09325051249999911</v>
+        <v>8.172697267766324</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.1484034054999999</v>
+        <v>8.150544908204024</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>-0.6027319435000003</v>
+        <v>8.164202450690302</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>1.132445334499999</v>
+        <v>8.158772809108054</v>
       </c>
     </row>
     <row r="16">
@@ -4275,19 +4275,19 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.5540621281666663</v>
+        <v>8.163266951150247</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.6196322442499995</v>
+        <v>8.203527949011772</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.06557011608333319</v>
+        <v>-0.04026099786152493</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.7554411613325069</v>
+        <v>0.5382370235048748</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -4310,25 +4310,25 @@
         </is>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0.6923806665000001</v>
+        <v>8.168172746919575</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0.1850411894999997</v>
+        <v>8.167204578130644</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0.7847645284999993</v>
+        <v>8.154423528400521</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>0.7483417984999994</v>
+        <v>8.356270573035383</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0.6223571304999993</v>
+        <v>8.169500126072542</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0.3230655195000001</v>
+        <v>8.133917568538642</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.7847645284999993</v>
+        <v>8.154423528400521</v>
       </c>
     </row>
     <row r="17">
@@ -4338,19 +4338,19 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.3815691473333332</v>
+        <v>8.179142247647187</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.005497336499999957</v>
+        <v>8.141235994032799</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.3760718108333332</v>
+        <v>0.03790625361438771</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.2710554555972614</v>
+        <v>0.1489947770270066</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -4373,25 +4373,25 @@
         </is>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0.727401972</v>
+        <v>8.169356989477086</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0.6871197229999995</v>
+        <v>8.226919154678127</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>-0.2698142529999998</v>
+        <v>8.141150598786346</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>-0.0587990280000001</v>
+        <v>8.126528654118353</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0.2689340119999999</v>
+        <v>8.155389052034172</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0.08166861499999981</v>
+        <v>8.141875671192322</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>-0.2698142529999998</v>
+        <v>8.141150598786346</v>
       </c>
     </row>
     <row r="18">
@@ -4401,19 +4401,19 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.2836257613333333</v>
+        <v>8.133031219597262</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.19300591925</v>
+        <v>8.187889714263015</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.09061984208333329</v>
+        <v>-0.0548584946657531</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.8959913235409734</v>
+        <v>0.1414535307968385</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -4436,25 +4436,25 @@
         </is>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0.2148013109999996</v>
+        <v>8.151925668741541</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>-0.4411816599999998</v>
+        <v>8.089084671520904</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>1.077257633</v>
+        <v>8.158083318529341</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>0.3617458339999997</v>
+        <v>8.250781273674066</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0.4403324130000001</v>
+        <v>8.162249690014532</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>-1.107312203</v>
+        <v>8.180444574834123</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>1.077257633</v>
+        <v>8.158083318529341</v>
       </c>
     </row>
     <row r="19">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.03379599283333305</v>
+        <v>8.167930356693992</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.2273752692499997</v>
+        <v>8.143518027275753</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.1935792764166667</v>
+        <v>0.02441232941823834</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.707982329781025</v>
+        <v>0.3533494079127087</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -4499,25 +4499,25 @@
         </is>
       </c>
       <c r="K19" s="3" t="n">
-        <v>0.1717219354999999</v>
+        <v>8.150451087259635</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0.6297144885000003</v>
+        <v>8.220215496348379</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>-0.9028244024999994</v>
+        <v>8.13312448647396</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>-0.0505590444999999</v>
+        <v>8.129068885431293</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0.3317198755000001</v>
+        <v>8.157905997198222</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>-0.2878375054999998</v>
+        <v>8.15397273999954</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>-0.9028244024999994</v>
+        <v>8.13312448647396</v>
       </c>
     </row>
     <row r="20">
@@ -4527,19 +4527,19 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.5682440605</v>
+        <v>8.179167667713495</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.006387711000000469</v>
+        <v>8.210200901454376</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.5618563494999995</v>
+        <v>-0.03103323374088163</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.5822217672923558</v>
+        <v>0.7966842166068793</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.8710733694416217</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -4562,25 +4562,25 @@
         </is>
       </c>
       <c r="K20" s="3" t="n">
-        <v>-0.0505244725000002</v>
+        <v>8.142819687102836</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0.7816994194999998</v>
+        <v>8.237896476138355</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0.9735572345000004</v>
+        <v>8.156786839899294</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>1.2570526605</v>
+        <v>8.48427700361167</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>-2.170313119499999</v>
+        <v>8.05404189995542</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>-0.0347459314999998</v>
+        <v>8.145697862351119</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0.9735572345000004</v>
+        <v>8.156786839899294</v>
       </c>
     </row>
     <row r="21">
@@ -4590,19 +4590,19 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-2.198886713000001</v>
+        <v>7.913796631219346</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.7743310927499993</v>
+        <v>8.208278950745187</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-2.97321780575</v>
+        <v>-0.2944823195258417</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.07866713091118856</v>
+        <v>0.1268987105490308</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -4625,25 +4625,25 @@
         </is>
       </c>
       <c r="K21" s="3" t="n">
-        <v>-3.805101875000002</v>
+        <v>8.007393086225639</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>-3.805583475000001</v>
+        <v>7.576703891924136</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>1.014025211</v>
+        <v>8.157292915508265</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>0.8396944999999985</v>
+        <v>8.380110139587051</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>0.6523089409999994</v>
+        <v>8.170689687679731</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0.5912957189999997</v>
+        <v>8.125023060205701</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>1.014025211</v>
+        <v>8.157292915508265</v>
       </c>
     </row>
     <row r="22">
@@ -4653,19 +4653,19 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.1271364689999999</v>
+        <v>8.156690510305726</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.1558722257499998</v>
+        <v>8.146522021450071</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.02873575674999995</v>
+        <v>0.0101684888556548</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.9093790016307099</v>
+        <v>0.5169045603181615</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -4688,25 +4688,25 @@
         </is>
       </c>
       <c r="K22" s="3" t="n">
-        <v>-0.3920958040000002</v>
+        <v>8.131011693663222</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0.3693418500000001</v>
+        <v>8.189412484865231</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0.4041633609999997</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>0.006080389</v>
+        <v>8.146409754615567</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>0.1081800459999998</v>
+        <v>8.148924698639853</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0.1050651069999997</v>
+        <v>8.141106280156144</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>0.4041633609999997</v>
+        <v>8.149647352388723</v>
       </c>
     </row>
     <row r="23">
@@ -4716,19 +4716,19 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.117668469666667</v>
+        <v>8.13439393589311</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.5861392010000008</v>
+        <v>8.106641668893401</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.5315292686666664</v>
+        <v>0.02775226699970901</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.805177135915036</v>
+        <v>0.7305024930538027</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.860629468412259</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -4751,25 +4751,25 @@
         </is>
       </c>
       <c r="K23" s="3" t="n">
-        <v>-0.5286445650000005</v>
+        <v>8.126264080364296</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>-0.5291261649999992</v>
+        <v>8.077767050526505</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>4.410776139000001</v>
+        <v>8.199150676788529</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>-0.6387357749999989</v>
+        <v>7.935477943903841</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>-0.5947961849999999</v>
+        <v>8.120310796756947</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>-0.832687374999999</v>
+        <v>8.171627258124291</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>4.410776139000001</v>
+        <v>8.199150676788529</v>
       </c>
     </row>
     <row r="24">
@@ -4779,19 +4779,19 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-1.732231773333333</v>
+        <v>7.985975814593856</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-1.706679822</v>
+        <v>8.21352040524175</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>-0.0255519513333331</v>
+        <v>-0.2275445906478941</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.9888927553799093</v>
+        <v>0.2860576379639801</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0.9888927553799093</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -4814,25 +4814,25 @@
         </is>
       </c>
       <c r="K24" s="3" t="n">
-        <v>1.05069256</v>
+        <v>8.180243371378971</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>-3.271717069999999</v>
+        <v>7.671158733088052</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>-2.97567081</v>
+        <v>8.106525339314544</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>1.476654052000001</v>
+        <v>8.536208579065748</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>-3.33738709</v>
+        <v>8.002912498958395</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>-1.99031544</v>
+        <v>8.208435203628314</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>-2.97567081</v>
+        <v>8.106525339314544</v>
       </c>
     </row>
     <row r="25">
@@ -4842,19 +4842,19 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.04546483399999996</v>
+        <v>8.149456306924771</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.1281758547500003</v>
+        <v>8.159324947883333</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.1736406887500002</v>
+        <v>-0.00986864095856177</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.3753638678313643</v>
+        <v>0.6669044158426025</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.8193397108923403</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
@@ -4877,25 +4877,25 @@
         </is>
       </c>
       <c r="K25" s="3" t="n">
-        <v>0.2487187390000001</v>
+        <v>8.153085582672817</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0.0687265400000001</v>
+        <v>8.153010843580333</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>-0.1810507770000003</v>
+        <v>8.142272494521164</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>0.2266526219999996</v>
+        <v>8.212021615978971</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>-0.3324599270000004</v>
+        <v>8.131055402239895</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>-0.225845337</v>
+        <v>8.151950278793302</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>-0.1810507770000003</v>
+        <v>8.142272494521164</v>
       </c>
     </row>
     <row r="26">
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-0.04355907449999948</v>
+        <v>8.118925331962851</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.4811904430000008</v>
+        <v>8.137789388257854</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>-0.5247495175000003</v>
+        <v>-0.0188640562950031</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.4900124455101178</v>
+        <v>0.4459106358904036</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -4940,25 +4940,25 @@
         </is>
       </c>
       <c r="K26" s="3" t="n">
-        <v>-1.0121917725</v>
+        <v>8.109325058890217</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>-0.4651851654999994</v>
+        <v>8.086004447609701</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>1.346699714500001</v>
+        <v>8.161446489388636</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>-0.1039037704999988</v>
+        <v>8.112543902915469</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0.1440501215000003</v>
+        <v>8.150369644337641</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0.5379157065000006</v>
+        <v>8.126797516389669</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>1.346699714500001</v>
+        <v>8.161446489388636</v>
       </c>
     </row>
     <row r="27">
@@ -4968,19 +4968,19 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.5776478449999999</v>
+        <v>8.216371646997194</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-1.24381399275</v>
+        <v>8.035064997815223</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>1.82146183775</v>
+        <v>0.1813066491819715</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.2950981207102615</v>
+        <v>0.1096362933311738</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -5003,25 +5003,25 @@
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>-0.1931891439999998</v>
+        <v>8.137899570399137</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>1.949287415</v>
+        <v>8.366949356532913</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.0231547360000004</v>
+        <v>8.144266014059534</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>-0.640314579</v>
+        <v>7.934921715384317</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>-4.844302659</v>
+        <v>7.934095370198534</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0.5325160029999996</v>
+        <v>8.126976891618506</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>-0.0231547360000004</v>
+        <v>8.144266014059534</v>
       </c>
     </row>
     <row r="28">
@@ -5031,19 +5031,19 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-1.363730270833335</v>
+        <v>7.909005224606301</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.9224300392500009</v>
+        <v>6.112031112580686</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>-0.4413002315833336</v>
+        <v>1.796974112025615</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.8362199798252747</v>
+        <v>0.4910129102353813</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -5066,25 +5066,25 @@
         </is>
       </c>
       <c r="K28" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>-4.608143327500001</v>
+        <v>7.421947553957015</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.6115889554999985</v>
+        <v>8.169072219035579</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
     </row>
     <row r="29">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.5245387553333326</v>
+        <v>8.135321472611931</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.2664254904999995</v>
+        <v>8.107371316958877</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>-0.2581132648333331</v>
+        <v>0.0279501556530537</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.6181864099850826</v>
+        <v>0.4304911532421435</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
@@ -5129,25 +5129,25 @@
         </is>
       </c>
       <c r="K29" s="3" t="n">
-        <v>-0.4614017009999998</v>
+        <v>8.128603975111927</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0.0211999420000008</v>
+        <v>8.147170803479083</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>-1.133414506999999</v>
+        <v>8.130189639244783</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>-0.3727128509999993</v>
+        <v>8.026264994988583</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>-0.0211999419999999</v>
+        <v>8.143700858535958</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0.4616253380000002</v>
+        <v>8.129329775066187</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>-1.133414506999999</v>
+        <v>8.130189639244783</v>
       </c>
     </row>
     <row r="30">
@@ -5157,19 +5157,19 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-0.4375145430000001</v>
+        <v>8.134760886954643</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.3947902912500001</v>
+        <v>8.083762184810594</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>-0.04272425175</v>
+        <v>0.05099870214404945</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.9043875732073632</v>
+        <v>0.4629697591844539</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
@@ -5192,25 +5192,25 @@
         </is>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-1.112022638</v>
+        <v>8.105803002043899</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0.107996226</v>
+        <v>8.157818506234689</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>-0.3085172170000003</v>
+        <v>8.140661152585336</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>-0.6683695309999997</v>
+        <v>7.925001741303869</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>-0.5369665619999999</v>
+        <v>8.122686231782511</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>-0.0653078550000003</v>
+        <v>8.146699613570659</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>-0.3085172170000003</v>
+        <v>8.140661152585336</v>
       </c>
     </row>
     <row r="31">
@@ -5220,19 +5220,19 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.1295905114999988</v>
+        <v>8.12524848109846</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.1857758762499988</v>
+        <v>8.1877964748479</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.05618536474999999</v>
+        <v>-0.06254799374944042</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0.9350890006261825</v>
+        <v>0.2123444140761471</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
@@ -5255,25 +5255,25 @@
         </is>
       </c>
       <c r="K31" s="3" t="n">
-        <v>0.9446644785000018</v>
+        <v>8.176682061252146</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>-0.640779972499999</v>
+        <v>8.063269157763518</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>-0.6926560404999993</v>
+        <v>8.135794224279712</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>0.4271492955000014</v>
+        <v>8.26917858159673</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0.5736589435000017</v>
+        <v>8.167563939944388</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>-1.051255703499999</v>
+        <v>8.178649153570774</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>-0.6926560404999993</v>
+        <v>8.135794224279712</v>
       </c>
     </row>
     <row r="32">
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.2235166228333334</v>
+        <v>8.154365414142861</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-0.3567858937499998</v>
+        <v>8.18800685217944</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.5803025165833332</v>
+        <v>-0.03364143803657882</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.3795572693608998</v>
+        <v>0.4035283270961436</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
@@ -5318,25 +5318,25 @@
         </is>
       </c>
       <c r="K32" s="3" t="n">
-        <v>0.2781434054999998</v>
+        <v>8.154091097491825</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0.1358089444999999</v>
+        <v>8.161213863053721</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0.2565975185000005</v>
+        <v>8.147791281883038</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>0.4278664585000005</v>
+        <v>8.269379017317174</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>-0.3046503065000001</v>
+        <v>8.132189734415231</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>-1.8069572455</v>
+        <v>8.202667375102314</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0.2565975185000005</v>
+        <v>8.147791281883038</v>
       </c>
     </row>
     <row r="33">
@@ -5346,19 +5346,19 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-0.02299086266666613</v>
+        <v>8.157281522727361</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.5726180079999996</v>
+        <v>8.218553041446853</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.5496271453333335</v>
+        <v>-0.06127151871949188</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0.5065617590653271</v>
+        <v>0.5310402244458119</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
@@ -5381,25 +5381,25 @@
         </is>
       </c>
       <c r="K33" s="3" t="n">
-        <v>-0.1919274329999991</v>
+        <v>8.137943157005292</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0.3978285790000005</v>
+        <v>8.19281478626691</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>-0.2748737339999998</v>
+        <v>8.141086624909882</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>1.060551643</v>
+        <v>8.436168474923598</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>-1.242311000999999</v>
+        <v>8.093442639788787</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>-1.83383894</v>
+        <v>8.203514426165144</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>-0.2748737339999998</v>
+        <v>8.141086624909882</v>
       </c>
     </row>
     <row r="34">
@@ -5409,19 +5409,19 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-1.683403809333334</v>
+        <v>7.825151733581895</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.2311929462499995</v>
+        <v>8.175692428646734</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-1.914596755583333</v>
+        <v>-0.3505406950648391</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.3395556776451291</v>
+        <v>0.2491687568367856</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
@@ -5444,25 +5444,25 @@
         </is>
       </c>
       <c r="K34" s="3" t="n">
-        <v>-0.6887531280000001</v>
+        <v>8.120677352312102</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>-5.643430708</v>
+        <v>7.194138568841097</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>1.281972408</v>
+        <v>8.160639279592486</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>0.5323619839999996</v>
+        <v>8.298290205324093</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>-1.008660317</v>
+        <v>8.103195607029678</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0.1190977099999984</v>
+        <v>8.14064462264068</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>1.281972408</v>
+        <v>8.160639279592486</v>
       </c>
     </row>
     <row r="35">
@@ -5472,19 +5472,19 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-0.7155067114999994</v>
+        <v>7.891424510490602</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.4797142752499998</v>
+        <v>8.163611527169529</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>-0.2357924362499997</v>
+        <v>-0.2721870166789273</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.9318181602994497</v>
+        <v>0.3684655976012695</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
@@ -5507,25 +5507,25 @@
         </is>
       </c>
       <c r="K35" s="3" t="n">
-        <v>1.632748604500001</v>
+        <v>8.199638614560289</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>-5.122620103499999</v>
+        <v>7.313230173490187</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>1.3433513645</v>
+        <v>8.161404743421329</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>1.1428093915</v>
+        <v>8.456502859903939</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>-5.1882901235</v>
+        <v>7.917915221564688</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0.7832722665000009</v>
+        <v>8.118623283788159</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>1.3433513645</v>
+        <v>8.161404743421329</v>
       </c>
     </row>
     <row r="36">
@@ -5535,19 +5535,19 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-1.810087998166666</v>
+        <v>7.869418837327129</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>-0.07431149499999989</v>
+        <v>8.1888615082832</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>-1.735776503166666</v>
+        <v>-0.3194426709560707</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.268483716081537</v>
+        <v>0.22088045820057</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="K36" s="3" t="n">
-        <v>-0.6158680914999994</v>
+        <v>8.123223240080467</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>-5.0086665135</v>
+        <v>7.338026650361973</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0.1942706105000003</v>
+        <v>8.147006621538946</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>0.6096444124999998</v>
+        <v>8.319305608718615</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>-0.4893736835000002</v>
+        <v>8.124638248068864</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>-0.6117873194999994</v>
+        <v>8.164495554806374</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>0.1942706105000003</v>
+        <v>8.147006621538946</v>
       </c>
     </row>
     <row r="37">
@@ -5598,19 +5598,19 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-0.4033506715000008</v>
+        <v>8.119967659731588</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.2214405534999994</v>
+        <v>8.135160526365777</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>-0.6247912250000001</v>
+        <v>-0.01519286663418917</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.1575246475996167</v>
+        <v>0.3803159618440868</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
@@ -5633,25 +5633,25 @@
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>-0.680533886500001</v>
+        <v>8.120964676788132</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>-0.3855586055</v>
+        <v>8.096197263927097</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>-0.1439595225000012</v>
+        <v>8.142741038479537</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>0.0167307855</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>-0.0975909235000003</v>
+        <v>8.140607595431023</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>1.110581874499999</v>
+        <v>8.107646119163824</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>-0.1439595225000012</v>
+        <v>8.142741038479537</v>
       </c>
     </row>
     <row r="38">
@@ -5661,19 +5661,19 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.1254241066666667</v>
+        <v>8.149398497402219</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.1077353357499997</v>
+        <v>8.153742598354302</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.2331594424166664</v>
+        <v>-0.004344100952083707</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.2920006326578264</v>
+        <v>0.8103008087829039</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.8710733694416217</v>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
@@ -5696,25 +5696,25 @@
         </is>
       </c>
       <c r="K38" s="3" t="n">
-        <v>0.1603006119999999</v>
+        <v>8.150059889233457</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0.057013392</v>
+        <v>8.151573732613556</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>0.1589583160000001</v>
+        <v>8.146561870359641</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>0.1614328620000003</v>
+        <v>8.192929987252425</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>-0.5204519029999997</v>
+        <v>8.12336387784001</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>-0.2308806179999996</v>
+        <v>8.15211465796513</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>0.1589583160000001</v>
+        <v>8.146561870359641</v>
       </c>
     </row>
     <row r="39">
@@ -5724,19 +5724,19 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.8940372466666657</v>
+        <v>8.222796907410109</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.6481788157499988</v>
+        <v>8.174205675826373</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.2458584309166669</v>
+        <v>0.04859123158373535</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.6967247410724272</v>
+        <v>0.5782590151204012</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
@@ -5759,25 +5759,25 @@
         </is>
       </c>
       <c r="K39" s="3" t="n">
-        <v>0.1482596399999991</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1.948008536999999</v>
+        <v>8.366814134349674</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>0.5858435629999992</v>
+        <v>8.151929235491933</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>0.572505473999998</v>
+        <v>8.309244621148473</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>-0.07543230100000101</v>
+        <v>8.141505536913584</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>1.509798526999999</v>
+        <v>8.094143309751503</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0.5858435629999992</v>
+        <v>8.151929235491933</v>
       </c>
     </row>
     <row r="40">
@@ -5787,19 +5787,19 @@
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.5192119281666665</v>
+        <v>8.179991332892264</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.3698171379999997</v>
+        <v>8.154663481442642</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.1493947901666668</v>
+        <v>0.02532785144962268</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.7818091077915832</v>
+        <v>0.4548817058728121</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
@@ -5822,25 +5822,25 @@
         </is>
       </c>
       <c r="K40" s="3" t="n">
-        <v>-0.4070367815000004</v>
+        <v>8.130492976919498</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0.9004368784999999</v>
+        <v>8.251560441679818</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>1.0642356875</v>
+        <v>8.157920580077477</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>-0.0034241675000004</v>
+        <v>8.143514331061521</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0.5738377574999998</v>
+        <v>8.167571054146782</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>-0.1553807255000006</v>
+        <v>8.149647960484785</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>1.0642356875</v>
+        <v>8.157920580077477</v>
       </c>
     </row>
     <row r="41">
@@ -5850,19 +5850,19 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.7262788611666666</v>
+        <v>8.171132908555148</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.07958233325000025</v>
+        <v>8.160653765948732</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.6466965279166663</v>
+        <v>0.01047914260641569</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.3866197546776161</v>
+        <v>0.6135365165103033</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7994566730285769</v>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
@@ -5885,25 +5885,25 @@
         </is>
       </c>
       <c r="K41" s="3" t="n">
-        <v>0.8176057335000002</v>
+        <v>8.172402753362533</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0.3187229635</v>
+        <v>8.18334697076758</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>1.0425078865</v>
+        <v>8.157649001535329</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>-0.0848672394999994</v>
+        <v>8.118462731806723</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.7849948405000005</v>
+        <v>8.175947655872504</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>-1.4243061545</v>
+        <v>8.190555674580372</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>1.0425078865</v>
+        <v>8.157649001535329</v>
       </c>
     </row>
     <row r="42">
@@ -5913,19 +5913,19 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.03230905500000073</v>
+        <v>8.142021005886777</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.1122322099999988</v>
+        <v>8.133291474166361</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>0.1445412649999996</v>
+        <v>0.008729531720415906</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0.4325981463908164</v>
+        <v>0.645406804068561</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.8162497816161213</v>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
@@ -5948,25 +5948,25 @@
         </is>
       </c>
       <c r="K42" s="3" t="n">
-        <v>-0.0660519649999997</v>
+        <v>8.142284999115775</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>-0.0665335649999985</v>
+        <v>8.136327666763313</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0.2295126950000004</v>
+        <v>8.147450351781247</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>-0.1761431749999982</v>
+        <v>8.089859719767805</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>-0.1322035849999992</v>
+        <v>8.1392038553545</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>-0.3700947749999983</v>
+        <v>8.156651969761887</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>0.2295126950000004</v>
+        <v>8.147450351781247</v>
       </c>
     </row>
     <row r="43">
@@ -5976,19 +5976,19 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.06607755016666624</v>
+        <v>8.131809697743291</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.5021811722499991</v>
+        <v>8.170065599991025</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>-0.4361036220833329</v>
+        <v>-0.03825590224773379</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.2763219129984661</v>
+        <v>0.1827238980078304</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
@@ -6011,25 +6011,25 @@
         </is>
       </c>
       <c r="K43" s="3" t="n">
-        <v>-0.3330216405000002</v>
+        <v>8.133060789671523</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>-0.2974338535000003</v>
+        <v>8.107394592633197</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0.8286881444999992</v>
+        <v>8.154973710925152</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>0.2587313654999992</v>
+        <v>8.221320062930898</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0.6189751624999991</v>
+        <v>8.169365746690762</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>0.3023300164999991</v>
+        <v>8.13460287941729</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>0.8286881444999992</v>
+        <v>8.154973710925152</v>
       </c>
     </row>
     <row r="44">
@@ -6039,19 +6039,19 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-1.363730270833335</v>
+        <v>7.909005224606301</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-0.9224300392500009</v>
+        <v>6.112031112580686</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>-0.4413002315833336</v>
+        <v>1.796974112025615</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.8362199798252747</v>
+        <v>0.4910129102353813</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>0.9713476332480708</v>
+        <v>0.7770355515680392</v>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
@@ -6074,25 +6074,25 @@
         </is>
       </c>
       <c r="K44" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>-4.608143327500001</v>
+        <v>7.421947553957015</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0.6115889554999985</v>
+        <v>8.169072219035579</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
     </row>
   </sheetData>
@@ -6136,13 +6136,13 @@
     <col width="38" customWidth="1" min="17" max="17"/>
     <col width="38" customWidth="1" min="18" max="18"/>
     <col width="38" customWidth="1" min="19" max="19"/>
-    <col width="21" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="21" customWidth="1" min="24" max="24"/>
-    <col width="21" customWidth="1" min="25" max="25"/>
-    <col width="21" customWidth="1" min="26" max="26"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6284,40 +6284,40 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.3794473011666672</v>
+        <v>8.160070271931479</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.1237556935000007</v>
+        <v>8.13171910802139</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.4572579860000006</v>
+        <v>8.148449984006565</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2556916076666665</v>
+        <v>0.02835116391008974</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.07781068483333337</v>
+        <v>0.01162028792491476</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>-0.3335022924999999</v>
+        <v>-0.01673087598517498</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0.3588956532950519</v>
+        <v>0.1493236442581099</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.6878599321258023</v>
+        <v>0.4824602361085711</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.2836392161876417</v>
+        <v>0.5597157704373922</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.7124723725845453</v>
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
@@ -6350,25 +6350,25 @@
         </is>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.6222314835000002</v>
+        <v>8.165797730398412</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.1710886955000008</v>
+        <v>8.165509324728511</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.3450217245000005</v>
+        <v>8.148903760667514</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>-0.0975103374999992</v>
+        <v>8.114534455375267</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>0.5188875195000007</v>
+        <v>8.165383179319834</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>0.3956284525000004</v>
+        <v>8.131516788693293</v>
       </c>
       <c r="Z2" s="3" t="n">
-        <v>0.3450217245000005</v>
+        <v>8.148903760667514</v>
       </c>
     </row>
     <row r="3">
@@ -6378,40 +6378,40 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1.417282260333334</v>
+        <v>8.150121327722124</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2.204139228000002</v>
+        <v>8.114407566782468</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4.207568166000001</v>
+        <v>8.149473350987936</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.7868569676666672</v>
+        <v>0.03571376093965561</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-2.790285905666667</v>
+        <v>0.0006479767341875942</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>-2.003428938</v>
+        <v>-0.03506578420546802</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0.8038805892483063</v>
+        <v>0.6685662260066412</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.2895357076033049</v>
+        <v>0.9960132661536025</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.518915485048673</v>
+        <v>0.8613540881758285</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.7371371209816814</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.7519865985870102</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.9033713607697713</v>
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
@@ -6444,25 +6444,25 @@
         </is>
       </c>
       <c r="T3" s="3" t="n">
-        <v>-0.266041285</v>
+        <v>8.1353806112134</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>-0.2665228849999988</v>
+        <v>8.111301711676186</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>4.784410951000002</v>
+        <v>8.203681660276789</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>-0.3761324949999985</v>
+        <v>8.025133473288145</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>4.127238748000002</v>
+        <v>8.302439393271937</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>4.287897584000001</v>
+        <v>7.996507308703936</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>4.784410951000002</v>
+        <v>8.203681660276789</v>
       </c>
     </row>
     <row r="4">
@@ -6472,40 +6472,40 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.001166822499999535</v>
+        <v>8.117379750892617</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-2.1004214305</v>
+        <v>4.917723246594194</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.010966301</v>
+        <v>8.154660646588527</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>2.101588253</v>
+        <v>3.199656504298423</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-1.0097994785</v>
+        <v>-0.03728089569590942</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>-3.1113877315</v>
+        <v>-3.236937399994332</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.3678125569174019</v>
+        <v>0.2762862263221282</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.146173381921148</v>
+        <v>0.5344005904557868</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.3521444070085801</v>
+        <v>0.4221922277745437</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
@@ -6538,25 +6538,25 @@
         </is>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.2873787884999999</v>
+        <v>8.154406549298921</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>-0.7637286135000014</v>
+        <v>8.047134292923786</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.4798502925000001</v>
+        <v>8.150598410455146</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>-4.6806931535</v>
+        <v>1.684848082733243</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>1.1961369515</v>
+        <v>8.192119427970894</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>0.8257956504999999</v>
+        <v>8.117201865206159</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>0.4798502925000001</v>
+        <v>8.150598410455146</v>
       </c>
     </row>
     <row r="5">
@@ -6566,40 +6566,40 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.2656416895000001</v>
+        <v>8.085483365831482</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.5398097040000006</v>
+        <v>7.958056147924081</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.1003470419999996</v>
+        <v>8.130651716679303</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.2741680145000006</v>
+        <v>0.1274272179074014</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.3659887314999997</v>
+        <v>-0.04516835084782045</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>-0.6401567460000003</v>
+        <v>-0.1725955687552219</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>0.791632048916098</v>
+        <v>0.5013626248154002</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.7139147582586525</v>
+        <v>0.6600874773090057</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.436804260207075</v>
+        <v>0.4524376737620571</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.6532906929412789</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0.6884307857658593</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
@@ -6632,25 +6632,25 @@
         </is>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0.7337994575</v>
+        <v>8.169573214953779</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>-1.5297160155</v>
+        <v>7.942331481026755</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>-0.0010085105000001</v>
+        <v>8.144545401513913</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>-1.078610897500001</v>
+        <v>7.771566894334248</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>-0.2879571915000003</v>
+        <v>8.132870205109182</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>0.4886512754999996</v>
+        <v>8.128433228249422</v>
       </c>
       <c r="Z5" s="3" t="n">
-        <v>-0.0010085105000001</v>
+        <v>8.144545401513913</v>
       </c>
     </row>
     <row r="6">
@@ -6660,40 +6660,40 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.5362804726666663</v>
+        <v>8.020064639599935</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.07171249400000024</v>
+        <v>8.047079154247738</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-0.4713783259999995</v>
+        <v>8.159964989945891</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.6079929666666666</v>
+        <v>-0.02701451464780291</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.06490214666666683</v>
+        <v>-0.1399003503459557</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.5430908199999998</v>
+        <v>-0.1128858356981528</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0.7242337234311675</v>
+        <v>0.8980605752296131</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.9686627716433213</v>
+        <v>0.4873144612113551</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.5857186054626842</v>
+        <v>0.4064771919817551</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.9418684081676431</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0.9686627716433213</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
@@ -6726,25 +6726,25 @@
         </is>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0.4433600905000006</v>
+        <v>8.159723988959076</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>-2.821715354</v>
+        <v>7.74623747895001</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0.7695138455000006</v>
+        <v>8.154232450890717</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>-0.6260888575000001</v>
+        <v>7.93992585760476</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>0.0028140544999999</v>
+        <v>8.144671877147518</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>-0.945570706499999</v>
+        <v>8.175258102744262</v>
       </c>
       <c r="Z6" s="3" t="n">
-        <v>0.7695138455000006</v>
+        <v>8.154232450890717</v>
       </c>
     </row>
     <row r="7">
@@ -6754,40 +6754,40 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.02277072283333339</v>
+        <v>8.142124554332696</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.5824320320000003</v>
+        <v>8.237077992757957</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.9466068745000001</v>
+        <v>8.157682932776131</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-0.5596613091666669</v>
+        <v>-0.09495343842526083</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-0.9238361516666668</v>
+        <v>-0.01555837844343522</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>-0.3641748424999999</v>
+        <v>0.07939505998182561</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0.246299350155626</v>
+        <v>0.2379590799939575</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.1258378293050742</v>
+        <v>0.6182959551475973</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.3185418886957354</v>
+        <v>0.4820181820929547</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
@@ -6820,25 +6820,25 @@
         </is>
       </c>
       <c r="T7" s="3" t="n">
-        <v>-0.4996976855000002</v>
+        <v>8.127271829466453</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.0256481175000002</v>
+        <v>8.147718396496174</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.5423617365000002</v>
+        <v>8.151383437035461</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.6225023275000003</v>
+        <v>8.322772548480454</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>1.2202439305</v>
+        <v>8.193062043812983</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>0.6729698185000004</v>
+        <v>8.12230382173928</v>
       </c>
       <c r="Z7" s="3" t="n">
-        <v>0.5423617365000002</v>
+        <v>8.151383437035461</v>
       </c>
     </row>
     <row r="8">
@@ -6848,40 +6848,40 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-0.9013261808333338</v>
+        <v>8.155130159144406</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.006401062000000124</v>
+        <v>8.238194091335089</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.1443004620000002</v>
+        <v>8.18037209075807</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>-0.9077272428333339</v>
+        <v>-0.08306393219068298</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.7570257188333336</v>
+        <v>-0.02524193161366384</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.1507015240000004</v>
+        <v>0.05782200057701914</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0.6617590403374556</v>
+        <v>0.5730048581335196</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.7245604522738951</v>
+        <v>0.8293927845010485</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.9126071923317434</v>
+        <v>0.6285335070989677</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.6766095329333616</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0.9462279575566364</v>
+        <v>0.730457859601503</v>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
@@ -6914,25 +6914,25 @@
         </is>
       </c>
       <c r="T8" s="3" t="n">
-        <v>-3.430460933500001</v>
+        <v>8.021491736619156</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>1.4019470215</v>
+        <v>8.307886355010019</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>-0.6754646305000005</v>
+        <v>8.136012385804042</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>0.6882667545000007</v>
+        <v>8.340375796866136</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>0.8609399794999995</v>
+        <v>8.178948547023138</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>-1.1495409035</v>
+        <v>8.181795634493003</v>
       </c>
       <c r="Z8" s="3" t="n">
-        <v>-0.6754646305000005</v>
+        <v>8.136012385804042</v>
       </c>
     </row>
     <row r="9">
@@ -6942,40 +6942,40 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.5265638028333343</v>
+        <v>8.16397894896078</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.09573459600000156</v>
+        <v>8.146832490214004</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-1.7527770985</v>
+        <v>8.160762123958587</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.4308292068333327</v>
+        <v>0.01714645874677601</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>2.279340901333334</v>
+        <v>0.003216825002192891</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>1.848511694500001</v>
+        <v>-0.01392963374458311</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0.4549386804998808</v>
+        <v>0.3686224641336196</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.04761878014630518</v>
+        <v>0.9510406084136345</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.1096975932825409</v>
+        <v>0.8404877730323701</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.5119018865727807</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.9033713607697713</v>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
@@ -7008,25 +7008,25 @@
         </is>
       </c>
       <c r="T9" s="3" t="n">
-        <v>1.297978877500001</v>
+        <v>8.188515312077669</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0.09755945150000039</v>
+        <v>8.156542327500974</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.1841530795000015</v>
+        <v>8.146879207303698</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>0.0073161125000016</v>
+        <v>8.146785773124311</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>-1.0900998115</v>
+        <v>8.099803667705441</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>-2.415454385499999</v>
+        <v>8.221720580211736</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>0.1841530795000015</v>
+        <v>8.146879207303698</v>
       </c>
     </row>
     <row r="10">
@@ -7036,40 +7036,40 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.6715664064999993</v>
+        <v>8.186874383454086</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.2785134309999995</v>
+        <v>8.120914656260423</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-0.5983979710000003</v>
+        <v>8.188966798131716</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.3930529754999998</v>
+        <v>0.06595972719366294</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>1.2699643775</v>
+        <v>-0.002092414677630217</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.8769114019999997</v>
+        <v>-0.06805214187129316</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.3856823065207778</v>
+        <v>0.2530458860557069</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.2869193811876418</v>
+        <v>0.9630715473675994</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.589096637049907</v>
+        <v>0.2058449977044996</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.7519865985870102</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
@@ -7102,25 +7102,25 @@
         </is>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.402324437499999</v>
+        <v>8.158326972494946</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.8732626434999995</v>
+        <v>8.248444708882889</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.7391121384999995</v>
+        <v>8.153851468984424</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>-0.1820852765000005</v>
+        <v>8.087977843536422</v>
       </c>
       <c r="X10" s="3" t="n">
-        <v>0.6979687204999996</v>
+        <v>8.172501219402907</v>
       </c>
       <c r="Y10" s="3" t="n">
-        <v>-1.8947646625</v>
+        <v>8.205432376860525</v>
       </c>
       <c r="Z10" s="3" t="n">
-        <v>0.7391121384999995</v>
+        <v>8.153851468984424</v>
       </c>
     </row>
     <row r="11">
@@ -7130,40 +7130,40 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.3096685411666664</v>
+        <v>8.14797796668636</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.05982947350000023</v>
+        <v>8.033262291788011</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-0.1023604865000007</v>
+        <v>8.156674529416488</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.3694980146666667</v>
+        <v>0.1147156748983491</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.4120290276666671</v>
+        <v>-0.008696562730127866</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.04253101300000046</v>
+        <v>-0.123412237628477</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0.5470750380841077</v>
+        <v>0.2878936643346524</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.3478170366448228</v>
+        <v>0.4815153228246469</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0.9584899128984106</v>
+        <v>0.407309984577457</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0.7871648724067042</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0.9584899128984106</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
@@ -7196,25 +7196,25 @@
         </is>
       </c>
       <c r="T11" s="3" t="n">
-        <v>0.4520063404999997</v>
+        <v>8.160018169153121</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>-0.1006474495000003</v>
+        <v>8.132089368984783</v>
       </c>
       <c r="V11" s="3" t="n">
-        <v>0.5776467324999999</v>
+        <v>8.151826361921174</v>
       </c>
       <c r="W11" s="3" t="n">
-        <v>-0.6973056795000003</v>
+        <v>7.914698221654849</v>
       </c>
       <c r="X11" s="3" t="n">
-        <v>0.2405924804999993</v>
+        <v>8.154251463246442</v>
       </c>
       <c r="Y11" s="3" t="n">
-        <v>-0.4453134535000007</v>
+        <v>8.159097595586532</v>
       </c>
       <c r="Z11" s="3" t="n">
-        <v>0.5776467324999999</v>
+        <v>8.151826361921174</v>
       </c>
     </row>
     <row r="12">
@@ -7224,40 +7224,40 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1894599593333333</v>
+        <v>8.15329610204776</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.4445497990000002</v>
+        <v>8.22271668310805</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>-1.374753595375</v>
+        <v>8.092665033743762</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.2550898396666669</v>
+        <v>-0.06942058106029059</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1.564213554708333</v>
+        <v>0.06063106830399789</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1.819303394375</v>
+        <v>0.1300516493642885</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>0.1577626295341956</v>
+        <v>0.2986501173084032</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.186612230600434</v>
+        <v>0.254548761579266</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.2749800757373878</v>
+        <v>0.2971066706242343</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.6686938263182218</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
@@ -7290,25 +7290,25 @@
         </is>
       </c>
       <c r="T12" s="3" t="n">
-        <v>0.0385904310000002</v>
+        <v>8.145884525485707</v>
       </c>
       <c r="U12" s="3" t="n">
-        <v>0.1657567019999995</v>
+        <v>8.164860951366549</v>
       </c>
       <c r="V12" s="3" t="n">
-        <v>0.3640327450000003</v>
+        <v>8.149142829291021</v>
       </c>
       <c r="W12" s="3" t="n">
-        <v>0.5250668530000002</v>
+        <v>8.296290536925079</v>
       </c>
       <c r="X12" s="3" t="n">
-        <v>-2.59414506175</v>
+        <v>8.035682715098801</v>
       </c>
       <c r="Y12" s="3" t="n">
-        <v>-0.1553621290000002</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="Z12" s="3" t="n">
-        <v>0.3640327450000003</v>
+        <v>8.149142829291021</v>
       </c>
     </row>
     <row r="13">
@@ -7318,40 +7318,40 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.3186655045000001</v>
+        <v>8.157336851218853</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.5340611935000003</v>
+        <v>8.155732992427936</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-0.2256896489999991</v>
+        <v>8.154051138914932</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-0.2153956890000001</v>
+        <v>0.001603858790916846</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.5443551534999993</v>
+        <v>0.003285712303920718</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>0.7597508424999994</v>
+        <v>0.001681853513003873</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>0.7639956412887544</v>
+        <v>0.9408125663703999</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.4154054438615433</v>
+        <v>0.8830927977315983</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.3191817267412083</v>
+        <v>0.840769357020856</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.9479561123146097</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0.846247213183574</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.9033713607697713</v>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
@@ -7384,25 +7384,25 @@
         </is>
       </c>
       <c r="T13" s="3" t="n">
-        <v>-0.4042134285000003</v>
+        <v>8.130591011604366</v>
       </c>
       <c r="U13" s="3" t="n">
-        <v>0.3227796555000007</v>
+        <v>8.183834013453792</v>
       </c>
       <c r="V13" s="3" t="n">
-        <v>1.0374302865</v>
+        <v>8.1575855285984</v>
       </c>
       <c r="W13" s="3" t="n">
-        <v>0.0306921005000004</v>
+        <v>8.153880456257474</v>
       </c>
       <c r="X13" s="3" t="n">
-        <v>0.0583305365000006</v>
+        <v>8.14691421658253</v>
       </c>
       <c r="Y13" s="3" t="n">
-        <v>-0.5097098344999988</v>
+        <v>8.161188061247334</v>
       </c>
       <c r="Z13" s="3" t="n">
-        <v>1.0374302865</v>
+        <v>8.1575855285984</v>
       </c>
     </row>
     <row r="14">
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-1.459176701833333</v>
+        <v>8.059703081370836</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.6514105795</v>
+        <v>8.156654404380692</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-2.492822168999999</v>
+        <v>8.231409199330901</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-2.110587281333333</v>
+        <v>-0.09695132300985598</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1.033645467166666</v>
+        <v>-0.1717061179600652</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>3.144232748499999</v>
+        <v>-0.0747547949502092</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>0.4467141636486963</v>
+        <v>0.2792637992658061</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.7636574077689882</v>
+        <v>0.1614825947882335</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.3824083967790994</v>
+        <v>0.4296400941719963</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0.9054917856028896</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
@@ -7478,25 +7478,25 @@
         </is>
       </c>
       <c r="T14" s="3" t="n">
-        <v>-4.9504261055</v>
+        <v>7.963416978188648</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>-0.7029800454999986</v>
+        <v>8.055129036927259</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>1.2758760455</v>
+        <v>8.160563228996606</v>
       </c>
       <c r="W14" s="3" t="n">
-        <v>0.0269451135</v>
+        <v>8.152745579764776</v>
       </c>
       <c r="X14" s="3" t="n">
-        <v>0.2688245775000002</v>
+        <v>8.155384661213562</v>
       </c>
       <c r="Y14" s="3" t="n">
-        <v>-5.254468915499999</v>
+        <v>8.307433737448239</v>
       </c>
       <c r="Z14" s="3" t="n">
-        <v>1.2758760455</v>
+        <v>8.160563228996606</v>
       </c>
     </row>
     <row r="15">
@@ -7506,40 +7506,40 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.9135107988333327</v>
+        <v>8.193680694625305</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.6128479234999991</v>
+        <v>8.165735038437189</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-0.2271642690000002</v>
+        <v>8.157373679447163</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.3006628753333337</v>
+        <v>0.02794565618811617</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1.140675067833333</v>
+        <v>0.03630701517814217</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0.8400121924999993</v>
+        <v>0.008361358990025991</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>0.5276646644682244</v>
+        <v>0.5321821417609763</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.03962772713146468</v>
+        <v>0.4277187853079965</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.320376167006182</v>
+        <v>0.4815719779107663</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.6730538851682937</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0.5119018865727807</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
@@ -7572,25 +7572,25 @@
         </is>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0.6825907224999996</v>
+        <v>8.167841526844452</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>0.9254963394999997</v>
+        <v>8.254427747923412</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>1.132445334499999</v>
+        <v>8.158772809108054</v>
       </c>
       <c r="W15" s="3" t="n">
-        <v>0.09325051249999911</v>
+        <v>8.172697267766324</v>
       </c>
       <c r="X15" s="3" t="n">
-        <v>0.1484034054999999</v>
+        <v>8.150544908204024</v>
       </c>
       <c r="Y15" s="3" t="n">
-        <v>-0.6027319435000003</v>
+        <v>8.164202450690302</v>
       </c>
       <c r="Z15" s="3" t="n">
-        <v>1.132445334499999</v>
+        <v>8.158772809108054</v>
       </c>
     </row>
     <row r="16">
@@ -7600,40 +7600,40 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.5540621281666663</v>
+        <v>8.163266951150247</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.7665531634999994</v>
+        <v>8.255347050717951</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.4727113249999997</v>
+        <v>8.151708847305592</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.212491035333333</v>
+        <v>-0.09208009956770447</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.08135080316666665</v>
+        <v>0.01155810384465461</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0.2938418384999997</v>
+        <v>0.1036382034123591</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.4429626480178145</v>
+        <v>0.3094396219305486</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.7791440945885328</v>
+        <v>0.4820379729812843</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.1905953386297775</v>
+        <v>0.4183230419938547</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0.9054917856028896</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
@@ -7666,25 +7666,25 @@
         </is>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0.6923806665000001</v>
+        <v>8.168172746919575</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>0.1850411894999997</v>
+        <v>8.167204578130644</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>0.7847645284999993</v>
+        <v>8.154423528400521</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>0.7483417984999994</v>
+        <v>8.356270573035383</v>
       </c>
       <c r="X16" s="3" t="n">
-        <v>0.6223571304999993</v>
+        <v>8.169500126072542</v>
       </c>
       <c r="Y16" s="3" t="n">
-        <v>0.3230655195000001</v>
+        <v>8.133917568538642</v>
       </c>
       <c r="Z16" s="3" t="n">
-        <v>0.7847645284999993</v>
+        <v>8.154423528400521</v>
       </c>
     </row>
     <row r="17">
@@ -7694,40 +7694,40 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.3815691473333332</v>
+        <v>8.179142247647187</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.1643066404999999</v>
+        <v>8.13383962645235</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.1753013134999998</v>
+        <v>8.148632361613247</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.5458757878333331</v>
+        <v>0.0453026211948373</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.2062678338333334</v>
+        <v>0.03050988603393989</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>-0.3396079539999998</v>
+        <v>-0.01479273516089741</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>0.2919838546732242</v>
+        <v>0.2638337343152344</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.6617412088267737</v>
+        <v>0.423008990146196</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0.1377604448539586</v>
+        <v>0.2756238950291545</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
@@ -7760,25 +7760,25 @@
         </is>
       </c>
       <c r="T17" s="3" t="n">
-        <v>0.727401972</v>
+        <v>8.169356989477086</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>0.6871197229999995</v>
+        <v>8.226919154678127</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>-0.2698142529999998</v>
+        <v>8.141150598786346</v>
       </c>
       <c r="W17" s="3" t="n">
-        <v>-0.0587990280000001</v>
+        <v>8.126528654118353</v>
       </c>
       <c r="X17" s="3" t="n">
-        <v>0.2689340119999999</v>
+        <v>8.155389052034172</v>
       </c>
       <c r="Y17" s="3" t="n">
-        <v>0.08166861499999981</v>
+        <v>8.141875671192322</v>
       </c>
       <c r="Z17" s="3" t="n">
-        <v>-0.2698142529999998</v>
+        <v>8.141150598786346</v>
       </c>
     </row>
     <row r="18">
@@ -7788,40 +7788,40 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.2836257613333333</v>
+        <v>8.133031219597262</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.7195017334999999</v>
+        <v>8.204432296101704</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.3334898949999999</v>
+        <v>8.171347132424327</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.4358759721666666</v>
+        <v>-0.07140107650444172</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.6171156563333332</v>
+        <v>-0.03831591282706448</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>1.0529916285</v>
+        <v>0.03308516367737724</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>0.5370386105831565</v>
+        <v>0.2089332151937002</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.5011885275244744</v>
+        <v>0.2815816008373776</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.3421848977780637</v>
+        <v>0.5561580850537919</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0.8620442673420959</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.7124723725845453</v>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
@@ -7854,25 +7854,25 @@
         </is>
       </c>
       <c r="T18" s="3" t="n">
-        <v>0.2148013109999996</v>
+        <v>8.151925668741541</v>
       </c>
       <c r="U18" s="3" t="n">
-        <v>-0.4411816599999998</v>
+        <v>8.089084671520904</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>1.077257633</v>
+        <v>8.158083318529341</v>
       </c>
       <c r="W18" s="3" t="n">
-        <v>0.3617458339999997</v>
+        <v>8.250781273674066</v>
       </c>
       <c r="X18" s="3" t="n">
-        <v>0.4403324130000001</v>
+        <v>8.162249690014532</v>
       </c>
       <c r="Y18" s="3" t="n">
-        <v>-1.107312203</v>
+        <v>8.180444574834123</v>
       </c>
       <c r="Z18" s="3" t="n">
-        <v>1.077257633</v>
+        <v>8.158083318529341</v>
       </c>
     </row>
     <row r="19">
@@ -7882,40 +7882,40 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.03379599283333305</v>
+        <v>8.167930356693992</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.4766917234999997</v>
+        <v>8.131096685952627</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.02194118500000014</v>
+        <v>8.155939368598881</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.4428957306666666</v>
+        <v>0.03683367074136434</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-0.05573717783333319</v>
+        <v>0.01199098809511057</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>-0.4986329084999998</v>
+        <v>-0.02484268264625378</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>0.5540720452722627</v>
+        <v>0.3627146167461792</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.9350944918470524</v>
+        <v>0.7503905411845534</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0.4438095443331402</v>
+        <v>0.01268409986646771</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0.9686627716433213</v>
+        <v>0.9916657833382864</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>0.6884307857658593</v>
+        <v>0.5454162942581113</v>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
@@ -7948,25 +7948,25 @@
         </is>
       </c>
       <c r="T19" s="3" t="n">
-        <v>0.1717219354999999</v>
+        <v>8.150451087259635</v>
       </c>
       <c r="U19" s="3" t="n">
-        <v>0.6297144885000003</v>
+        <v>8.220215496348379</v>
       </c>
       <c r="V19" s="3" t="n">
-        <v>-0.9028244024999994</v>
+        <v>8.13312448647396</v>
       </c>
       <c r="W19" s="3" t="n">
-        <v>-0.0505590444999999</v>
+        <v>8.129068885431293</v>
       </c>
       <c r="X19" s="3" t="n">
-        <v>0.3317198755000001</v>
+        <v>8.157905997198222</v>
       </c>
       <c r="Y19" s="3" t="n">
-        <v>-0.2878375054999998</v>
+        <v>8.15397273999954</v>
       </c>
       <c r="Z19" s="3" t="n">
-        <v>-0.9028244024999994</v>
+        <v>8.13312448647396</v>
       </c>
     </row>
     <row r="20">
@@ -7976,40 +7976,40 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.5682440605</v>
+        <v>8.179167667713495</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1.1153049475</v>
+        <v>8.320531921755482</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-1.102529525499999</v>
+        <v>8.099869881153269</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.5470608870000003</v>
+        <v>-0.1413642540419868</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>1.670773585999999</v>
+        <v>0.07929778656022535</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>2.217834473</v>
+        <v>0.2206620406022122</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0.2830501005614526</v>
+        <v>0.3497409366430819</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>0.1582154323725294</v>
+        <v>0.219834273718633</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>0.1757083568026849</v>
+        <v>0.3238888937508452</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
@@ -8042,25 +8042,25 @@
         </is>
       </c>
       <c r="T20" s="3" t="n">
-        <v>-0.0505244725000002</v>
+        <v>8.142819687102836</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>0.7816994194999998</v>
+        <v>8.237896476138355</v>
       </c>
       <c r="V20" s="3" t="n">
-        <v>0.9735572345000004</v>
+        <v>8.156786839899294</v>
       </c>
       <c r="W20" s="3" t="n">
-        <v>1.2570526605</v>
+        <v>8.48427700361167</v>
       </c>
       <c r="X20" s="3" t="n">
-        <v>-2.170313119499999</v>
+        <v>8.05404189995542</v>
       </c>
       <c r="Y20" s="3" t="n">
-        <v>-0.0347459314999998</v>
+        <v>8.145697862351119</v>
       </c>
       <c r="Z20" s="3" t="n">
-        <v>0.9735572345000004</v>
+        <v>8.156786839899294</v>
       </c>
     </row>
     <row r="21">
@@ -8070,40 +8070,40 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-2.198886713000001</v>
+        <v>7.913796631219346</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.9268598554999993</v>
+        <v>8.268701527547659</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.6218023299999995</v>
+        <v>8.147856373942716</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-3.1257465685</v>
+        <v>-0.3549048963283132</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-2.820689043</v>
+        <v>-0.2340597427233702</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>0.3050575254999998</v>
+        <v>0.1208451536049431</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>0.2290472509220167</v>
+        <v>0.2349921061754817</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>0.2670129835325243</v>
+        <v>0.3752229493429772</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>0.08070571598535239</v>
+        <v>0.3992932958343549</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0.7519865985870102</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
@@ -8136,25 +8136,25 @@
         </is>
       </c>
       <c r="T21" s="3" t="n">
-        <v>-3.805101875000002</v>
+        <v>8.007393086225639</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>-3.805583475000001</v>
+        <v>7.576703891924136</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>1.014025211</v>
+        <v>8.157292915508265</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>0.8396944999999985</v>
+        <v>8.380110139587051</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>0.6523089409999994</v>
+        <v>8.170689687679731</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>0.5912957189999997</v>
+        <v>8.125023060205701</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>1.014025211</v>
+        <v>8.157292915508265</v>
       </c>
     </row>
     <row r="22">
@@ -8164,40 +8164,40 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.1271364689999999</v>
+        <v>8.156690510305726</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.2051218749999999</v>
+        <v>8.148028553502144</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.1066225764999997</v>
+        <v>8.145015489397998</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.07798540600000001</v>
+        <v>0.008661956803582171</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.02051389250000012</v>
+        <v>0.01167502090772743</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>0.09849929850000012</v>
+        <v>0.003013064104145258</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0.8452412991774076</v>
+        <v>0.7232425014177646</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>0.9550786424733637</v>
+        <v>0.6386053634128632</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>0.6697219456075956</v>
+        <v>0.5502559202954811</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>0.9564572595954876</v>
+        <v>0.777485689024097</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0.9686627716433213</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0.7783255043547732</v>
+        <v>0.7124723725845453</v>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
@@ -8230,25 +8230,25 @@
         </is>
       </c>
       <c r="T22" s="3" t="n">
-        <v>-0.3920958040000002</v>
+        <v>8.131011693663222</v>
       </c>
       <c r="U22" s="3" t="n">
-        <v>0.3693418500000001</v>
+        <v>8.189412484865231</v>
       </c>
       <c r="V22" s="3" t="n">
-        <v>0.4041633609999997</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="W22" s="3" t="n">
-        <v>0.006080389</v>
+        <v>8.146409754615567</v>
       </c>
       <c r="X22" s="3" t="n">
-        <v>0.1081800459999998</v>
+        <v>8.148924698639853</v>
       </c>
       <c r="Y22" s="3" t="n">
-        <v>0.1050651069999997</v>
+        <v>8.141106280156144</v>
       </c>
       <c r="Z22" s="3" t="n">
-        <v>0.4041633609999997</v>
+        <v>8.149647352388723</v>
       </c>
     </row>
     <row r="23">
@@ -8258,40 +8258,40 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.117668469666667</v>
+        <v>8.13439393589311</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1.886020182000001</v>
+        <v>8.067314310346184</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>-0.7137417799999994</v>
+        <v>8.145969027440618</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-0.7683517123333339</v>
+        <v>0.06707962554692593</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>1.831410249666667</v>
+        <v>-0.01157509154750791</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>2.599761962000001</v>
+        <v>-0.07865471709443383</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>0.8042183821060658</v>
+        <v>0.5795349396724533</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.4526438582144698</v>
+        <v>0.8297989627512173</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>0.4118101854988853</v>
+        <v>0.617408952566367</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.6766095329333616</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0.846247213183574</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0.6884307857658593</v>
+        <v>0.730457859601503</v>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
@@ -8324,25 +8324,25 @@
         </is>
       </c>
       <c r="T23" s="3" t="n">
-        <v>-0.5286445650000005</v>
+        <v>8.126264080364296</v>
       </c>
       <c r="U23" s="3" t="n">
-        <v>-0.5291261649999992</v>
+        <v>8.077767050526505</v>
       </c>
       <c r="V23" s="3" t="n">
-        <v>4.410776139000001</v>
+        <v>8.199150676788529</v>
       </c>
       <c r="W23" s="3" t="n">
-        <v>-0.6387357749999989</v>
+        <v>7.935477943903841</v>
       </c>
       <c r="X23" s="3" t="n">
-        <v>-0.5947961849999999</v>
+        <v>8.120310796756947</v>
       </c>
       <c r="Y23" s="3" t="n">
-        <v>-0.832687374999999</v>
+        <v>8.171627258124291</v>
       </c>
       <c r="Z23" s="3" t="n">
-        <v>4.410776139000001</v>
+        <v>8.199150676788529</v>
       </c>
     </row>
     <row r="24">
@@ -8352,40 +8352,40 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-1.732231773333333</v>
+        <v>7.985975814593856</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.7495083789999994</v>
+        <v>8.321366959190147</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>-2.663851265</v>
+        <v>8.105673851293353</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>-0.9827233943333333</v>
+        <v>-0.3353911445962909</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0.9316194916666671</v>
+        <v>-0.1196980366994973</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>1.914342886</v>
+        <v>0.2156931078967936</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>0.7149738129197887</v>
+        <v>0.2877728310161519</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>0.6523235893020071</v>
+        <v>0.6225530488198646</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>0.4969845238461507</v>
+        <v>0.4606950110066961</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
@@ -8418,25 +8418,25 @@
         </is>
       </c>
       <c r="T24" s="3" t="n">
-        <v>1.05069256</v>
+        <v>8.180243371378971</v>
       </c>
       <c r="U24" s="3" t="n">
-        <v>-3.271717069999999</v>
+        <v>7.671158733088052</v>
       </c>
       <c r="V24" s="3" t="n">
-        <v>-2.97567081</v>
+        <v>8.106525339314544</v>
       </c>
       <c r="W24" s="3" t="n">
-        <v>1.476654052000001</v>
+        <v>8.536208579065748</v>
       </c>
       <c r="X24" s="3" t="n">
-        <v>-3.33738709</v>
+        <v>8.002912498958395</v>
       </c>
       <c r="Y24" s="3" t="n">
-        <v>-1.99031544</v>
+        <v>8.208435203628314</v>
       </c>
       <c r="Z24" s="3" t="n">
-        <v>-2.97567081</v>
+        <v>8.106525339314544</v>
       </c>
     </row>
     <row r="25">
@@ -8446,40 +8446,40 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.04546483399999996</v>
+        <v>8.149456306924771</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.02280092249999965</v>
+        <v>8.177147055250067</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-0.2791526320000002</v>
+        <v>8.141502840516598</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.02266391150000031</v>
+        <v>-0.02769074832529661</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0.3246174660000001</v>
+        <v>0.007953466408173071</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>0.3019535544999998</v>
+        <v>0.03564421473346968</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>0.9248841564550289</v>
+        <v>0.371343652656791</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0.1449876741029592</v>
+        <v>0.4447901003027046</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>0.2882299534087717</v>
+        <v>0.4307864395880996</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>0.9942504681891561</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
@@ -8512,25 +8512,25 @@
         </is>
       </c>
       <c r="T25" s="3" t="n">
-        <v>0.2487187390000001</v>
+        <v>8.153085582672817</v>
       </c>
       <c r="U25" s="3" t="n">
-        <v>0.0687265400000001</v>
+        <v>8.153010843580333</v>
       </c>
       <c r="V25" s="3" t="n">
-        <v>-0.1810507770000003</v>
+        <v>8.142272494521164</v>
       </c>
       <c r="W25" s="3" t="n">
-        <v>0.2266526219999996</v>
+        <v>8.212021615978971</v>
       </c>
       <c r="X25" s="3" t="n">
-        <v>-0.3324599270000004</v>
+        <v>8.131055402239895</v>
       </c>
       <c r="Y25" s="3" t="n">
-        <v>-0.225845337</v>
+        <v>8.151950278793302</v>
       </c>
       <c r="Z25" s="3" t="n">
-        <v>-0.1810507770000003</v>
+        <v>8.142272494521164</v>
       </c>
     </row>
     <row r="26">
@@ -8540,40 +8540,40 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-0.04355907449999948</v>
+        <v>8.118925331962851</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.6213979720000011</v>
+        <v>8.136995196152053</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.3409829140000005</v>
+        <v>8.138583580363655</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>-0.6649570465000006</v>
+        <v>-0.01806986418920253</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-0.3845419884999999</v>
+        <v>-0.01965824840080366</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>0.2804150580000007</v>
+        <v>-0.001588384211601124</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>0.577422434276484</v>
+        <v>0.6326402124106901</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>0.7075867466722274</v>
+        <v>0.5602908987601484</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>0.7449003693438144</v>
+        <v>0.9586570895267252</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.715882345622623</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0.8429135758364216</v>
+        <v>0.9586570895267252</v>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
@@ -8606,25 +8606,25 @@
         </is>
       </c>
       <c r="T26" s="3" t="n">
-        <v>-1.0121917725</v>
+        <v>8.109325058890217</v>
       </c>
       <c r="U26" s="3" t="n">
-        <v>-0.4651851654999994</v>
+        <v>8.086004447609701</v>
       </c>
       <c r="V26" s="3" t="n">
-        <v>1.346699714500001</v>
+        <v>8.161446489388636</v>
       </c>
       <c r="W26" s="3" t="n">
-        <v>-0.1039037704999988</v>
+        <v>8.112543902915469</v>
       </c>
       <c r="X26" s="3" t="n">
-        <v>0.1440501215000003</v>
+        <v>8.150369644337641</v>
       </c>
       <c r="Y26" s="3" t="n">
-        <v>0.5379157065000006</v>
+        <v>8.126797516389669</v>
       </c>
       <c r="Z26" s="3" t="n">
-        <v>1.346699714500001</v>
+        <v>8.161446489388636</v>
       </c>
     </row>
     <row r="27">
@@ -8634,40 +8634,40 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.5776478449999999</v>
+        <v>8.216371646997194</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.3317346575000002</v>
+        <v>8.039593864721926</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>-2.155893328</v>
+        <v>8.030536130908519</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.9093825025000001</v>
+        <v>0.1767777822752681</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>2.733541173</v>
+        <v>0.1858355160886749</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>1.8241586705</v>
+        <v>0.009057733813406799</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>0.3944371559183654</v>
+        <v>0.2511907917959085</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0.3007999578212338</v>
+        <v>0.2219045564724429</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>0.5697198928981015</v>
+        <v>0.9550451185090965</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0.7519865985870102</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.9586570895267252</v>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
@@ -8700,25 +8700,25 @@
         </is>
       </c>
       <c r="T27" s="3" t="n">
-        <v>-0.1931891439999998</v>
+        <v>8.137899570399137</v>
       </c>
       <c r="U27" s="3" t="n">
-        <v>1.949287415</v>
+        <v>8.366949356532913</v>
       </c>
       <c r="V27" s="3" t="n">
-        <v>-0.0231547360000004</v>
+        <v>8.144266014059534</v>
       </c>
       <c r="W27" s="3" t="n">
-        <v>-0.640314579</v>
+        <v>7.934921715384317</v>
       </c>
       <c r="X27" s="3" t="n">
-        <v>-4.844302659</v>
+        <v>7.934095370198534</v>
       </c>
       <c r="Y27" s="3" t="n">
-        <v>0.5325160029999996</v>
+        <v>8.126976891618506</v>
       </c>
       <c r="Z27" s="3" t="n">
-        <v>-0.0231547360000004</v>
+        <v>8.144266014059534</v>
       </c>
     </row>
     <row r="28">
@@ -8728,40 +8728,40 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-1.363730270833335</v>
+        <v>7.909005224606301</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-2.318766119</v>
+        <v>4.072784846049519</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.4739060404999984</v>
+        <v>8.151277379111855</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.9550358481666656</v>
+        <v>3.836220378556782</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-1.837636311333333</v>
+        <v>-0.2422721545055539</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>-2.792672159499999</v>
+        <v>-4.078492533062336</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>0.7519086910499138</v>
+        <v>0.2977171433171596</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>0.4461398407690755</v>
+        <v>0.4974739496627241</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>0.365091966422503</v>
+        <v>0.4221143752173899</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0.846247213183574</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
@@ -8794,25 +8794,25 @@
         </is>
       </c>
       <c r="T28" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="U28" s="3" t="n">
-        <v>-4.608143327500001</v>
+        <v>7.421947553957015</v>
       </c>
       <c r="V28" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="W28" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="X28" s="3" t="n">
-        <v>0.6115889554999985</v>
+        <v>8.169072219035579</v>
       </c>
       <c r="Y28" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
       <c r="Z28" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
     </row>
     <row r="29">
@@ -8822,40 +8822,40 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.5245387553333326</v>
+        <v>8.135321472611931</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.7530636789999992</v>
+        <v>8.078227317116683</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0.2202126980000002</v>
+        <v>8.136515316801074</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.2285249236666665</v>
+        <v>0.05709415549524799</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-0.7447514533333328</v>
+        <v>-0.001193844189142368</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>-0.9732763769999992</v>
+        <v>-0.05828799968439036</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>0.6883436720633914</v>
+        <v>0.2439409460213176</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0.2099006896608586</v>
+        <v>0.9065377632904388</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>0.1633158907150647</v>
+        <v>0.3821803971661193</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0.6942868965705324</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
@@ -8888,25 +8888,25 @@
         </is>
       </c>
       <c r="T29" s="3" t="n">
-        <v>-0.4614017009999998</v>
+        <v>8.128603975111927</v>
       </c>
       <c r="U29" s="3" t="n">
-        <v>0.0211999420000008</v>
+        <v>8.147170803479083</v>
       </c>
       <c r="V29" s="3" t="n">
-        <v>-1.133414506999999</v>
+        <v>8.130189639244783</v>
       </c>
       <c r="W29" s="3" t="n">
-        <v>-0.3727128509999993</v>
+        <v>8.026264994988583</v>
       </c>
       <c r="X29" s="3" t="n">
-        <v>-0.0211999419999999</v>
+        <v>8.143700858535958</v>
       </c>
       <c r="Y29" s="3" t="n">
-        <v>0.4616253380000002</v>
+        <v>8.129329775066187</v>
       </c>
       <c r="Z29" s="3" t="n">
-        <v>-1.133414506999999</v>
+        <v>8.130189639244783</v>
       </c>
     </row>
     <row r="30">
@@ -8916,40 +8916,40 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-0.4375145430000001</v>
+        <v>8.134760886954643</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.488443374</v>
+        <v>8.032831446944602</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>-0.3011372085000001</v>
+        <v>8.134692922676585</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.05092883099999995</v>
+        <v>0.101929440010041</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-0.1363773344999999</v>
+        <v>6.796427805788596e-05</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>-0.1873061654999999</v>
+        <v>-0.1018614757319831</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>0.9224072349546069</v>
+        <v>0.3058468717755726</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>0.8006283823392462</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>0.5922934825171686</v>
+        <v>0.4469158895803289</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>0.9942504681891561</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0.9059742221207259</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
@@ -8982,25 +8982,25 @@
         </is>
       </c>
       <c r="T30" s="3" t="n">
-        <v>-1.112022638</v>
+        <v>8.105803002043899</v>
       </c>
       <c r="U30" s="3" t="n">
-        <v>0.107996226</v>
+        <v>8.157818506234689</v>
       </c>
       <c r="V30" s="3" t="n">
-        <v>-0.3085172170000003</v>
+        <v>8.140661152585336</v>
       </c>
       <c r="W30" s="3" t="n">
-        <v>-0.6683695309999997</v>
+        <v>7.925001741303869</v>
       </c>
       <c r="X30" s="3" t="n">
-        <v>-0.5369665619999999</v>
+        <v>8.122686231782511</v>
       </c>
       <c r="Y30" s="3" t="n">
-        <v>-0.0653078550000003</v>
+        <v>8.146699613570659</v>
       </c>
       <c r="Z30" s="3" t="n">
-        <v>-0.3085172170000003</v>
+        <v>8.140661152585336</v>
       </c>
     </row>
     <row r="31">
@@ -9010,40 +9010,40 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.1295905114999988</v>
+        <v>8.12524848109846</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.1327533724999989</v>
+        <v>8.20248640293822</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>-0.2387983799999986</v>
+        <v>8.17310654675758</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0.003162861000000128</v>
+        <v>-0.0772379218397603</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.1092078684999998</v>
+        <v>-0.04785806565912054</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>0.1060450074999997</v>
+        <v>0.02937985618063976</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>0.9971280162985221</v>
+        <v>0.323959111841846</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.9130901338687899</v>
+        <v>0.3469670208969955</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>0.9242226562181098</v>
+        <v>0.7035256949426458</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>0.9971280162985221</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0.9686627716433213</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>0.9462279575566364</v>
+        <v>0.7960948653298361</v>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
@@ -9076,25 +9076,25 @@
         </is>
       </c>
       <c r="T31" s="3" t="n">
-        <v>0.9446644785000018</v>
+        <v>8.176682061252146</v>
       </c>
       <c r="U31" s="3" t="n">
-        <v>-0.640779972499999</v>
+        <v>8.063269157763518</v>
       </c>
       <c r="V31" s="3" t="n">
-        <v>-0.6926560404999993</v>
+        <v>8.135794224279712</v>
       </c>
       <c r="W31" s="3" t="n">
-        <v>0.4271492955000014</v>
+        <v>8.26917858159673</v>
       </c>
       <c r="X31" s="3" t="n">
-        <v>0.5736589435000017</v>
+        <v>8.167563939944388</v>
       </c>
       <c r="Y31" s="3" t="n">
-        <v>-1.051255703499999</v>
+        <v>8.178649153570774</v>
       </c>
       <c r="Z31" s="3" t="n">
-        <v>-0.6926560404999993</v>
+        <v>8.135794224279712</v>
       </c>
     </row>
     <row r="32">
@@ -9104,40 +9104,40 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.2235166228333334</v>
+        <v>8.154365414142861</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.3422319885000005</v>
+        <v>8.208585149600106</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>-1.055803776</v>
+        <v>8.167428554758771</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>-0.1187153656666671</v>
+        <v>-0.05421973545724512</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>1.279320398833333</v>
+        <v>-0.01306314061591074</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>1.398035764500001</v>
+        <v>0.04115659484133438</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>0.2599905036956749</v>
+        <v>0.3198656906278189</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0.1076092649678631</v>
+        <v>0.6586399266006234</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>0.2056658046749869</v>
+        <v>0.6173623362523083</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.730457859601503</v>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
@@ -9170,25 +9170,25 @@
         </is>
       </c>
       <c r="T32" s="3" t="n">
-        <v>0.2781434054999998</v>
+        <v>8.154091097491825</v>
       </c>
       <c r="U32" s="3" t="n">
-        <v>0.1358089444999999</v>
+        <v>8.161213863053721</v>
       </c>
       <c r="V32" s="3" t="n">
-        <v>0.2565975185000005</v>
+        <v>8.147791281883038</v>
       </c>
       <c r="W32" s="3" t="n">
-        <v>0.4278664585000005</v>
+        <v>8.269379017317174</v>
       </c>
       <c r="X32" s="3" t="n">
-        <v>-0.3046503065000001</v>
+        <v>8.132189734415231</v>
       </c>
       <c r="Y32" s="3" t="n">
-        <v>-1.8069572455</v>
+        <v>8.202667375102314</v>
       </c>
       <c r="Z32" s="3" t="n">
-        <v>0.2565975185000005</v>
+        <v>8.147791281883038</v>
       </c>
     </row>
     <row r="33">
@@ -9198,40 +9198,40 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-0.02299086266666613</v>
+        <v>8.157281522727361</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.3928389545000001</v>
+        <v>8.28862754991674</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>-1.538074970499999</v>
+        <v>8.148478532976966</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>-0.4158298171666662</v>
+        <v>-0.1313460271893785</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>1.515084107833333</v>
+        <v>0.00880298975039473</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>1.930913925</v>
+        <v>0.1401490169397732</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>0.5170032940338724</v>
+        <v>0.3267892719120226</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>0.02294032147907383</v>
+        <v>0.8634155343339747</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>0.1182086904121991</v>
+        <v>0.4673730397788748</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0.4983179483988122</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
@@ -9264,25 +9264,25 @@
         </is>
       </c>
       <c r="T33" s="3" t="n">
-        <v>-0.1919274329999991</v>
+        <v>8.137943157005292</v>
       </c>
       <c r="U33" s="3" t="n">
-        <v>0.3978285790000005</v>
+        <v>8.19281478626691</v>
       </c>
       <c r="V33" s="3" t="n">
-        <v>-0.2748737339999998</v>
+        <v>8.141086624909882</v>
       </c>
       <c r="W33" s="3" t="n">
-        <v>1.060551643</v>
+        <v>8.436168474923598</v>
       </c>
       <c r="X33" s="3" t="n">
-        <v>-1.242311000999999</v>
+        <v>8.093442639788787</v>
       </c>
       <c r="Y33" s="3" t="n">
-        <v>-1.83383894</v>
+        <v>8.203514426165144</v>
       </c>
       <c r="Z33" s="3" t="n">
-        <v>-0.2748737339999998</v>
+        <v>8.141086624909882</v>
       </c>
     </row>
     <row r="34">
@@ -9292,40 +9292,40 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-1.683403809333334</v>
+        <v>7.825151733581895</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.9071671959999997</v>
+        <v>8.229464742458291</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-0.4447813035000008</v>
+        <v>8.121920114835179</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>-2.590571005333334</v>
+        <v>-0.4043130088763958</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>-1.238622505833333</v>
+        <v>-0.2967683812532842</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>1.351948499500001</v>
+        <v>0.1075446276231116</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>0.4041422468540946</v>
+        <v>0.3975885463008375</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0.6768008782228979</v>
+        <v>0.5194592743695434</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>0.1839489693969774</v>
+        <v>0.2706273710377198</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5342596090917503</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
@@ -9358,25 +9358,25 @@
         </is>
       </c>
       <c r="T34" s="3" t="n">
-        <v>-0.6887531280000001</v>
+        <v>8.120677352312102</v>
       </c>
       <c r="U34" s="3" t="n">
-        <v>-5.643430708</v>
+        <v>7.194138568841097</v>
       </c>
       <c r="V34" s="3" t="n">
-        <v>1.281972408</v>
+        <v>8.160639279592486</v>
       </c>
       <c r="W34" s="3" t="n">
-        <v>0.5323619839999996</v>
+        <v>8.298290205324093</v>
       </c>
       <c r="X34" s="3" t="n">
-        <v>-1.008660317</v>
+        <v>8.103195607029678</v>
       </c>
       <c r="Y34" s="3" t="n">
-        <v>0.1190977099999984</v>
+        <v>8.14064462264068</v>
       </c>
       <c r="Z34" s="3" t="n">
-        <v>1.281972408</v>
+        <v>8.160639279592486</v>
       </c>
     </row>
     <row r="35">
@@ -9386,40 +9386,40 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-0.7155067114999994</v>
+        <v>7.891424510490602</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>1.243080378</v>
+        <v>8.308953801662634</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>-2.202508928499999</v>
+        <v>8.018269252676424</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>-1.958587089499999</v>
+        <v>-0.4175292911720323</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>1.487002217</v>
+        <v>-0.1268447421858223</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>3.4455893065</v>
+        <v>0.29068454898621</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0.541011682204925</v>
+        <v>0.3621442109550381</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.7083268750494074</v>
+        <v>0.7610458337247314</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0.3679889172779609</v>
+        <v>0.2448626490450817</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9916657833382864</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
@@ -9452,25 +9452,25 @@
         </is>
       </c>
       <c r="T35" s="3" t="n">
-        <v>1.632748604500001</v>
+        <v>8.199638614560289</v>
       </c>
       <c r="U35" s="3" t="n">
-        <v>-5.122620103499999</v>
+        <v>7.313230173490187</v>
       </c>
       <c r="V35" s="3" t="n">
-        <v>1.3433513645</v>
+        <v>8.161404743421329</v>
       </c>
       <c r="W35" s="3" t="n">
-        <v>1.1428093915</v>
+        <v>8.456502859903939</v>
       </c>
       <c r="X35" s="3" t="n">
-        <v>-5.1882901235</v>
+        <v>7.917915221564688</v>
       </c>
       <c r="Y35" s="3" t="n">
-        <v>0.7832722665000009</v>
+        <v>8.118623283788159</v>
       </c>
       <c r="Z35" s="3" t="n">
-        <v>1.3433513645</v>
+        <v>8.161404743421329</v>
       </c>
     </row>
     <row r="36">
@@ -9480,40 +9480,40 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-1.810087998166666</v>
+        <v>7.869418837327129</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.4019575115</v>
+        <v>8.23315611512878</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>-0.5505805014999998</v>
+        <v>8.144566901437619</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>-2.212045509666666</v>
+        <v>-0.3637372778016514</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>-1.259507496666666</v>
+        <v>-0.27514806411049</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>0.9525380129999999</v>
+        <v>0.08858921369116146</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>0.3680206980297336</v>
+        <v>0.3740058946726068</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>0.5887739433851424</v>
+        <v>0.4816327607894178</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>0.04798017937186656</v>
+        <v>0.4219332803315307</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
@@ -9546,25 +9546,25 @@
         </is>
       </c>
       <c r="T36" s="3" t="n">
-        <v>-0.6158680914999994</v>
+        <v>8.123223240080467</v>
       </c>
       <c r="U36" s="3" t="n">
-        <v>-5.0086665135</v>
+        <v>7.338026650361973</v>
       </c>
       <c r="V36" s="3" t="n">
-        <v>0.1942706105000003</v>
+        <v>8.147006621538946</v>
       </c>
       <c r="W36" s="3" t="n">
-        <v>0.6096444124999998</v>
+        <v>8.319305608718615</v>
       </c>
       <c r="X36" s="3" t="n">
-        <v>-0.4893736835000002</v>
+        <v>8.124638248068864</v>
       </c>
       <c r="Y36" s="3" t="n">
-        <v>-0.6117873194999994</v>
+        <v>8.164495554806374</v>
       </c>
       <c r="Z36" s="3" t="n">
-        <v>0.1942706105000003</v>
+        <v>8.147006621538946</v>
       </c>
     </row>
     <row r="37">
@@ -9574,40 +9574,40 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-0.4033506715000008</v>
+        <v>8.119967659731588</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.0636143685000006</v>
+        <v>8.146194195434131</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.5064954754999993</v>
+        <v>8.124126857297423</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>-0.3397363030000001</v>
+        <v>-0.02622653570254307</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>-0.9098461470000001</v>
+        <v>-0.004159197565835271</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>-0.5701098439999999</v>
+        <v>0.0220673381367078</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>0.2026165828131645</v>
+        <v>0.2318847800882103</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>0.1620236717995759</v>
+        <v>0.8574283435636985</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>0.4482805116614897</v>
+        <v>0.3202952900882108</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9976963978080137</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>0.6884307857658593</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
@@ -9640,25 +9640,25 @@
         </is>
       </c>
       <c r="T37" s="3" t="n">
-        <v>-0.680533886500001</v>
+        <v>8.120964676788132</v>
       </c>
       <c r="U37" s="3" t="n">
-        <v>-0.3855586055</v>
+        <v>8.096197263927097</v>
       </c>
       <c r="V37" s="3" t="n">
-        <v>-0.1439595225000012</v>
+        <v>8.142741038479537</v>
       </c>
       <c r="W37" s="3" t="n">
-        <v>0.0167307855</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="X37" s="3" t="n">
-        <v>-0.0975909235000003</v>
+        <v>8.140607595431023</v>
       </c>
       <c r="Y37" s="3" t="n">
-        <v>1.110581874499999</v>
+        <v>8.107646119163824</v>
       </c>
       <c r="Z37" s="3" t="n">
-        <v>-0.1439595225000012</v>
+        <v>8.142741038479537</v>
       </c>
     </row>
     <row r="38">
@@ -9668,40 +9668,40 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.1254241066666667</v>
+        <v>8.149398497402219</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.1601955890000002</v>
+        <v>8.169745928806034</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>-0.3756662604999996</v>
+        <v>8.137739267902571</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>-0.03477148233333352</v>
+        <v>-0.02034743140381501</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.5010903671666663</v>
+        <v>0.01165922949964759</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>0.5358618494999998</v>
+        <v>0.0320066609034626</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>0.488629045174568</v>
+        <v>0.3263852320743809</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0.02317757899529359</v>
+        <v>0.3626140919427577</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>0.06587662391735748</v>
+        <v>0.3614905097886707</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0.4983179483988122</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
@@ -9734,25 +9734,25 @@
         </is>
       </c>
       <c r="T38" s="3" t="n">
-        <v>0.1603006119999999</v>
+        <v>8.150059889233457</v>
       </c>
       <c r="U38" s="3" t="n">
-        <v>0.057013392</v>
+        <v>8.151573732613556</v>
       </c>
       <c r="V38" s="3" t="n">
-        <v>0.1589583160000001</v>
+        <v>8.146561870359641</v>
       </c>
       <c r="W38" s="3" t="n">
-        <v>0.1614328620000003</v>
+        <v>8.192929987252425</v>
       </c>
       <c r="X38" s="3" t="n">
-        <v>-0.5204519029999997</v>
+        <v>8.12336387784001</v>
       </c>
       <c r="Y38" s="3" t="n">
-        <v>-0.2308806179999996</v>
+        <v>8.15211465796513</v>
       </c>
       <c r="Z38" s="3" t="n">
-        <v>0.1589583160000001</v>
+        <v>8.146561870359641</v>
       </c>
     </row>
     <row r="39">
@@ -9762,40 +9762,40 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.8940372466666657</v>
+        <v>8.222796907410109</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.5791745184999986</v>
+        <v>8.230586928320204</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.7171831129999989</v>
+        <v>8.117824423332543</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.3148627281666672</v>
+        <v>-0.007790020910094952</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.1768541336666668</v>
+        <v>0.1049724840775657</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>-0.1380085945000004</v>
+        <v>0.1127625049876606</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>0.6832098832305038</v>
+        <v>0.9479561123146097</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0.8591861686059319</v>
+        <v>0.3482195288496732</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>0.8778069392831238</v>
+        <v>0.3034976208825726</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.9479561123146097</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0.9473078269244891</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>0.9436424597293581</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
@@ -9828,25 +9828,25 @@
         </is>
       </c>
       <c r="T39" s="3" t="n">
-        <v>0.1482596399999991</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="U39" s="3" t="n">
-        <v>1.948008536999999</v>
+        <v>8.366814134349674</v>
       </c>
       <c r="V39" s="3" t="n">
-        <v>0.5858435629999992</v>
+        <v>8.151929235491933</v>
       </c>
       <c r="W39" s="3" t="n">
-        <v>0.572505473999998</v>
+        <v>8.309244621148473</v>
       </c>
       <c r="X39" s="3" t="n">
-        <v>-0.07543230100000101</v>
+        <v>8.141505536913584</v>
       </c>
       <c r="Y39" s="3" t="n">
-        <v>1.509798526999999</v>
+        <v>8.094143309751503</v>
       </c>
       <c r="Z39" s="3" t="n">
-        <v>0.5858435629999992</v>
+        <v>8.151929235491933</v>
       </c>
     </row>
     <row r="40">
@@ -9856,40 +9856,40 @@
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.5192119281666665</v>
+        <v>8.179991332892264</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.5304057599999998</v>
+        <v>8.150717455569499</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.2092285159999996</v>
+        <v>8.158609507315784</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>-0.01119383183333333</v>
+        <v>0.02927387732276543</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0.3099834121666669</v>
+        <v>0.02138182557647994</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>0.3211772440000003</v>
+        <v>-0.007892051746285489</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>0.9885842558325876</v>
+        <v>0.5821989004310321</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>0.6704322530592728</v>
+        <v>0.6848738439386715</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>0.6685516898620932</v>
+        <v>0.5633502480901056</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>0.9971280162985221</v>
+        <v>0.6766095329333616</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0.8901742699364997</v>
+        <v>0.9499862996568669</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0.7783255043547732</v>
+        <v>0.7124723725845453</v>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
@@ -9922,25 +9922,25 @@
         </is>
       </c>
       <c r="T40" s="3" t="n">
-        <v>-0.4070367815000004</v>
+        <v>8.130492976919498</v>
       </c>
       <c r="U40" s="3" t="n">
-        <v>0.9004368784999999</v>
+        <v>8.251560441679818</v>
       </c>
       <c r="V40" s="3" t="n">
-        <v>1.0642356875</v>
+        <v>8.157920580077477</v>
       </c>
       <c r="W40" s="3" t="n">
-        <v>-0.0034241675000004</v>
+        <v>8.143514331061521</v>
       </c>
       <c r="X40" s="3" t="n">
-        <v>0.5738377574999998</v>
+        <v>8.167571054146782</v>
       </c>
       <c r="Y40" s="3" t="n">
-        <v>-0.1553807255000006</v>
+        <v>8.149647960484785</v>
       </c>
       <c r="Z40" s="3" t="n">
-        <v>1.0642356875</v>
+        <v>8.157920580077477</v>
       </c>
     </row>
     <row r="41">
@@ -9950,40 +9950,40 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.7262788611666666</v>
+        <v>8.171132908555148</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.4788203235000003</v>
+        <v>8.138055866671026</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>-0.3196556569999998</v>
+        <v>8.183251665226438</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.2474585376666664</v>
+        <v>0.03307704188412153</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>1.045934518166666</v>
+        <v>-0.01211875667129014</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>0.7984759805</v>
+        <v>-0.04519579855541167</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>0.6563396002579058</v>
+        <v>0.1548599696762514</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0.3147850877806089</v>
+        <v>0.3527879396207927</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>0.5856504911778145</v>
+        <v>0.163204205064952</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0.7519865985870102</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>0.7276748499496644</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
@@ -10016,25 +10016,25 @@
         </is>
       </c>
       <c r="T41" s="3" t="n">
-        <v>0.8176057335000002</v>
+        <v>8.172402753362533</v>
       </c>
       <c r="U41" s="3" t="n">
-        <v>0.3187229635</v>
+        <v>8.18334697076758</v>
       </c>
       <c r="V41" s="3" t="n">
-        <v>1.0425078865</v>
+        <v>8.157649001535329</v>
       </c>
       <c r="W41" s="3" t="n">
-        <v>-0.0848672394999994</v>
+        <v>8.118462731806723</v>
       </c>
       <c r="X41" s="3" t="n">
-        <v>0.7849948405000005</v>
+        <v>8.175947655872504</v>
       </c>
       <c r="Y41" s="3" t="n">
-        <v>-1.4243061545</v>
+        <v>8.190555674580372</v>
       </c>
       <c r="Z41" s="3" t="n">
-        <v>1.0425078865</v>
+        <v>8.157649001535329</v>
       </c>
     </row>
     <row r="42">
@@ -10044,40 +10044,40 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.03230905500000073</v>
+        <v>8.142021005886777</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.0266847600000011</v>
+        <v>8.118655035774527</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>-0.2511491799999988</v>
+        <v>8.147927912558194</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0.005624294999999634</v>
+        <v>0.02336597011225017</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0.2834582349999995</v>
+        <v>-0.005906906671416579</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>0.2778339399999998</v>
+        <v>-0.02927287678366675</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>0.9790839862820957</v>
+        <v>0.363486094540902</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>0.1651164174708842</v>
+        <v>0.499526974177469</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>0.35882490141018</v>
+        <v>0.4332174930538301</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>0.9971280162985221</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0.6454550864770927</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
@@ -10110,25 +10110,25 @@
         </is>
       </c>
       <c r="T42" s="3" t="n">
-        <v>-0.0660519649999997</v>
+        <v>8.142284999115775</v>
       </c>
       <c r="U42" s="3" t="n">
-        <v>-0.0665335649999985</v>
+        <v>8.136327666763313</v>
       </c>
       <c r="V42" s="3" t="n">
-        <v>0.2295126950000004</v>
+        <v>8.147450351781247</v>
       </c>
       <c r="W42" s="3" t="n">
-        <v>-0.1761431749999982</v>
+        <v>8.089859719767805</v>
       </c>
       <c r="X42" s="3" t="n">
-        <v>-0.1322035849999992</v>
+        <v>8.1392038553545</v>
       </c>
       <c r="Y42" s="3" t="n">
-        <v>-0.3700947749999983</v>
+        <v>8.156651969761887</v>
       </c>
       <c r="Z42" s="3" t="n">
-        <v>0.2295126950000004</v>
+        <v>8.147450351781247</v>
       </c>
     </row>
     <row r="43">
@@ -10138,40 +10138,40 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.06607755016666624</v>
+        <v>8.131809697743291</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.5437097549999992</v>
+        <v>8.188146886928024</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.4606525894999991</v>
+        <v>8.151984313054026</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>-0.477632204833333</v>
+        <v>-0.05633718918473285</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>-0.3945750393333329</v>
+        <v>-0.02017461531073472</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>0.08305716550000009</v>
+        <v>0.03616257387399813</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>0.4387508083917352</v>
+        <v>0.1612765931471537</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0.4926791138620415</v>
+        <v>0.4262873646243499</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>0.8227021604359389</v>
+        <v>0.436120449829821</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0.8620442673420959</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0.9070818691985993</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
@@ -10204,25 +10204,25 @@
         </is>
       </c>
       <c r="T43" s="3" t="n">
-        <v>-0.3330216405000002</v>
+        <v>8.133060789671523</v>
       </c>
       <c r="U43" s="3" t="n">
-        <v>-0.2974338535000003</v>
+        <v>8.107394592633197</v>
       </c>
       <c r="V43" s="3" t="n">
-        <v>0.8286881444999992</v>
+        <v>8.154973710925152</v>
       </c>
       <c r="W43" s="3" t="n">
-        <v>0.2587313654999992</v>
+        <v>8.221320062930898</v>
       </c>
       <c r="X43" s="3" t="n">
-        <v>0.6189751624999991</v>
+        <v>8.169365746690762</v>
       </c>
       <c r="Y43" s="3" t="n">
-        <v>0.3023300164999991</v>
+        <v>8.13460287941729</v>
       </c>
       <c r="Z43" s="3" t="n">
-        <v>0.8286881444999992</v>
+        <v>8.154973710925152</v>
       </c>
     </row>
     <row r="44">
@@ -10232,40 +10232,40 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-1.363730270833335</v>
+        <v>7.909005224606301</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-2.318766119</v>
+        <v>4.072784846049519</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0.4739060404999984</v>
+        <v>8.151277379111855</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.9550358481666656</v>
+        <v>3.836220378556782</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>-1.837636311333333</v>
+        <v>-0.2422721545055539</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>-2.792672159499999</v>
+        <v>-4.078492533062336</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>0.7519086910499138</v>
+        <v>0.2977171433171596</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0.4461398407690755</v>
+        <v>0.4974739496627241</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>0.365091966422503</v>
+        <v>0.4221143752173899</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>0.9346321737989414</v>
+        <v>0.5187823700297449</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0.846247213183574</v>
+        <v>0.9461253841429083</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0.6851483775625532</v>
+        <v>0.6908927276665683</v>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
@@ -10298,25 +10298,25 @@
         </is>
       </c>
       <c r="T44" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="U44" s="3" t="n">
-        <v>-4.608143327500001</v>
+        <v>7.421947553957015</v>
       </c>
       <c r="V44" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
       <c r="W44" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="n">
-        <v>0.6115889554999985</v>
+        <v>8.169072219035579</v>
       </c>
       <c r="Y44" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
       <c r="Z44" s="3" t="n">
-        <v>0.0802206994999998</v>
+        <v>8.145569692099038</v>
       </c>
     </row>
   </sheetData>
@@ -10351,9 +10351,9 @@
     <col width="38" customWidth="1" min="8" max="8"/>
     <col width="38" customWidth="1" min="9" max="9"/>
     <col width="38" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10430,19 +10430,19 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.6222314835000002</v>
+        <v>8.165797730398412</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.1490590575000006</v>
+        <v>8.12302562203428</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.4731724259999996</v>
+        <v>0.04277210836413126</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.4674269755804063</v>
+        <v>0.2108384777076479</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -10465,13 +10465,13 @@
         </is>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0.6222314835000002</v>
+        <v>8.165797730398412</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>-0.0975103374999992</v>
+        <v>8.114534455375267</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.3956284525000004</v>
+        <v>8.131516788693293</v>
       </c>
     </row>
     <row r="3">
@@ -10481,19 +10481,19 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.266041285</v>
+        <v>8.1353806112134</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1.955882544500001</v>
+        <v>8.01082039099604</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-2.221923829500001</v>
+        <v>0.1245602202173597</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.6798339511640779</v>
+        <v>0.1250708806532296</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -10516,13 +10516,13 @@
         </is>
       </c>
       <c r="K3" s="3" t="n">
-        <v>-0.266041285</v>
+        <v>8.1353806112134</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-0.3761324949999985</v>
+        <v>8.025133473288145</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>4.287897584000001</v>
+        <v>7.996507308703936</v>
       </c>
     </row>
     <row r="4">
@@ -10532,19 +10532,19 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.2873787884999999</v>
+        <v>8.154406549298921</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-1.9274487515</v>
+        <v>4.901024973969701</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2.21482754</v>
+        <v>3.25338157532922</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.723196800384132</v>
+        <v>0.6634870067178422</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -10567,13 +10567,13 @@
         </is>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.2873787884999999</v>
+        <v>8.154406549298921</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>-4.6806931535</v>
+        <v>1.684848082733243</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.8257956504999999</v>
+        <v>8.117201865206159</v>
       </c>
     </row>
     <row r="5">
@@ -10583,19 +10583,19 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.7337994575</v>
+        <v>8.169573214953779</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.2949798110000007</v>
+        <v>7.950000061291835</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1.028779268500001</v>
+        <v>0.2195731536619441</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.5871010830124358</v>
+        <v>0.6067501950550162</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -10618,13 +10618,13 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0.7337994575</v>
+        <v>8.169573214953779</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-1.078610897500001</v>
+        <v>7.771566894334248</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0.4886512754999996</v>
+        <v>8.128433228249422</v>
       </c>
     </row>
     <row r="6">
@@ -10634,19 +10634,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.4433600905000006</v>
+        <v>8.159723988959076</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.7858297819999995</v>
+        <v>8.057591980174511</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1.2291898725</v>
+        <v>0.1021320087845652</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.1409482008440741</v>
+        <v>0.7042578719007064</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -10669,13 +10669,13 @@
         </is>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0.4433600905000006</v>
+        <v>8.159723988959076</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>-0.6260888575000001</v>
+        <v>7.93992585760476</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-0.945570706499999</v>
+        <v>8.175258102744262</v>
       </c>
     </row>
     <row r="7">
@@ -10685,19 +10685,19 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.4996976855000002</v>
+        <v>8.127271829466453</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.6477360730000004</v>
+        <v>8.222538185109867</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-1.147433758500001</v>
+        <v>-0.0952663556434139</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.02423733928766499</v>
+        <v>0.6804989216974143</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.5608310611269186</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -10720,13 +10720,13 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v>-0.4996976855000002</v>
+        <v>8.127271829466453</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.6225023275000003</v>
+        <v>8.322772548480454</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.6729698185000004</v>
+        <v>8.12230382173928</v>
       </c>
     </row>
     <row r="8">
@@ -10736,19 +10736,19 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-3.430460933500001</v>
+        <v>8.021491736619156</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.2306370744999996</v>
+        <v>8.26108571567957</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-3.199823859000001</v>
+        <v>-0.2395939790604142</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.2938410087382022</v>
+        <v>0.3313465253307228</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -10771,13 +10771,13 @@
         </is>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-3.430460933500001</v>
+        <v>8.021491736619156</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0.6882667545000007</v>
+        <v>8.340375796866136</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-1.1495409035</v>
+        <v>8.181795634493003</v>
       </c>
     </row>
     <row r="9">
@@ -10787,19 +10787,19 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>1.297978877500001</v>
+        <v>8.188515312077669</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-1.204069136499999</v>
+        <v>8.184253176668022</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.502048014</v>
+        <v>0.004262135409646817</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.4442522670563214</v>
+        <v>0.9582487129919874</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9582487129919874</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -10822,13 +10822,13 @@
         </is>
       </c>
       <c r="K9" s="3" t="n">
-        <v>1.297978877500001</v>
+        <v>8.188515312077669</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.0073161125000016</v>
+        <v>8.146785773124311</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>-2.415454385499999</v>
+        <v>8.221720580211736</v>
       </c>
     </row>
     <row r="10">
@@ -10838,19 +10838,19 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.402324437499999</v>
+        <v>8.158326972494946</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-1.0384249695</v>
+        <v>8.146705110198473</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>1.440749406999999</v>
+        <v>0.01162186229647233</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.509247065701224</v>
+        <v>0.9275770438450692</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9582487129919874</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -10873,13 +10873,13 @@
         </is>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.402324437499999</v>
+        <v>8.158326972494946</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>-0.1820852765000005</v>
+        <v>8.087977843536422</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-1.8947646625</v>
+        <v>8.205432376860525</v>
       </c>
     </row>
     <row r="11">
@@ -10889,19 +10889,19 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.4520063404999997</v>
+        <v>8.160018169153121</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.5713095665000005</v>
+        <v>8.036897908620691</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>1.023315907</v>
+        <v>0.1231202605324295</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.1337613313138082</v>
+        <v>0.6645938997082774</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -10924,13 +10924,13 @@
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0.4520063404999997</v>
+        <v>8.160018169153121</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>-0.6973056795000003</v>
+        <v>7.914698221654849</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>-0.4453134535000007</v>
+        <v>8.159097595586532</v>
       </c>
     </row>
     <row r="12">
@@ -10940,19 +10940,19 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.0385904310000002</v>
+        <v>8.145884525485707</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.184852362</v>
+        <v>8.222968944656902</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>-0.1462619309999998</v>
+        <v>-0.0770844191711948</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.8451151894294865</v>
+        <v>0.6527011522844546</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8863403206211687</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -10975,13 +10975,13 @@
         </is>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0.0385904310000002</v>
+        <v>8.145884525485707</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.5250668530000002</v>
+        <v>8.296290536925079</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>-0.1553621290000002</v>
+        <v>8.149647352388723</v>
       </c>
     </row>
     <row r="13">
@@ -10991,19 +10991,19 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-0.4042134285000003</v>
+        <v>8.130591011604366</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-0.2395088669999992</v>
+        <v>8.157534258752403</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-0.1647045615000011</v>
+        <v>-0.02694324714803642</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.7845713924118674</v>
+        <v>0.1468702318955559</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.8434142468427575</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -11026,13 +11026,13 @@
         </is>
       </c>
       <c r="K13" s="3" t="n">
-        <v>-0.4042134285000003</v>
+        <v>8.130591011604366</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0.0306921005000004</v>
+        <v>8.153880456257474</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>-0.5097098344999988</v>
+        <v>8.161188061247334</v>
       </c>
     </row>
     <row r="14">
@@ -11042,19 +11042,19 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-4.9504261055</v>
+        <v>7.963416978188648</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-2.613761900999999</v>
+        <v>8.230089658606508</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-2.336664204500001</v>
+        <v>-0.2666726804178596</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.6993178189870568</v>
+        <v>0.2963645814974277</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -11077,13 +11077,13 @@
         </is>
       </c>
       <c r="K14" s="3" t="n">
-        <v>-4.9504261055</v>
+        <v>7.963416978188648</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0.0269451135</v>
+        <v>8.152745579764776</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>-5.254468915499999</v>
+        <v>8.307433737448239</v>
       </c>
     </row>
     <row r="15">
@@ -11093,19 +11093,19 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.6825907224999996</v>
+        <v>8.167841526844452</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.2547407155000005</v>
+        <v>8.168449859228314</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.9373314380000002</v>
+        <v>-0.0006083323838623755</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.3638056000210658</v>
+        <v>0.9474770086314436</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9582487129919874</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -11128,13 +11128,13 @@
         </is>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0.6825907224999996</v>
+        <v>8.167841526844452</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0.09325051249999911</v>
+        <v>8.172697267766324</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>-0.6027319435000003</v>
+        <v>8.164202450690302</v>
       </c>
     </row>
     <row r="16">
@@ -11144,19 +11144,19 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.6923806665000001</v>
+        <v>8.168172746919575</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.5357036589999997</v>
+        <v>8.245094070787012</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.1566770075000004</v>
+        <v>-0.07692132386743644</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.7439423782697971</v>
+        <v>0.7580586210597093</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -11179,13 +11179,13 @@
         </is>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0.6923806665000001</v>
+        <v>8.168172746919575</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0.7483417984999994</v>
+        <v>8.356270573035383</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0.3230655195000001</v>
+        <v>8.133917568538642</v>
       </c>
     </row>
     <row r="17">
@@ -11195,19 +11195,19 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.727401972</v>
+        <v>8.169356989477086</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.01143479349999985</v>
+        <v>8.134202162655338</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.7159671785000001</v>
+        <v>0.03515482682174742</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.1071435751713339</v>
+        <v>0.2301109898746593</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -11230,13 +11230,13 @@
         </is>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0.727401972</v>
+        <v>8.169356989477086</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>-0.0587990280000001</v>
+        <v>8.126528654118353</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0.08166861499999981</v>
+        <v>8.141875671192322</v>
       </c>
     </row>
     <row r="18">
@@ -11246,19 +11246,19 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.2148013109999996</v>
+        <v>8.151925668741541</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.3727831845000001</v>
+        <v>8.215612924254096</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.5875844954999998</v>
+        <v>-0.06368725551255494</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.7245572918214773</v>
+        <v>0.4858297660779983</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -11281,13 +11281,13 @@
         </is>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0.2148013109999996</v>
+        <v>8.151925668741541</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0.3617458339999997</v>
+        <v>8.250781273674066</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>-1.107312203</v>
+        <v>8.180444574834123</v>
       </c>
     </row>
     <row r="19">
@@ -11297,19 +11297,19 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.1717219354999999</v>
+        <v>8.150451087259635</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.1691982749999998</v>
+        <v>8.141520812715417</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.3409202104999998</v>
+        <v>0.008930274544217909</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.3453268001944662</v>
+        <v>0.750081205313227</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="K19" s="3" t="n">
-        <v>0.1717219354999999</v>
+        <v>8.150451087259635</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>-0.0505590444999999</v>
+        <v>8.129068885431293</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>-0.2878375054999998</v>
+        <v>8.15397273999954</v>
       </c>
     </row>
     <row r="20">
@@ -11348,19 +11348,19 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.0505244725000002</v>
+        <v>8.142819687102836</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.6111533645000001</v>
+        <v>8.314987432981393</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-0.6616778370000004</v>
+        <v>-0.1721677458785571</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.6599736403487055</v>
+        <v>0.661999879354279</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -11383,13 +11383,13 @@
         </is>
       </c>
       <c r="K20" s="3" t="n">
-        <v>-0.0505244725000002</v>
+        <v>8.142819687102836</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>1.2570526605</v>
+        <v>8.48427700361167</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>-0.0347459314999998</v>
+        <v>8.145697862351119</v>
       </c>
     </row>
     <row r="21">
@@ -11399,19 +11399,19 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-3.805101875000002</v>
+        <v>8.007393086225639</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.7154951094999991</v>
+        <v>8.252566599896376</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-4.520596984500001</v>
+        <v>-0.2451735136707374</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.03027170817083061</v>
+        <v>0.4668912589568093</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.5608310611269186</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="K21" s="3" t="n">
-        <v>-3.805101875000002</v>
+        <v>8.007393086225639</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0.8396944999999985</v>
+        <v>8.380110139587051</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>0.5912957189999997</v>
+        <v>8.125023060205701</v>
       </c>
     </row>
     <row r="22">
@@ -11450,19 +11450,19 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.3920958040000002</v>
+        <v>8.131011693663222</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.05557274799999985</v>
+        <v>8.143758017385856</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.4476685520000001</v>
+        <v>-0.0127463237226344</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.1204471732033042</v>
+        <v>0.220176163795482</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -11485,13 +11485,13 @@
         </is>
       </c>
       <c r="K22" s="3" t="n">
-        <v>-0.3920958040000002</v>
+        <v>8.131011693663222</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0.006080389</v>
+        <v>8.146409754615567</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0.1050651069999997</v>
+        <v>8.141106280156144</v>
       </c>
     </row>
     <row r="23">
@@ -11501,19 +11501,19 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.5286445650000005</v>
+        <v>8.126264080364296</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.735711574999999</v>
+        <v>8.053552601014065</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.2070670099999985</v>
+        <v>0.07271147935023059</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.433866727428854</v>
+        <v>0.7825309148455377</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -11536,13 +11536,13 @@
         </is>
       </c>
       <c r="K23" s="3" t="n">
-        <v>-0.5286445650000005</v>
+        <v>8.126264080364296</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>-0.6387357749999989</v>
+        <v>7.935477943903841</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>-0.832687374999999</v>
+        <v>8.171627258124291</v>
       </c>
     </row>
     <row r="24">
@@ -11552,19 +11552,19 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.05069256</v>
+        <v>8.180243371378971</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.2568306939999995</v>
+        <v>8.372321891347031</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>1.307523253999999</v>
+        <v>-0.1920785199680601</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.7385312338741605</v>
+        <v>0.6212790622009654</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -11587,13 +11587,13 @@
         </is>
       </c>
       <c r="K24" s="3" t="n">
-        <v>1.05069256</v>
+        <v>8.180243371378971</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>1.476654052000001</v>
+        <v>8.536208579065748</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>-1.99031544</v>
+        <v>8.208435203628314</v>
       </c>
     </row>
     <row r="25">
@@ -11603,19 +11603,19 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.2487187390000001</v>
+        <v>8.153085582672817</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.0004036424999998012</v>
+        <v>8.181985947386137</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.2483150965000003</v>
+        <v>-0.02890036471331925</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.6404358383809952</v>
+        <v>0.677184819899451</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
@@ -11638,13 +11638,13 @@
         </is>
       </c>
       <c r="K25" s="3" t="n">
-        <v>0.2487187390000001</v>
+        <v>8.153085582672817</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0.2266526219999996</v>
+        <v>8.212021615978971</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>-0.225845337</v>
+        <v>8.151950278793302</v>
       </c>
     </row>
     <row r="26">
@@ -11654,19 +11654,19 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-1.0121917725</v>
+        <v>8.109325058890217</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.2170059680000009</v>
+        <v>8.119670709652569</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>-1.229197740500001</v>
+        <v>-0.01034565076235161</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.2703560846781347</v>
+        <v>0.5559245928796646</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -11689,13 +11689,13 @@
         </is>
       </c>
       <c r="K26" s="3" t="n">
-        <v>-1.0121917725</v>
+        <v>8.109325058890217</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>-0.1039037704999988</v>
+        <v>8.112543902915469</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0.5379157065000006</v>
+        <v>8.126797516389669</v>
       </c>
     </row>
     <row r="27">
@@ -11705,19 +11705,19 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-0.1931891439999998</v>
+        <v>8.137899570399137</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.05389928800000021</v>
+        <v>8.030949303501412</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>-0.1392898559999996</v>
+        <v>0.1069502668977247</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.9132372879290441</v>
+        <v>0.6362014127874592</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>0.9349810328797357</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -11740,13 +11740,13 @@
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>-0.1931891439999998</v>
+        <v>8.137899570399137</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>-0.640314579</v>
+        <v>7.934921715384317</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0.5325160029999996</v>
+        <v>8.126976891618506</v>
       </c>
     </row>
     <row r="28">
@@ -11756,19 +11756,19 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-2.190764906000001</v>
+        <v>4.066741269594066</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>2.627496721499999</v>
+        <v>4.092757158168786</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.6558113623448957</v>
+        <v>0.6649059975085156</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -11791,13 +11791,13 @@
         </is>
       </c>
       <c r="K28" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
     </row>
     <row r="29">
@@ -11807,19 +11807,19 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.4614017009999998</v>
+        <v>8.128603975111927</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.04445624350000046</v>
+        <v>8.077797385027385</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>-0.5058579445000002</v>
+        <v>0.05080659008454269</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.611159983039347</v>
+        <v>0.6705628902853839</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
@@ -11842,13 +11842,13 @@
         </is>
       </c>
       <c r="K29" s="3" t="n">
-        <v>-0.4614017009999998</v>
+        <v>8.128603975111927</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>-0.3727128509999993</v>
+        <v>8.026264994988583</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0.4616253380000002</v>
+        <v>8.129329775066187</v>
       </c>
     </row>
     <row r="30">
@@ -11858,19 +11858,19 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-1.112022638</v>
+        <v>8.105803002043899</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.366838693</v>
+        <v>8.035850677437264</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>-0.745183945</v>
+        <v>0.06995232460663559</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.3891658662884778</v>
+        <v>0.7775684581680957</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
@@ -11893,13 +11893,13 @@
         </is>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-1.112022638</v>
+        <v>8.105803002043899</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>-0.6683695309999997</v>
+        <v>7.925001741303869</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>-0.0653078550000003</v>
+        <v>8.146699613570659</v>
       </c>
     </row>
     <row r="31">
@@ -11909,19 +11909,19 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.9446644785000018</v>
+        <v>8.176682061252146</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.3120532039999988</v>
+        <v>8.223913867583752</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>1.256717682500001</v>
+        <v>-0.04723180633160595</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0.5059264154239358</v>
+        <v>0.6548170945454477</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
@@ -11944,13 +11944,13 @@
         </is>
       </c>
       <c r="K31" s="3" t="n">
-        <v>0.9446644785000018</v>
+        <v>8.176682061252146</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0.4271492955000014</v>
+        <v>8.26917858159673</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>-1.051255703499999</v>
+        <v>8.178649153570774</v>
       </c>
     </row>
     <row r="32">
@@ -11960,19 +11960,19 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.2781434054999998</v>
+        <v>8.154091097491825</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-0.6895453934999998</v>
+        <v>8.236023196209743</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.9676887989999996</v>
+        <v>-0.08193209871791751</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.7048375674733474</v>
+        <v>0.390993005457788</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
@@ -11995,13 +11995,13 @@
         </is>
       </c>
       <c r="K32" s="3" t="n">
-        <v>0.2781434054999998</v>
+        <v>8.154091097491825</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0.4278664585000005</v>
+        <v>8.269379017317174</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>-1.8069572455</v>
+        <v>8.202667375102314</v>
       </c>
     </row>
     <row r="33">
@@ -12011,19 +12011,19 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-0.1919274329999991</v>
+        <v>8.137943157005292</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.3866436485</v>
+        <v>8.31984145054437</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.1947162155000009</v>
+        <v>-0.1818982935390778</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0.9506459050150422</v>
+        <v>0.5324950024851071</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>0.9506459050150422</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
@@ -12046,13 +12046,13 @@
         </is>
       </c>
       <c r="K33" s="3" t="n">
-        <v>-0.1919274329999991</v>
+        <v>8.137943157005292</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>1.060551643</v>
+        <v>8.436168474923598</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>-1.83383894</v>
+        <v>8.203514426165144</v>
       </c>
     </row>
     <row r="34">
@@ -12062,19 +12062,19 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-0.6887531280000001</v>
+        <v>8.120677352312102</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.325729846999999</v>
+        <v>8.219467413982386</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-1.014482974999999</v>
+        <v>-0.09879006167028415</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.2159136358242454</v>
+        <v>0.6012262148102316</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
@@ -12097,13 +12097,13 @@
         </is>
       </c>
       <c r="K34" s="3" t="n">
-        <v>-0.6887531280000001</v>
+        <v>8.120677352312102</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0.5323619839999996</v>
+        <v>8.298290205324093</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0.1190977099999984</v>
+        <v>8.14064462264068</v>
       </c>
     </row>
     <row r="35">
@@ -12113,19 +12113,19 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.632748604500001</v>
+        <v>8.199638614560289</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.9630408290000004</v>
+        <v>8.287563071846048</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.6697077755000006</v>
+        <v>-0.08792445728575871</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.2770578178848923</v>
+        <v>0.8141719050305279</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
@@ -12148,13 +12148,13 @@
         </is>
       </c>
       <c r="K35" s="3" t="n">
-        <v>1.632748604500001</v>
+        <v>8.199638614560289</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>1.1428093915</v>
+        <v>8.456502859903939</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0.7832722665000009</v>
+        <v>8.118623283788159</v>
       </c>
     </row>
     <row r="36">
@@ -12164,19 +12164,19 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-0.6158680914999994</v>
+        <v>8.123223240080467</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>-0.001071453499999819</v>
+        <v>8.241900581762494</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>-0.6147966379999996</v>
+        <v>-0.1186773416820266</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.6648277679873904</v>
+        <v>0.5387218654179333</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
@@ -12199,13 +12199,13 @@
         </is>
       </c>
       <c r="K36" s="3" t="n">
-        <v>-0.6158680914999994</v>
+        <v>8.123223240080467</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0.6096444124999998</v>
+        <v>8.319305608718615</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>-0.6117873194999994</v>
+        <v>8.164495554806374</v>
       </c>
     </row>
     <row r="37">
@@ -12215,19 +12215,19 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-0.680533886500001</v>
+        <v>8.120964676788132</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.5636563299999995</v>
+        <v>8.128646735776274</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>-1.244190216500001</v>
+        <v>-0.007682058988141449</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.4142773042373895</v>
+        <v>0.8674958290583314</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9325580162377063</v>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
@@ -12250,13 +12250,13 @@
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>-0.680533886500001</v>
+        <v>8.120964676788132</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0.0167307855</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>1.110581874499999</v>
+        <v>8.107646119163824</v>
       </c>
     </row>
     <row r="38">
@@ -12266,19 +12266,19 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.1603006119999999</v>
+        <v>8.150059889233457</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.03472387799999965</v>
+        <v>8.172522322608778</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.1950244899999996</v>
+        <v>-0.0224624333753205</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.6682601447851921</v>
+        <v>0.6396088817097213</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
@@ -12301,13 +12301,13 @@
         </is>
       </c>
       <c r="K38" s="3" t="n">
-        <v>0.1603006119999999</v>
+        <v>8.150059889233457</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0.1614328620000003</v>
+        <v>8.192929987252425</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>-0.2308806179999996</v>
+        <v>8.15211465796513</v>
       </c>
     </row>
     <row r="39">
@@ -12317,19 +12317,19 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.1482596399999991</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.041152000499999</v>
+        <v>8.201693965449987</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>-0.8928923604999994</v>
+        <v>-0.05204661306126468</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.4697073694683995</v>
+        <v>0.8265544134743077</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
@@ -12352,13 +12352,13 @@
         </is>
       </c>
       <c r="K39" s="3" t="n">
-        <v>0.1482596399999991</v>
+        <v>8.149647352388723</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0.572505473999998</v>
+        <v>8.309244621148473</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>1.509798526999999</v>
+        <v>8.094143309751503</v>
       </c>
     </row>
     <row r="40">
@@ -12368,19 +12368,19 @@
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-0.4070367815000004</v>
+        <v>8.130492976919498</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>-0.0794024465000005</v>
+        <v>8.146581145773153</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>-0.3276343349999999</v>
+        <v>-0.01608816885365449</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.2431494444950567</v>
+        <v>0.2030203108415058</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
@@ -12403,13 +12403,13 @@
         </is>
       </c>
       <c r="K40" s="3" t="n">
-        <v>-0.4070367815000004</v>
+        <v>8.130492976919498</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>-0.0034241675000004</v>
+        <v>8.143514331061521</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>-0.1553807255000006</v>
+        <v>8.149647960484785</v>
       </c>
     </row>
     <row r="41">
@@ -12419,19 +12419,19 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.8176057335000002</v>
+        <v>8.172402753362533</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-0.7545866969999997</v>
+        <v>8.154509203193548</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>1.5721924305</v>
+        <v>0.01789355016898497</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.4046720624062337</v>
+        <v>0.8223089353593015</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
@@ -12454,13 +12454,13 @@
         </is>
       </c>
       <c r="K41" s="3" t="n">
-        <v>0.8176057335000002</v>
+        <v>8.172402753362533</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>-0.0848672394999994</v>
+        <v>8.118462731806723</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>-1.4243061545</v>
+        <v>8.190555674580372</v>
       </c>
     </row>
     <row r="42">
@@ -12470,19 +12470,19 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-0.0660519649999997</v>
+        <v>8.142284999115775</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.2731189749999983</v>
+        <v>8.123255844764845</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>0.2070670099999986</v>
+        <v>0.01902915435093</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0.433866727428854</v>
+        <v>0.7976676815341583</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="K42" s="3" t="n">
-        <v>-0.0660519649999997</v>
+        <v>8.142284999115775</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>-0.1761431749999982</v>
+        <v>8.089859719767805</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>-0.3700947749999983</v>
+        <v>8.156651969761887</v>
       </c>
     </row>
     <row r="43">
@@ -12521,19 +12521,19 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-0.3330216405000002</v>
+        <v>8.133060789671523</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.2805306909999992</v>
+        <v>8.177961471174093</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>-0.6135523314999993</v>
+        <v>-0.04490068150257009</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.03912774845071525</v>
+        <v>0.6569495581467164</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>0.5608310611269186</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
@@ -12556,13 +12556,13 @@
         </is>
       </c>
       <c r="K43" s="3" t="n">
-        <v>-0.3330216405000002</v>
+        <v>8.133060789671523</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0.2587313654999992</v>
+        <v>8.221320062930898</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0.3023300164999991</v>
+        <v>8.13460287941729</v>
       </c>
     </row>
     <row r="44">
@@ -12572,19 +12572,19 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-2.190764906000001</v>
+        <v>4.066741269594066</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>2.627496721499999</v>
+        <v>4.092757158168786</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.6558113623448957</v>
+        <v>0.6649059975085156</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>0.820244160656443</v>
+        <v>0.9113292251126983</v>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
@@ -12607,13 +12607,13 @@
         </is>
       </c>
       <c r="K44" s="3" t="n">
-        <v>0.4367318154999982</v>
+        <v>8.159498427762852</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>-4.7177529375</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0.3362231254999983</v>
+        <v>8.133482539188131</v>
       </c>
     </row>
   </sheetData>
